--- a/Config/Kenya_parameters.xlsx
+++ b/Config/Kenya_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9000" tabRatio="641" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="571">
   <si>
     <t>Metric</t>
   </si>
@@ -960,9 +960,6 @@
     <t>General</t>
   </si>
   <si>
-    <t>Source: DeVuyst, 2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">HIV+ women </t>
   </si>
   <si>
@@ -975,51 +972,9 @@
     <t>CIN2+</t>
   </si>
   <si>
-    <t>37.3%</t>
-  </si>
-  <si>
-    <t>22.7%</t>
-  </si>
-  <si>
-    <t>68.7%</t>
-  </si>
-  <si>
-    <t>52.6%</t>
-  </si>
-  <si>
-    <t>15.7%</t>
-  </si>
-  <si>
-    <t>10.8%</t>
-  </si>
-  <si>
-    <t>5.4%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
-  </si>
-  <si>
-    <t>3.6%</t>
-  </si>
-  <si>
-    <t>5.0%</t>
-  </si>
-  <si>
-    <t>7.2%</t>
-  </si>
-  <si>
     <t>&lt;30 (n=62)</t>
   </si>
   <si>
-    <t>61.3%</t>
-  </si>
-  <si>
-    <t>16.1%</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
     <t>Non-16/18 HR HPV</t>
   </si>
   <si>
@@ -1029,9 +984,6 @@
     <t>CIN1</t>
   </si>
   <si>
-    <t>Source: Menon, 2016</t>
-  </si>
-  <si>
     <t>HIV+ women</t>
   </si>
   <si>
@@ -1762,6 +1714,54 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*about 46% of the female and male population are under 25 years old</t>
+  </si>
+  <si>
+    <t>Source: KAIS 2007</t>
+  </si>
+  <si>
+    <t>ARV coverage among those eligible (&lt;250 CD4 cell counts)</t>
+  </si>
+  <si>
+    <t>Source: 2007 KAIS</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: DeVuyst, 2012; Br J Cancer. 2012 Oct 23; 107(9): 1624–1630. </t>
+  </si>
+  <si>
+    <t>HPV HPV among CIN 2/3</t>
+  </si>
+  <si>
+    <t>Any HPV among CIN 2/3</t>
+  </si>
+  <si>
+    <t>30-34 (n=101)</t>
+  </si>
+  <si>
+    <t>35-39 (n=123)</t>
+  </si>
+  <si>
+    <t>40-44 (n=109)</t>
+  </si>
+  <si>
+    <t>&gt;45 (n=103)</t>
+  </si>
+  <si>
+    <t>Source: Menon, 2016; PLoS One. 2016 Oct 20;11(10):e0163965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSIL </t>
   </si>
 </sst>
 </file>
@@ -2356,10 +2356,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3967,7 +3967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5074,7 +5073,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5189,7 +5187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6237,7 +6234,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6344,7 +6340,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7296,7 +7291,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7403,7 +7397,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8024,7 +8017,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11779,6 +11771,125 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2686050"/>
+          <a:ext cx="5400675" cy="3644861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8734426" y="2695577"/>
+          <a:ext cx="5095874" cy="3780626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256148</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514974" y="6562725"/>
+          <a:ext cx="4561449" cy="3333774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -12117,27 +12228,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="M1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="P2" t="s">
         <v>225</v>
       </c>
       <c r="T2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="W2" t="s">
         <v>225</v>
@@ -12169,51 +12280,51 @@
         <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="N3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="O3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="P3" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="R3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="T3" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="U3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="V3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="W3" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="X3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="Y3" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="16"/>
       <c r="G4" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H4" s="4">
         <v>1422021</v>
@@ -12226,7 +12337,7 @@
         <v>2843406</v>
       </c>
       <c r="L4" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M19" si="0">(I30-H4)/H4*100</f>
@@ -12271,13 +12382,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="H5" s="4">
         <v>1247091</v>
@@ -12290,7 +12401,7 @@
         <v>2491840</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -12335,13 +12446,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="G6" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H6" s="4">
         <v>1050932</v>
@@ -12354,7 +12465,7 @@
         <v>2074771</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
@@ -12399,13 +12510,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H7" s="4">
         <v>854123</v>
@@ -12418,7 +12529,7 @@
         <v>1741845</v>
       </c>
       <c r="L7" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
@@ -12463,13 +12574,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H8" s="4">
         <v>641401</v>
@@ -12482,7 +12593,7 @@
         <v>1327404</v>
       </c>
       <c r="L8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
@@ -12527,13 +12638,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="G9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H9" s="4">
         <v>514451</v>
@@ -12546,7 +12657,7 @@
         <v>1055712</v>
       </c>
       <c r="L9" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
@@ -12591,13 +12702,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H10" s="4">
         <v>405385</v>
@@ -12610,7 +12721,7 @@
         <v>818076</v>
       </c>
       <c r="L10" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
@@ -12655,13 +12766,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="G11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H11" s="4">
         <v>290227</v>
@@ -12674,7 +12785,7 @@
         <v>615594</v>
       </c>
       <c r="L11" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
@@ -12719,13 +12830,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H12" s="4">
         <v>261480</v>
@@ -12738,7 +12849,7 @@
         <v>535182</v>
       </c>
       <c r="L12" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
@@ -12783,13 +12894,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H13" s="4">
         <v>218914</v>
@@ -12802,7 +12913,7 @@
         <v>440879</v>
       </c>
       <c r="L13" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
@@ -12847,13 +12958,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H14" s="4">
         <v>182908</v>
@@ -12866,7 +12977,7 @@
         <v>373930</v>
       </c>
       <c r="L14" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
@@ -12911,13 +13022,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H15" s="4">
         <v>140777</v>
@@ -12930,7 +13041,7 @@
         <v>275311</v>
       </c>
       <c r="L15" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
@@ -12975,13 +13086,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H16" s="4">
         <v>107710</v>
@@ -12994,7 +13105,7 @@
         <v>217228</v>
       </c>
       <c r="L16" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
@@ -13039,13 +13150,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H17" s="4">
         <v>99906</v>
@@ -13058,7 +13169,7 @@
         <v>183127</v>
       </c>
       <c r="L17" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
@@ -13103,13 +13214,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H18" s="4">
         <v>66369</v>
@@ -13122,7 +13233,7 @@
         <v>128908</v>
       </c>
       <c r="L18" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
@@ -13167,13 +13278,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H19" s="4">
         <v>87766</v>
@@ -13186,7 +13297,7 @@
         <v>174363</v>
       </c>
       <c r="L19" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
@@ -13231,19 +13342,19 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="5"/>
@@ -13281,13 +13392,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13309,20 +13420,20 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="R27" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G28" t="s">
         <v>28</v>
@@ -13386,7 +13497,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C30" s="4">
         <v>328243</v>
@@ -13398,7 +13509,7 @@
         <v>656991</v>
       </c>
       <c r="G30" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H30" s="4">
         <v>1888827</v>
@@ -13436,7 +13547,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C31" s="4">
         <v>291272</v>
@@ -13448,7 +13559,7 @@
         <v>585145</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="H31" s="4">
         <v>1725292</v>
@@ -13486,7 +13597,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C32" s="4">
         <v>253763</v>
@@ -13498,7 +13609,7 @@
         <v>512089</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H32" s="4">
         <v>1485648</v>
@@ -13536,7 +13647,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C33" s="4">
         <v>194194</v>
@@ -13548,7 +13659,7 @@
         <v>384042</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H33" s="4">
         <v>1200712</v>
@@ -13586,7 +13697,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C34" s="4">
         <v>161014</v>
@@ -13598,7 +13709,7 @@
         <v>279231</v>
       </c>
       <c r="G34" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H34" s="4">
         <v>1013340</v>
@@ -13636,7 +13747,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C35" s="4">
         <v>136441</v>
@@ -13648,7 +13759,7 @@
         <v>235952</v>
       </c>
       <c r="G35" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H35" s="4">
         <v>847287</v>
@@ -13686,7 +13797,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C36" s="4">
         <v>96154</v>
@@ -13698,7 +13809,7 @@
         <v>175890</v>
       </c>
       <c r="G36" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H36" s="4">
         <v>575651</v>
@@ -13736,7 +13847,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C37" s="4">
         <v>77231</v>
@@ -13748,7 +13859,7 @@
         <v>140196</v>
       </c>
       <c r="G37" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H37" s="4">
         <v>457942</v>
@@ -13786,7 +13897,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C38" s="4">
         <v>61401</v>
@@ -13798,7 +13909,7 @@
         <v>113436</v>
       </c>
       <c r="G38" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H38" s="4">
         <v>364244</v>
@@ -13836,7 +13947,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C39" s="4">
         <v>51664</v>
@@ -13848,7 +13959,7 @@
         <v>91377</v>
       </c>
       <c r="G39" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H39" s="4">
         <v>293405</v>
@@ -13886,7 +13997,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C40" s="4">
         <v>45218</v>
@@ -13898,7 +14009,7 @@
         <v>82397</v>
       </c>
       <c r="G40" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H40" s="4">
         <v>240617</v>
@@ -13936,7 +14047,7 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C41" s="4">
         <v>39496</v>
@@ -13948,7 +14059,7 @@
         <v>71950</v>
       </c>
       <c r="G41" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H41" s="4">
         <v>181155</v>
@@ -13986,7 +14097,7 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C42" s="4">
         <v>30651</v>
@@ -13998,7 +14109,7 @@
         <v>56831</v>
       </c>
       <c r="G42" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H42" s="4">
         <v>167901</v>
@@ -14036,7 +14147,7 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C43" s="4">
         <v>22800</v>
@@ -14048,7 +14159,7 @@
         <v>42776</v>
       </c>
       <c r="G43" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H43" s="4">
         <v>116980</v>
@@ -14086,7 +14197,7 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C44" s="4">
         <v>15793</v>
@@ -14098,7 +14209,7 @@
         <v>31180</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H44" s="4">
         <v>91212</v>
@@ -14136,7 +14247,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C45" s="4">
         <v>9528</v>
@@ -14148,7 +14259,7 @@
         <v>21480</v>
       </c>
       <c r="G45" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H45" s="4">
         <v>60476</v>
@@ -14186,7 +14297,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C46" s="4">
         <v>11462</v>
@@ -14198,7 +14309,7 @@
         <v>22663</v>
       </c>
       <c r="G46" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H46" s="4">
         <v>94070</v>
@@ -14236,7 +14347,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C47" s="4">
         <v>1929</v>
@@ -14248,7 +14359,7 @@
         <v>3536</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H47" s="4">
         <v>10509</v>
@@ -14288,12 +14399,12 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -14358,7 +14469,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -14371,7 +14482,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="C60">
         <v>2.2000000000000002</v>
@@ -14382,7 +14493,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C61">
         <v>2.8</v>
@@ -14393,7 +14504,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="C62">
         <v>2.2999999999999998</v>
@@ -14404,15 +14515,15 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="R64" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G65" t="s">
         <v>28</v>
@@ -14476,7 +14587,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C67" s="4">
         <v>352462</v>
@@ -14489,7 +14600,7 @@
         <v>707582</v>
       </c>
       <c r="G67" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H67" s="4">
         <v>2242966</v>
@@ -14527,7 +14638,7 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C68" s="4">
         <v>309023</v>
@@ -14540,7 +14651,7 @@
         <v>619950</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="H68" s="4">
         <v>1962556</v>
@@ -14579,7 +14690,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C69" s="4">
         <v>337015</v>
@@ -14592,7 +14703,7 @@
         <v>681321</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H69" s="4">
         <v>2003655</v>
@@ -14631,7 +14742,7 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C70" s="4">
         <v>281107</v>
@@ -14644,7 +14755,7 @@
         <v>556971</v>
       </c>
       <c r="G70" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H70" s="4">
         <v>1721194</v>
@@ -14683,7 +14794,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C71" s="4">
         <v>224623</v>
@@ -14696,7 +14807,7 @@
         <v>401114</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H71" s="4">
         <v>1504389</v>
@@ -14735,7 +14846,7 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C72" s="4">
         <v>162798</v>
@@ -14748,7 +14859,7 @@
         <v>290493</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H72" s="4">
         <v>1164594</v>
@@ -14787,7 +14898,7 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C73" s="4">
         <v>123137</v>
@@ -14800,7 +14911,7 @@
         <v>223560</v>
       </c>
       <c r="G73" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H73" s="4">
         <v>845230</v>
@@ -14839,7 +14950,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C74" s="4">
         <v>113502</v>
@@ -14852,7 +14963,7 @@
         <v>203842</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H74" s="4">
         <v>723749</v>
@@ -14891,7 +15002,7 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C75" s="4">
         <v>84192</v>
@@ -14904,7 +15015,7 @@
         <v>155000</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H75" s="4">
         <v>516989</v>
@@ -14943,7 +15054,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C76" s="4">
         <v>69798</v>
@@ -14956,7 +15067,7 @@
         <v>128165</v>
       </c>
       <c r="G76" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H76" s="4">
         <v>418987</v>
@@ -14995,7 +15106,7 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C77" s="4">
         <v>54840</v>
@@ -15008,7 +15119,7 @@
         <v>103822</v>
       </c>
       <c r="G77" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H77" s="4">
         <v>340167</v>
@@ -15047,7 +15158,7 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C78" s="4">
         <v>40107</v>
@@ -15060,7 +15171,7 @@
         <v>73250</v>
       </c>
       <c r="G78" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H78" s="4">
         <v>236325</v>
@@ -15099,7 +15210,7 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C79" s="4">
         <v>39207</v>
@@ -15112,7 +15223,7 @@
         <v>70173</v>
       </c>
       <c r="G79" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H79" s="4">
         <v>214715</v>
@@ -15151,7 +15262,7 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C80" s="4">
         <v>33400</v>
@@ -15164,7 +15275,7 @@
         <v>58795</v>
       </c>
       <c r="G80" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H80" s="4">
         <v>160364</v>
@@ -15203,7 +15314,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C81" s="4">
         <v>22683</v>
@@ -15216,7 +15327,7 @@
         <v>41667</v>
       </c>
       <c r="G81" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H81" s="4">
         <v>135524</v>
@@ -15255,7 +15366,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C82" s="4">
         <v>13422</v>
@@ -15268,7 +15379,7 @@
         <v>25810</v>
       </c>
       <c r="G82" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H82" s="4">
         <v>81620</v>
@@ -15307,7 +15418,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C83" s="4">
         <v>14731</v>
@@ -15320,7 +15431,7 @@
         <v>27581</v>
       </c>
       <c r="G83" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H83" s="4">
         <v>121038</v>
@@ -15359,7 +15470,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C84" s="4">
         <v>11843</v>
@@ -15372,7 +15483,7 @@
         <v>23100</v>
       </c>
       <c r="G84" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H84" s="4">
         <v>86956</v>
@@ -15419,15 +15530,15 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="Q88" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="G89" t="s">
         <v>28</v>
@@ -15491,7 +15602,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="C91">
         <v>472132</v>
@@ -15504,7 +15615,7 @@
         <v>947849</v>
       </c>
       <c r="G91" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H91" s="4">
         <v>2938867</v>
@@ -15543,7 +15654,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C92">
         <v>407578</v>
@@ -15556,7 +15667,7 @@
         <v>814940</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="H92" s="4">
         <v>2765047</v>
@@ -15595,7 +15706,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C93">
         <v>365861</v>
@@ -15608,7 +15719,7 @@
         <v>736716</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="H93" s="4">
         <v>2469542</v>
@@ -15647,7 +15758,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C94">
         <v>313668</v>
@@ -15660,7 +15771,7 @@
         <v>629797</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H94" s="4">
         <v>2045890</v>
@@ -15699,7 +15810,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C95">
         <v>294691</v>
@@ -15712,7 +15823,7 @@
         <v>522624</v>
       </c>
       <c r="G95" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="H95" s="4">
         <v>2020998</v>
@@ -15751,7 +15862,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C96">
         <v>215455</v>
@@ -15764,7 +15875,7 @@
         <v>398538</v>
       </c>
       <c r="G96" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="H96" s="4">
         <v>1672110</v>
@@ -15803,7 +15914,7 @@
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C97">
         <v>153975</v>
@@ -15816,7 +15927,7 @@
         <v>296843</v>
       </c>
       <c r="G97" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H97" s="4">
         <v>1262471</v>
@@ -15855,7 +15966,7 @@
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C98">
         <v>123409</v>
@@ -15868,7 +15979,7 @@
         <v>230142</v>
       </c>
       <c r="G98" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H98" s="4">
         <v>1004271</v>
@@ -15907,7 +16018,7 @@
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C99">
         <v>95638</v>
@@ -15920,7 +16031,7 @@
         <v>173521</v>
       </c>
       <c r="G99" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H99" s="4">
         <v>732575</v>
@@ -15959,7 +16070,7 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C100">
         <v>91784</v>
@@ -15972,7 +16083,7 @@
         <v>166874</v>
       </c>
       <c r="G100" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="H100" s="4">
         <v>637469</v>
@@ -16011,7 +16122,7 @@
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C101">
         <v>74474</v>
@@ -16024,7 +16135,7 @@
         <v>135460</v>
       </c>
       <c r="G101" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H101" s="4">
         <v>477860</v>
@@ -16063,7 +16174,7 @@
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C102">
         <v>55205</v>
@@ -16076,7 +16187,7 @@
         <v>103349</v>
       </c>
       <c r="G102" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H102" s="4">
         <v>352487</v>
@@ -16115,7 +16226,7 @@
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C103">
         <v>46773</v>
@@ -16128,7 +16239,7 @@
         <v>86914</v>
       </c>
       <c r="G103" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H103" s="4">
         <v>298581</v>
@@ -16167,7 +16278,7 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="C104">
         <v>32792</v>
@@ -16180,7 +16291,7 @@
         <v>57943</v>
       </c>
       <c r="G104" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H104" s="4">
         <v>207612</v>
@@ -16219,7 +16330,7 @@
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C105">
         <v>29504</v>
@@ -16232,7 +16343,7 @@
         <v>52517</v>
       </c>
       <c r="G105" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="H105" s="4">
         <v>179000</v>
@@ -16271,7 +16382,7 @@
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C106">
         <v>21238</v>
@@ -16284,7 +16395,7 @@
         <v>36832</v>
       </c>
       <c r="G106" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="H106" s="4">
         <v>118675</v>
@@ -16323,7 +16434,7 @@
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C107" s="4">
         <v>29637</v>
@@ -16336,7 +16447,7 @@
         <v>49371</v>
       </c>
       <c r="G107" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="H107" s="4">
         <v>224576</v>
@@ -16375,7 +16486,7 @@
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C108" s="4">
         <v>1163</v>
@@ -16388,7 +16499,7 @@
         <v>2481</v>
       </c>
       <c r="G108" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="H108" s="4">
         <v>9608</v>
@@ -16543,7 +16654,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -16555,25 +16666,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C3" s="18">
         <v>0.79400000000000004</v>
@@ -16581,7 +16692,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C4" s="18">
         <v>6.0999999999999999E-2</v>
@@ -16589,7 +16700,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C5" s="18">
         <v>0.14499999999999999</v>
@@ -16597,23 +16708,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E8" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="C9" s="18">
         <v>0.60499999999999998</v>
@@ -16625,12 +16736,12 @@
         <v>0.111</v>
       </c>
       <c r="G9" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="C10" s="18">
         <v>0.45900000000000002</v>
@@ -16642,22 +16753,22 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="C14" s="18">
         <v>0.754</v>
@@ -16665,7 +16776,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C15" s="18">
         <v>0.246</v>
@@ -16673,15 +16784,15 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="31">
+      <c r="C18" s="32">
         <v>2015</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="G18" s="23">
         <v>2013</v>
       </c>
@@ -16695,36 +16806,36 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="D19" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E19" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="G19" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="H19" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="I19" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C20" s="4">
         <v>85807</v>
@@ -16759,7 +16870,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C21" s="4">
         <v>83847</v>
@@ -16794,7 +16905,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C22" s="4">
         <v>68704</v>
@@ -16829,7 +16940,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C23" s="4">
         <v>54927</v>
@@ -16864,7 +16975,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C24" s="4">
         <v>23189</v>
@@ -16899,7 +17010,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C25" s="4">
         <v>11561</v>
@@ -16974,6 +17085,9 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -16981,6 +17095,9 @@
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>558</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -16988,6 +17105,12 @@
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.45600000000000002</v>
+      </c>
       <c r="F30" s="21"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -17060,6 +17183,7 @@
     <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17075,17 +17199,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
@@ -17093,35 +17217,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="C4">
         <v>30.6</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <v>14.5</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="C6">
         <v>54.9</v>
       </c>
       <c r="D6" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -17133,20 +17257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -17157,10 +17281,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -17170,7 +17294,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="C6" s="30">
         <v>0.17</v>
@@ -17183,7 +17307,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="C7" s="30">
         <v>0.13900000000000001</v>
@@ -17196,7 +17320,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C8" s="30">
         <v>0.13900000000000001</v>
@@ -17209,7 +17333,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C9" s="30">
         <v>0.123</v>
@@ -17222,7 +17346,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C10" s="30">
         <v>0.11</v>
@@ -17235,7 +17359,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="C11" s="30">
         <v>7.5999999999999998E-2</v>
@@ -17248,7 +17372,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="C12" s="30">
         <v>7.1999999999999995E-2</v>
@@ -17261,7 +17385,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17269,10 +17393,10 @@
         <v>199</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -17292,7 +17416,7 @@
     </row>
     <row r="17" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C17" s="21">
         <v>19.7</v>
@@ -17309,7 +17433,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C18">
         <v>17.899999999999999</v>
@@ -17326,7 +17450,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -17343,7 +17467,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C20">
         <v>19.100000000000001</v>
@@ -17360,7 +17484,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C21">
         <v>17.600000000000001</v>
@@ -17377,7 +17501,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C22">
         <v>18.5</v>
@@ -17394,7 +17518,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C23">
         <v>10.1</v>
@@ -17411,17 +17535,17 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C27" s="12">
         <v>0.158</v>
@@ -17429,7 +17553,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17442,7 +17566,7 @@
         <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -17478,8 +17602,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>559</v>
+      <c r="A37" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -17489,7 +17613,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C39" s="12">
         <v>0.42799999999999999</v>
@@ -17497,12 +17621,12 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C41" s="12">
         <v>0.42099999999999999</v>
@@ -17510,7 +17634,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18090,7 +18215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="R163" sqref="R163"/>
     </sheetView>
   </sheetViews>
@@ -18098,12 +18223,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18229,7 +18354,7 @@
         <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="G18" t="s">
         <v>162</v>
@@ -18755,13 +18880,13 @@
     </row>
     <row r="51" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18789,48 +18914,48 @@
         <v>250</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K53" s="21" t="s">
         <v>250</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C54" s="21">
         <v>1</v>
@@ -18851,7 +18976,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="L54" s="21">
         <v>1.0000000000000001E-5</v>
@@ -18874,7 +18999,7 @@
     </row>
     <row r="55" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C55" s="21">
         <v>1</v>
@@ -18895,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="L55" s="21">
         <v>1.0000000000000001E-5</v>
@@ -18918,7 +19043,7 @@
     </row>
     <row r="56" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C56" s="21">
         <v>1</v>
@@ -18939,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L56" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19270,7 +19395,7 @@
     </row>
     <row r="64" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C64" s="21">
         <v>1</v>
@@ -19291,7 +19416,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="L64" s="21">
         <v>0.73475599999999996</v>
@@ -19314,7 +19439,7 @@
     </row>
     <row r="65" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C65" s="21">
         <v>1</v>
@@ -19335,7 +19460,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="L65" s="21">
         <v>0.73475599999999996</v>
@@ -19358,7 +19483,7 @@
     </row>
     <row r="66" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C66" s="21">
         <v>1</v>
@@ -19379,7 +19504,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L66" s="21">
         <v>0.73475599999999996</v>
@@ -19402,7 +19527,7 @@
     </row>
     <row r="67" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C67" s="21">
         <v>1</v>
@@ -19423,7 +19548,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L67" s="21">
         <v>0.73475599999999996</v>
@@ -19446,7 +19571,7 @@
     </row>
     <row r="68" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C68" s="21">
         <v>1</v>
@@ -19467,7 +19592,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L68" s="21">
         <v>0.73475599999999996</v>
@@ -19490,7 +19615,7 @@
     </row>
     <row r="69" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C69" s="21">
         <v>1</v>
@@ -19511,7 +19636,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="L69" s="21">
         <v>0.73475599999999996</v>
@@ -19558,48 +19683,48 @@
         <v>250</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="K72" s="21" t="s">
         <v>250</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C73" s="29">
         <v>1</v>
@@ -19620,7 +19745,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="L73" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19643,7 +19768,7 @@
     </row>
     <row r="74" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C74" s="29">
         <v>1</v>
@@ -19664,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="L74" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19687,7 +19812,7 @@
     </row>
     <row r="75" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C75" s="29">
         <v>1</v>
@@ -19708,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="L75" s="21">
         <v>1.0000000000000001E-5</v>
@@ -20039,7 +20164,7 @@
     </row>
     <row r="83" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C83" s="29">
         <v>1</v>
@@ -20060,7 +20185,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="L83" s="21">
         <v>0.74267700000000003</v>
@@ -20083,7 +20208,7 @@
     </row>
     <row r="84" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C84" s="29">
         <v>1</v>
@@ -20104,7 +20229,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="L84" s="21">
         <v>0.74267700000000003</v>
@@ -20127,7 +20252,7 @@
     </row>
     <row r="85" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C85" s="29">
         <v>1</v>
@@ -20148,7 +20273,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="L85" s="21">
         <v>0.74267700000000003</v>
@@ -20171,7 +20296,7 @@
     </row>
     <row r="86" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
@@ -20192,7 +20317,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L86" s="21">
         <v>0.74267700000000003</v>
@@ -20215,7 +20340,7 @@
     </row>
     <row r="87" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C87" s="29">
         <v>1</v>
@@ -20236,7 +20361,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L87" s="21">
         <v>0.74267700000000003</v>
@@ -20259,7 +20384,7 @@
     </row>
     <row r="88" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
@@ -20280,7 +20405,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="L88" s="21">
         <v>0.74267700000000003</v>
@@ -20401,12 +20526,12 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -20565,12 +20690,12 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -20614,15 +20739,15 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="G123" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C124" t="s">
         <v>218</v>
@@ -20631,7 +20756,7 @@
         <v>220</v>
       </c>
       <c r="G124" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="H124" t="s">
         <v>218</v>
@@ -20666,7 +20791,7 @@
         <v>27</v>
       </c>
       <c r="K125" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="L125">
         <f>SUM(I125+I126)</f>
@@ -20697,7 +20822,7 @@
         <v>57.8</v>
       </c>
       <c r="K126" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="L126">
         <f>I127</f>
@@ -20710,7 +20835,7 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C127">
         <v>36.1</v>
@@ -20719,7 +20844,7 @@
         <v>24.7</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="H127">
         <v>1.7</v>
@@ -20728,7 +20853,7 @@
         <v>9.9</v>
       </c>
       <c r="K127" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="L127">
         <f>I128+I129</f>
@@ -20741,7 +20866,7 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C128">
         <v>7.8</v>
@@ -20750,7 +20875,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="H128">
         <v>0.5</v>
@@ -20761,7 +20886,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C129">
         <v>1.5</v>
@@ -20770,7 +20895,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="H129">
         <v>0.3</v>
@@ -20781,7 +20906,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -20792,7 +20917,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C131">
         <v>3.7</v>
@@ -20803,7 +20928,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -20816,7 +20941,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C135">
         <v>3.8</v>
@@ -20827,7 +20952,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C136">
         <v>31.4</v>
@@ -20838,7 +20963,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C137">
         <v>32.799999999999997</v>
@@ -20860,13 +20985,13 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="B140" s="15"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" s="22" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -20874,10 +20999,10 @@
         <v>250</v>
       </c>
       <c r="C142" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D142" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -20959,32 +21084,32 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -21039,7 +21164,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -21113,12 +21238,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -21153,7 +21278,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -21166,7 +21291,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C20">
         <v>4.0999999999999996</v>
@@ -21177,7 +21302,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C21">
         <v>14.8</v>
@@ -21859,21 +21984,21 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="Q39" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="Z39" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
@@ -21883,7 +22008,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Z40" s="21" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
@@ -21898,25 +22023,25 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s">
         <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>80</v>
@@ -21925,19 +22050,19 @@
         <v>152</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="T41" s="21" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="U41" s="21" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="V41" s="21" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="W41" s="21" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Y41" s="21" t="s">
         <v>80</v>
@@ -21946,24 +22071,24 @@
         <v>152</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AB41" s="21" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="AC41" s="21" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="AD41" s="21" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="AE41" s="21" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C42" s="20">
         <v>0</v>
@@ -21992,7 +22117,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="R42" s="20">
         <v>0</v>
@@ -22018,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="21" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="Z42" s="20">
         <v>0</v>
@@ -22046,7 +22171,7 @@
     </row>
     <row r="43" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C43" s="20">
         <v>0</v>
@@ -22075,7 +22200,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="R43" s="20">
         <v>0</v>
@@ -22101,7 +22226,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="Z43" s="20">
         <v>0</v>
@@ -22129,7 +22254,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -22159,7 +22284,7 @@
         <v>1.23E-3</v>
       </c>
       <c r="Q44" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="R44" s="21">
         <v>0</v>
@@ -22185,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="22" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="Z44" s="21">
         <v>0</v>
@@ -22747,19 +22872,19 @@
         <v>5.7399999999999994E-3</v>
       </c>
       <c r="K51" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L51" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M51" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="N51" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="O51" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>143</v>
@@ -22816,7 +22941,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C52" s="20">
         <v>0</v>
@@ -22845,7 +22970,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -22863,7 +22988,7 @@
         <v>0.41</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="R52" s="20">
         <v>0</v>
@@ -22889,7 +23014,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="21" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="Z52" s="20">
         <v>0</v>
@@ -22917,7 +23042,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C53" s="20">
         <v>0</v>
@@ -22946,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="R53" s="20">
         <v>0</v>
@@ -22972,7 +23097,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="21" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="Z53" s="20">
         <v>0</v>
@@ -23000,7 +23125,7 @@
     </row>
     <row r="54" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="C54" s="20">
         <v>0</v>
@@ -23029,7 +23154,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="R54" s="20">
         <v>0</v>
@@ -23055,7 +23180,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="21" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="Z54" s="20">
         <v>0</v>
@@ -23083,7 +23208,7 @@
     </row>
     <row r="55" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C55" s="20">
         <v>0</v>
@@ -23112,7 +23237,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="R55" s="20">
         <v>0</v>
@@ -23138,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="21" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="Z55" s="20">
         <v>0</v>
@@ -23166,7 +23291,7 @@
     </row>
     <row r="56" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C56" s="20">
         <v>0</v>
@@ -23195,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="R56" s="20">
         <v>0</v>
@@ -23221,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="21" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="Z56" s="20">
         <v>0</v>
@@ -23249,7 +23374,7 @@
     </row>
     <row r="57" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C57" s="20">
         <v>0</v>
@@ -23278,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="R57" s="20">
         <v>0</v>
@@ -23304,7 +23429,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="Z57" s="20">
         <v>0</v>
@@ -23333,7 +23458,7 @@
     <row r="58" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -23341,7 +23466,7 @@
     </row>
     <row r="60" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C60">
         <v>8.67</v>
@@ -23349,12 +23474,12 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -23362,13 +23487,13 @@
         <v>80</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D65" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E65" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -23485,15 +23610,15 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="G76" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -23584,13 +23709,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23608,7 +23733,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C4">
         <v>0.115</v>
@@ -23620,7 +23745,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C5">
         <v>1.6E-2</v>
@@ -23632,7 +23757,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C6">
         <v>3.0000000000000001E-3</v>
@@ -23644,7 +23769,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="15" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C7">
         <v>2E-3</v>
@@ -23656,7 +23781,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="15" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C8">
         <v>4.0000000000000001E-3</v>
@@ -23668,7 +23793,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="15" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C9">
         <v>5.0000000000000001E-3</v>
@@ -23680,7 +23805,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="15" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C10">
         <v>6.0000000000000001E-3</v>
@@ -23692,7 +23817,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C11">
         <v>6.0000000000000001E-3</v>
@@ -23704,7 +23829,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="15" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C12">
         <v>7.0000000000000001E-3</v>
@@ -23715,7 +23840,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C13">
         <v>8.0000000000000002E-3</v>
@@ -23726,7 +23851,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C14">
         <v>0.01</v>
@@ -23737,7 +23862,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C15">
         <v>1.4E-2</v>
@@ -23748,7 +23873,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C16">
         <v>1.9E-2</v>
@@ -23759,7 +23884,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C17">
         <v>2.9000000000000001E-2</v>
@@ -23770,7 +23895,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C18">
         <v>4.5999999999999999E-2</v>
@@ -23781,7 +23906,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C19">
         <v>7.2999999999999995E-2</v>
@@ -23792,7 +23917,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C20">
         <v>0.11600000000000001</v>
@@ -23803,7 +23928,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C21">
         <v>0.19800000000000001</v>
@@ -23814,7 +23939,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C23">
         <v>17.7</v>
@@ -24167,10 +24292,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C44">
         <v>313</v>
@@ -24181,7 +24306,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="C45">
         <v>396</v>
@@ -24192,12 +24317,12 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -24228,7 +24353,7 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C51">
         <v>157</v>
@@ -24245,7 +24370,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D52">
         <v>89</v>
@@ -24265,7 +24390,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -24296,7 +24421,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C56">
         <v>88</v>
@@ -24313,7 +24438,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D57">
         <v>63</v>
@@ -24333,7 +24458,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C59" t="s">
         <v>158</v>
@@ -24358,7 +24483,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="C61">
         <v>139</v>
@@ -24375,7 +24500,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="C62">
         <v>89</v>
@@ -24392,7 +24517,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -24427,7 +24552,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -24460,7 +24585,7 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="C72" s="6">
         <v>9.5000000000000001E-2</v>
@@ -24469,7 +24594,7 @@
         <v>0.1226</v>
       </c>
       <c r="F72" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="G72" s="6">
         <v>5.0099999999999999E-2</v>
@@ -24480,7 +24605,7 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="C73" s="6">
         <v>1.29E-2</v>
@@ -24489,7 +24614,7 @@
         <v>1.52E-2</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G73" s="6">
         <v>5.4999999999999997E-3</v>
@@ -24500,7 +24625,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="C74" s="6">
         <v>2.3999999999999998E-3</v>
@@ -24509,7 +24634,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="G74" s="6">
         <v>2.3E-3</v>
@@ -24520,7 +24645,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="C75" s="6">
         <v>2.8999999999999998E-3</v>
@@ -24529,7 +24654,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="G75" s="6">
         <v>2.3999999999999998E-3</v>
@@ -24540,7 +24665,7 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="C76" s="6">
         <v>1.9E-3</v>
@@ -24549,7 +24674,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G76" s="6">
         <v>1.8E-3</v>
@@ -24560,7 +24685,7 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C77" s="6">
         <v>3.5999999999999999E-3</v>
@@ -24569,7 +24694,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="G77" s="6">
         <v>3.0000000000000001E-3</v>
@@ -24580,7 +24705,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C78" s="6">
         <v>7.4000000000000003E-3</v>
@@ -24589,7 +24714,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G78" s="6">
         <v>5.5999999999999999E-3</v>
@@ -24600,7 +24725,7 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C79" s="6">
         <v>1.47E-2</v>
@@ -24609,7 +24734,7 @@
         <v>1.18E-2</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="G79" s="6">
         <v>1.0699999999999999E-2</v>
@@ -24620,7 +24745,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C80" s="6">
         <v>1.9199999999999998E-2</v>
@@ -24629,7 +24754,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="G80" s="6">
         <v>1.38E-2</v>
@@ -24644,7 +24769,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C81" s="6">
         <v>1.4500000000000001E-2</v>
@@ -24653,7 +24778,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G81" s="6">
         <v>1.0999999999999999E-2</v>
@@ -24664,7 +24789,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C82" s="6">
         <v>1.29E-2</v>
@@ -24673,7 +24798,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="G82" s="6">
         <v>1.01E-2</v>
@@ -24684,7 +24809,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="C83" s="6">
         <v>1.0200000000000001E-2</v>
@@ -24693,7 +24818,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="G83" s="6">
         <v>8.9999999999999993E-3</v>
@@ -24704,7 +24829,7 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C84" s="6">
         <v>1.12E-2</v>
@@ -24713,7 +24838,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="G84" s="6">
         <v>1.0200000000000001E-2</v>
@@ -24724,7 +24849,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C85" s="6">
         <v>1.5299999999999999E-2</v>
@@ -24733,7 +24858,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="G85" s="6">
         <v>1.46E-2</v>
@@ -24744,7 +24869,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C86" s="6">
         <v>2.41E-2</v>
@@ -24753,7 +24878,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="G86" s="6">
         <v>2.3099999999999999E-2</v>
@@ -24764,7 +24889,7 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C87" s="6">
         <v>4.0399999999999998E-2</v>
@@ -24773,7 +24898,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="G87" s="6">
         <v>3.78E-2</v>
@@ -24784,7 +24909,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C88" s="6">
         <v>7.1400000000000005E-2</v>
@@ -24793,7 +24918,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="G88" s="6">
         <v>6.3100000000000003E-2</v>
@@ -24804,7 +24929,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C89" s="6">
         <v>0.2152</v>
@@ -24813,7 +24938,7 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="G89" s="6">
         <v>0.21279999999999999</v>
@@ -24829,10 +24954,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25115,7 +25240,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>297</v>
       </c>
@@ -25123,314 +25248,704 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="34" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.41360000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.2772</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.40910000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="12">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="12">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F41" s="12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F42" s="12">
+        <v>0.53180000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" s="12">
+        <v>0.29320000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0.36359999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F45" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F47" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F48" s="12">
+        <v>5.9299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F49" s="12">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F50" s="12">
+        <v>4.3499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F51" s="12">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F52" s="12">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="12">
+        <v>8.4199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F55" s="12">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" t="s">
+        <v>250</v>
+      </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="12">
+        <v>0.373</v>
+      </c>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="12">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.108</v>
+      </c>
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>262</v>
+      </c>
+      <c r="F70" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>263</v>
+      </c>
+      <c r="F71" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E76" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E79" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F84" s="12">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E85" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E86" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="21" t="s">
+        <v>568</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F87" s="12">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E88" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>309</v>
+      </c>
+      <c r="E90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F90" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="B94" t="s">
         <v>301</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C94" t="s">
         <v>248</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D94" t="s">
         <v>250</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E94" t="s">
         <v>253</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F94" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>304</v>
-      </c>
-      <c r="C37" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" t="s">
-        <v>306</v>
-      </c>
-      <c r="F37" t="s">
-        <v>308</v>
-      </c>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>307</v>
-      </c>
-      <c r="F38" t="s">
-        <v>309</v>
-      </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>258</v>
-      </c>
-      <c r="F39" t="s">
-        <v>310</v>
-      </c>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>311</v>
       </c>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" t="s">
+        <v>312</v>
+      </c>
+      <c r="E95" t="s">
+        <v>313</v>
+      </c>
+      <c r="F95" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E96" t="s">
+        <v>313</v>
+      </c>
+      <c r="F96" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>315</v>
+      </c>
+      <c r="E97" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F41" t="s">
-        <v>312</v>
-      </c>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
+      <c r="F98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F42" t="s">
-        <v>313</v>
-      </c>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E43" t="s">
+      <c r="F99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F43" t="s">
-        <v>314</v>
-      </c>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E44" t="s">
+      <c r="F100" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F44" t="s">
-        <v>315</v>
-      </c>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+      <c r="F101" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F45" t="s">
-        <v>316</v>
-      </c>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F46" t="s">
-        <v>317</v>
-      </c>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+      <c r="F103" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F47" t="s">
-        <v>318</v>
-      </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
+      <c r="F104" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
         <v>266</v>
       </c>
-      <c r="F48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>319</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E51" t="s">
+      <c r="F105" t="s">
         <v>323</v>
-      </c>
-      <c r="F51" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>324</v>
-      </c>
-      <c r="E52" t="s">
-        <v>325</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E53" t="s">
-        <v>307</v>
-      </c>
-      <c r="F53" s="12">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" t="s">
-        <v>250</v>
-      </c>
-      <c r="E56" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>327</v>
-      </c>
-      <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" t="s">
-        <v>328</v>
-      </c>
-      <c r="E57" t="s">
-        <v>329</v>
-      </c>
-      <c r="F57" s="13">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" t="s">
-        <v>329</v>
-      </c>
-      <c r="F58" s="13">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>331</v>
-      </c>
-      <c r="E59" t="s">
-        <v>329</v>
-      </c>
-      <c r="F59" s="13">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F62" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F63" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F65" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F66" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" t="s">
-        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -26127,25 +26642,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="C66">
         <v>8.9</v>
@@ -26156,7 +26671,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="C67">
         <v>10.199999999999999</v>
@@ -26167,7 +26682,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C68">
         <v>13.4</v>
@@ -26178,7 +26693,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="C69">
         <v>16.600000000000001</v>
@@ -26189,7 +26704,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C70">
         <v>8.9</v>
@@ -26272,10 +26787,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26283,17 +26798,27 @@
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+    </row>
+    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>80</v>
       </c>
@@ -26306,8 +26831,27 @@
       <c r="E3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>137</v>
       </c>
@@ -26320,8 +26864,27 @@
       <c r="E4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="21">
+        <v>4.3395999999999999</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.1419</v>
+      </c>
+      <c r="M4" s="21">
+        <v>4.0270000000000001</v>
+      </c>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>138</v>
       </c>
@@ -26334,8 +26897,27 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="21">
+        <v>29.970300000000002</v>
+      </c>
+      <c r="L5" s="21">
+        <v>5.6208</v>
+      </c>
+      <c r="M5" s="21">
+        <v>21.856100000000001</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>139</v>
       </c>
@@ -26348,8 +26930,27 @@
       <c r="E6">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="21">
+        <v>21.8535</v>
+      </c>
+      <c r="L6" s="21">
+        <v>23.183499999999999</v>
+      </c>
+      <c r="M6" s="21">
+        <v>18.897300000000001</v>
+      </c>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>140</v>
       </c>
@@ -26362,8 +26963,27 @@
       <c r="E7">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="21">
+        <v>16.320799999999998</v>
+      </c>
+      <c r="L7" s="21">
+        <v>17.728400000000001</v>
+      </c>
+      <c r="M7" s="21">
+        <v>11.5449</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>141</v>
       </c>
@@ -26376,8 +26996,27 @@
       <c r="E8">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="21">
+        <v>17.982800000000001</v>
+      </c>
+      <c r="L8" s="21">
+        <v>19.689599999999999</v>
+      </c>
+      <c r="M8" s="21">
+        <v>13.7293</v>
+      </c>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>142</v>
       </c>
@@ -26390,8 +27029,27 @@
       <c r="E9">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="21">
+        <v>33.171199999999999</v>
+      </c>
+      <c r="L9" s="21">
+        <v>24.622299999999999</v>
+      </c>
+      <c r="M9" s="21">
+        <v>17.517399999999999</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>143</v>
       </c>
@@ -26404,16 +27062,56 @@
       <c r="E10">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="21">
+        <v>15.8049</v>
+      </c>
+      <c r="L10" s="21">
+        <v>18.665800000000001</v>
+      </c>
+      <c r="M10" s="21">
+        <v>7.2714999999999996</v>
+      </c>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D11">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" t="s">
+        <v>555</v>
+      </c>
+      <c r="L11" s="21">
+        <v>20.7746</v>
+      </c>
+      <c r="M11" s="21">
+        <v>5.1565000000000003</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>144</v>
       </c>
@@ -26426,8 +27124,28 @@
       <c r="E12">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12">
+        <v>18.2517</v>
+      </c>
+      <c r="L12">
+        <v>12.285500000000001</v>
+      </c>
+      <c r="M12">
+        <v>15.355399999999999</v>
+      </c>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>158</v>
       </c>
@@ -26440,417 +27158,754 @@
       <c r="E13">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>556</v>
+      </c>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+    </row>
+    <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="19">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D20" s="19">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D21" s="19">
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.11199999999999999</v>
+      </c>
+      <c r="D22" s="19">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="19">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E23" s="19">
+        <v>9.6999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="19">
+        <v>8.8000000000000009E-2</v>
+      </c>
+      <c r="D24" s="19">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D25" s="19">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="19">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D27" s="19">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E28" s="19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+    </row>
+    <row r="32" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>182</v>
       </c>
-      <c r="C17" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="C32" t="s">
+        <v>409</v>
+      </c>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C33" t="s">
         <v>225</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D33" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>426</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>410</v>
+      </c>
+      <c r="C34" s="19">
         <v>6.59E-2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D34" s="19">
         <v>2.2200000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="19">
         <v>0.1414</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D35" s="19">
         <v>2.93E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>428</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>412</v>
+      </c>
+      <c r="C36" s="19">
         <v>0.23089999999999999</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D36" s="19">
         <v>0.22009999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="19">
         <v>0.23089999999999999</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D37" s="19">
         <v>0.24579999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="19">
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C38" s="19">
         <v>0.17710000000000001</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D38" s="19">
         <v>0.1895</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>431</v>
-      </c>
-      <c r="C24" s="19">
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="19">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D39" s="19">
         <v>0.1203</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" s="19">
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>416</v>
+      </c>
+      <c r="C40" s="19">
         <v>1E-3</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D40" s="19">
         <v>5.11E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>433</v>
-      </c>
-      <c r="C26" s="19">
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C41" s="19">
         <v>0</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D41" s="19">
         <v>1.6500000000000001E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>434</v>
-      </c>
-      <c r="C27" s="19">
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C42" s="19">
         <v>0</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D42" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>505</v>
+      </c>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>510</v>
+      </c>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>506</v>
+      </c>
+      <c r="C47" t="s">
+        <v>511</v>
+      </c>
+      <c r="D47" t="s">
+        <v>512</v>
+      </c>
+      <c r="E47" t="s">
+        <v>507</v>
+      </c>
+      <c r="F47" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>522</v>
-      </c>
-      <c r="C32" t="s">
-        <v>527</v>
-      </c>
-      <c r="D32" t="s">
-        <v>528</v>
-      </c>
-      <c r="E32" t="s">
-        <v>523</v>
-      </c>
-      <c r="F32" t="s">
-        <v>524</v>
-      </c>
-      <c r="G32" t="s">
-        <v>525</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>511</v>
-      </c>
-      <c r="E33">
+      <c r="G47" t="s">
+        <v>509</v>
+      </c>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="4"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>495</v>
+      </c>
+      <c r="E48">
         <v>24.8</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F48" s="12">
         <v>1.6799999999999999E-2</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G48" s="25">
         <v>1.8218907691418283E-2</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>519</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>503</v>
+      </c>
+      <c r="E49" s="26">
         <v>4.7</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F49" s="24">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G49" s="25">
         <v>1.8231484607593381E-2</v>
       </c>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>512</v>
-      </c>
-      <c r="E35">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>496</v>
+      </c>
+      <c r="E50">
         <v>14.3</v>
       </c>
-      <c r="F35">
+      <c r="F50">
         <v>1</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G50" s="25">
         <v>1.8219280719280719E-2</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>510</v>
-      </c>
-      <c r="E36">
+      <c r="H50" s="4"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>494</v>
+      </c>
+      <c r="E51">
         <v>19.899999999999999</v>
       </c>
-      <c r="F36">
+      <c r="F51">
         <v>1.62</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G51" s="25">
         <v>1.8217202885234516E-2</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>509</v>
-      </c>
-      <c r="E37">
+      <c r="H51" s="4"/>
+      <c r="I51" s="27"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>493</v>
+      </c>
+      <c r="E52">
         <v>26</v>
       </c>
-      <c r="F37">
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G52" s="25">
         <v>1.8221324034448143E-2</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="28"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E38">
+      <c r="H52" s="4"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>504</v>
+      </c>
+      <c r="E53">
         <v>6.4</v>
       </c>
-      <c r="F38">
+      <c r="F53">
         <v>0.38</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G53" s="25">
         <v>1.8216888126875268E-2</v>
       </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="21" t="s">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D57" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E57" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="21" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C58" s="21">
         <v>10.7523</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D58" s="21">
         <v>1.8250999999999999</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E58" s="21">
         <v>5.7888999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="21" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C59" s="21">
         <v>11.913600000000001</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D59" s="21">
         <v>5.7523</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E59" s="21">
         <v>9.6933000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="21" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C60" s="21">
         <v>22.196400000000001</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D60" s="21">
         <v>24.328299999999999</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E60" s="21">
         <v>22.979299999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="21" t="s">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C61" s="21">
         <v>25.5763</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D61" s="21">
         <v>15.297700000000001</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E61" s="21">
         <v>20.091699999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="21" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C62" s="21">
         <v>22.250399999999999</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D62" s="21">
         <v>22.5062</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E62" s="21">
         <v>22.363299999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="21" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C63" s="21">
         <v>9.2730999999999995</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D63" s="21">
         <v>24.727399999999999</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E63" s="21">
         <v>16.4572</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C64" s="21">
         <v>17.155999999999999</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D64" s="21">
         <v>12.907299999999999</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E64" s="21">
         <v>15.566700000000001</v>
       </c>
-      <c r="Y49">
-        <f>11909+8800</f>
-        <v>20709</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21">
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21">
         <v>15.9094</v>
       </c>
-      <c r="E50" s="32" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="E65" s="31" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C66" s="21">
         <v>15.968400000000001</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D66" s="21">
         <v>11.6173</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E66" s="21">
         <v>13.941800000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Config/Kenya_parameters.xlsx
+++ b/Config/Kenya_parameters.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="598">
   <si>
     <t>Metric</t>
   </si>
@@ -792,9 +792,6 @@
     <t>Source: ICO Kenya HPV report 2017</t>
   </si>
   <si>
-    <t>Source: DeVuyst, 2010</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -855,45 +852,12 @@
     <t>CIN2+ or HSIL</t>
   </si>
   <si>
-    <t>41.9%</t>
-  </si>
-  <si>
-    <t>28.8%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
-  </si>
-  <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>1.8%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
-  </si>
-  <si>
     <t>2.2%</t>
   </si>
   <si>
-    <t>4.0%</t>
-  </si>
-  <si>
-    <t>10.5%</t>
-  </si>
-  <si>
-    <t>8.5%</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
     <t>Any abnormality</t>
   </si>
   <si>
-    <t>Source: DeVuyst, 2003</t>
-  </si>
-  <si>
     <t>Nairobi</t>
   </si>
   <si>
@@ -1762,6 +1726,123 @@
   </si>
   <si>
     <t xml:space="preserve">LSIL </t>
+  </si>
+  <si>
+    <t>25-55</t>
+  </si>
+  <si>
+    <t>HIV- women</t>
+  </si>
+  <si>
+    <t>*HIV prevalence = 11.49%</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25875167</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>25-34 (n=235)</t>
+  </si>
+  <si>
+    <t>35-44 (n=246)</t>
+  </si>
+  <si>
+    <t>&gt;45 (n=219)</t>
+  </si>
+  <si>
+    <t>HPV 16/19</t>
+  </si>
+  <si>
+    <t>HPV 16/20</t>
+  </si>
+  <si>
+    <t>HPV 16/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*HIV testing was not done as part of the study. But prevalence among pregnant women was about 10% in Mombasa in 2004, when the study took palce. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: DeVuyst, 2010;  Cancer Causes and Control 21: 2309–2313. </t>
+  </si>
+  <si>
+    <t>*HIV testing was done on most women in the study; positivity was 11.5%</t>
+  </si>
+  <si>
+    <t>Source: Maranga, 2013. Open Virol J. 2013; 7: 19–27.</t>
+  </si>
+  <si>
+    <t>21-50</t>
+  </si>
+  <si>
+    <t>HIV+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR HPV </t>
+  </si>
+  <si>
+    <t>HIV-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: Rahman, 2011. J Med Virol. 2011 Nov;83(11):1988-96. </t>
+  </si>
+  <si>
+    <t>mean 33.9</t>
+  </si>
+  <si>
+    <t>mean 29.9</t>
+  </si>
+  <si>
+    <t>Year of data collection</t>
+  </si>
+  <si>
+    <t>Source: Yamada, 2008</t>
+  </si>
+  <si>
+    <t>17-19</t>
+  </si>
+  <si>
+    <t>40-61</t>
+  </si>
+  <si>
+    <t>2004-2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of data collection </t>
+  </si>
+  <si>
+    <t>1998-2000</t>
+  </si>
+  <si>
+    <t>2002-2004</t>
+  </si>
+  <si>
+    <t>Source: Ogembo, 2015; PLoS One. 2015 Apr 14;10(4):e0122488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*HPV prevalence among women with normal cytology </t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Systematic review</t>
+  </si>
+  <si>
+    <t>Source: DeVuyst, 2003; Sex Transm Dis. 2003 Feb;30(2):137-42.</t>
   </si>
 </sst>
 </file>
@@ -1778,7 +1859,7 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1935,6 +2016,14 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2259,7 +2348,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2315,8 +2404,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2360,8 +2450,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="49"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2398,6 +2489,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -12228,27 +12320,27 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="M1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="P2" t="s">
         <v>225</v>
       </c>
       <c r="T2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="W2" t="s">
         <v>225</v>
@@ -12256,7 +12348,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
         <v>225</v>
@@ -12268,7 +12360,7 @@
         <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3" t="s">
         <v>220</v>
@@ -12280,51 +12372,51 @@
         <v>144</v>
       </c>
       <c r="M3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="N3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="O3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="P3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="Q3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="R3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="T3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="U3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="V3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="W3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="X3" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Y3" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="16"/>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H4" s="4">
         <v>1422021</v>
@@ -12337,7 +12429,7 @@
         <v>2843406</v>
       </c>
       <c r="L4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M19" si="0">(I30-H4)/H4*100</f>
@@ -12382,13 +12474,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="G5" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H5" s="4">
         <v>1247091</v>
@@ -12401,7 +12493,7 @@
         <v>2491840</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
@@ -12446,13 +12538,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="G6" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H6" s="4">
         <v>1050932</v>
@@ -12465,7 +12557,7 @@
         <v>2074771</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
@@ -12510,13 +12602,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="G7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H7" s="4">
         <v>854123</v>
@@ -12529,7 +12621,7 @@
         <v>1741845</v>
       </c>
       <c r="L7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
@@ -12574,13 +12666,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="G8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H8" s="4">
         <v>641401</v>
@@ -12593,7 +12685,7 @@
         <v>1327404</v>
       </c>
       <c r="L8" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
@@ -12638,13 +12730,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="G9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H9" s="4">
         <v>514451</v>
@@ -12657,7 +12749,7 @@
         <v>1055712</v>
       </c>
       <c r="L9" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
@@ -12702,13 +12794,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H10" s="4">
         <v>405385</v>
@@ -12721,7 +12813,7 @@
         <v>818076</v>
       </c>
       <c r="L10" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
@@ -12766,13 +12858,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="G11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H11" s="4">
         <v>290227</v>
@@ -12785,7 +12877,7 @@
         <v>615594</v>
       </c>
       <c r="L11" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
@@ -12830,13 +12922,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H12" s="4">
         <v>261480</v>
@@ -12849,7 +12941,7 @@
         <v>535182</v>
       </c>
       <c r="L12" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
@@ -12894,13 +12986,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H13" s="4">
         <v>218914</v>
@@ -12913,7 +13005,7 @@
         <v>440879</v>
       </c>
       <c r="L13" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
@@ -12958,13 +13050,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H14" s="4">
         <v>182908</v>
@@ -12977,7 +13069,7 @@
         <v>373930</v>
       </c>
       <c r="L14" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
@@ -13022,13 +13114,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H15" s="4">
         <v>140777</v>
@@ -13041,7 +13133,7 @@
         <v>275311</v>
       </c>
       <c r="L15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
@@ -13086,13 +13178,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H16" s="4">
         <v>107710</v>
@@ -13105,7 +13197,7 @@
         <v>217228</v>
       </c>
       <c r="L16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
@@ -13150,13 +13242,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H17" s="4">
         <v>99906</v>
@@ -13169,7 +13261,7 @@
         <v>183127</v>
       </c>
       <c r="L17" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
@@ -13214,13 +13306,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H18" s="4">
         <v>66369</v>
@@ -13233,7 +13325,7 @@
         <v>128908</v>
       </c>
       <c r="L18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
@@ -13278,13 +13370,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H19" s="4">
         <v>87766</v>
@@ -13297,7 +13389,7 @@
         <v>174363</v>
       </c>
       <c r="L19" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
@@ -13342,19 +13434,19 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="G20" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="L20" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="N20" s="4">
         <f t="shared" si="5"/>
@@ -13392,13 +13484,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="G21" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -13420,20 +13512,20 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="R27" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G28" t="s">
         <v>28</v>
@@ -13453,7 +13545,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" t="s">
         <v>225</v>
@@ -13465,7 +13557,7 @@
         <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" t="s">
         <v>225</v>
@@ -13497,7 +13589,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C30" s="4">
         <v>328243</v>
@@ -13509,7 +13601,7 @@
         <v>656991</v>
       </c>
       <c r="G30" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H30" s="4">
         <v>1888827</v>
@@ -13547,7 +13639,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C31" s="4">
         <v>291272</v>
@@ -13559,7 +13651,7 @@
         <v>585145</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H31" s="4">
         <v>1725292</v>
@@ -13597,7 +13689,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C32" s="4">
         <v>253763</v>
@@ -13609,7 +13701,7 @@
         <v>512089</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H32" s="4">
         <v>1485648</v>
@@ -13647,7 +13739,7 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C33" s="4">
         <v>194194</v>
@@ -13659,7 +13751,7 @@
         <v>384042</v>
       </c>
       <c r="G33" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H33" s="4">
         <v>1200712</v>
@@ -13697,7 +13789,7 @@
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C34" s="4">
         <v>161014</v>
@@ -13709,7 +13801,7 @@
         <v>279231</v>
       </c>
       <c r="G34" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H34" s="4">
         <v>1013340</v>
@@ -13747,7 +13839,7 @@
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C35" s="4">
         <v>136441</v>
@@ -13759,7 +13851,7 @@
         <v>235952</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H35" s="4">
         <v>847287</v>
@@ -13797,7 +13889,7 @@
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C36" s="4">
         <v>96154</v>
@@ -13809,7 +13901,7 @@
         <v>175890</v>
       </c>
       <c r="G36" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H36" s="4">
         <v>575651</v>
@@ -13847,7 +13939,7 @@
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C37" s="4">
         <v>77231</v>
@@ -13859,7 +13951,7 @@
         <v>140196</v>
       </c>
       <c r="G37" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H37" s="4">
         <v>457942</v>
@@ -13897,7 +13989,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C38" s="4">
         <v>61401</v>
@@ -13909,7 +14001,7 @@
         <v>113436</v>
       </c>
       <c r="G38" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H38" s="4">
         <v>364244</v>
@@ -13947,7 +14039,7 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C39" s="4">
         <v>51664</v>
@@ -13959,7 +14051,7 @@
         <v>91377</v>
       </c>
       <c r="G39" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H39" s="4">
         <v>293405</v>
@@ -13997,7 +14089,7 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C40" s="4">
         <v>45218</v>
@@ -14009,7 +14101,7 @@
         <v>82397</v>
       </c>
       <c r="G40" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H40" s="4">
         <v>240617</v>
@@ -14047,7 +14139,7 @@
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C41" s="4">
         <v>39496</v>
@@ -14059,7 +14151,7 @@
         <v>71950</v>
       </c>
       <c r="G41" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H41" s="4">
         <v>181155</v>
@@ -14097,7 +14189,7 @@
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C42" s="4">
         <v>30651</v>
@@ -14109,7 +14201,7 @@
         <v>56831</v>
       </c>
       <c r="G42" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H42" s="4">
         <v>167901</v>
@@ -14147,7 +14239,7 @@
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C43" s="4">
         <v>22800</v>
@@ -14159,7 +14251,7 @@
         <v>42776</v>
       </c>
       <c r="G43" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H43" s="4">
         <v>116980</v>
@@ -14197,7 +14289,7 @@
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C44" s="4">
         <v>15793</v>
@@ -14209,7 +14301,7 @@
         <v>31180</v>
       </c>
       <c r="G44" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H44" s="4">
         <v>91212</v>
@@ -14247,7 +14339,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C45" s="4">
         <v>9528</v>
@@ -14259,7 +14351,7 @@
         <v>21480</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H45" s="4">
         <v>60476</v>
@@ -14297,7 +14389,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C46" s="4">
         <v>11462</v>
@@ -14309,7 +14401,7 @@
         <v>22663</v>
       </c>
       <c r="G46" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H46" s="4">
         <v>94070</v>
@@ -14347,7 +14439,7 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C47" s="4">
         <v>1929</v>
@@ -14359,7 +14451,7 @@
         <v>3536</v>
       </c>
       <c r="G47" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H47" s="4">
         <v>10509</v>
@@ -14399,12 +14491,12 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -14469,7 +14561,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -14482,7 +14574,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C60">
         <v>2.2000000000000002</v>
@@ -14493,7 +14585,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C61">
         <v>2.8</v>
@@ -14504,7 +14596,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C62">
         <v>2.2999999999999998</v>
@@ -14515,15 +14607,15 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="R64" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G65" t="s">
         <v>28</v>
@@ -14543,7 +14635,7 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
         <v>225</v>
@@ -14555,7 +14647,7 @@
         <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H66" t="s">
         <v>225</v>
@@ -14587,7 +14679,7 @@
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C67" s="4">
         <v>352462</v>
@@ -14600,7 +14692,7 @@
         <v>707582</v>
       </c>
       <c r="G67" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H67" s="4">
         <v>2242966</v>
@@ -14638,7 +14730,7 @@
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C68" s="4">
         <v>309023</v>
@@ -14651,7 +14743,7 @@
         <v>619950</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H68" s="4">
         <v>1962556</v>
@@ -14690,7 +14782,7 @@
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C69" s="4">
         <v>337015</v>
@@ -14703,7 +14795,7 @@
         <v>681321</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H69" s="4">
         <v>2003655</v>
@@ -14742,7 +14834,7 @@
     </row>
     <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C70" s="4">
         <v>281107</v>
@@ -14755,7 +14847,7 @@
         <v>556971</v>
       </c>
       <c r="G70" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H70" s="4">
         <v>1721194</v>
@@ -14794,7 +14886,7 @@
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C71" s="4">
         <v>224623</v>
@@ -14807,7 +14899,7 @@
         <v>401114</v>
       </c>
       <c r="G71" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H71" s="4">
         <v>1504389</v>
@@ -14846,7 +14938,7 @@
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C72" s="4">
         <v>162798</v>
@@ -14859,7 +14951,7 @@
         <v>290493</v>
       </c>
       <c r="G72" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H72" s="4">
         <v>1164594</v>
@@ -14898,7 +14990,7 @@
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C73" s="4">
         <v>123137</v>
@@ -14911,7 +15003,7 @@
         <v>223560</v>
       </c>
       <c r="G73" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H73" s="4">
         <v>845230</v>
@@ -14950,7 +15042,7 @@
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C74" s="4">
         <v>113502</v>
@@ -14963,7 +15055,7 @@
         <v>203842</v>
       </c>
       <c r="G74" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H74" s="4">
         <v>723749</v>
@@ -15002,7 +15094,7 @@
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C75" s="4">
         <v>84192</v>
@@ -15015,7 +15107,7 @@
         <v>155000</v>
       </c>
       <c r="G75" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H75" s="4">
         <v>516989</v>
@@ -15054,7 +15146,7 @@
     </row>
     <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C76" s="4">
         <v>69798</v>
@@ -15067,7 +15159,7 @@
         <v>128165</v>
       </c>
       <c r="G76" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H76" s="4">
         <v>418987</v>
@@ -15106,7 +15198,7 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C77" s="4">
         <v>54840</v>
@@ -15119,7 +15211,7 @@
         <v>103822</v>
       </c>
       <c r="G77" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H77" s="4">
         <v>340167</v>
@@ -15158,7 +15250,7 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C78" s="4">
         <v>40107</v>
@@ -15171,7 +15263,7 @@
         <v>73250</v>
       </c>
       <c r="G78" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H78" s="4">
         <v>236325</v>
@@ -15210,7 +15302,7 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C79" s="4">
         <v>39207</v>
@@ -15223,7 +15315,7 @@
         <v>70173</v>
       </c>
       <c r="G79" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H79" s="4">
         <v>214715</v>
@@ -15262,7 +15354,7 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C80" s="4">
         <v>33400</v>
@@ -15275,7 +15367,7 @@
         <v>58795</v>
       </c>
       <c r="G80" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H80" s="4">
         <v>160364</v>
@@ -15314,7 +15406,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C81" s="4">
         <v>22683</v>
@@ -15327,7 +15419,7 @@
         <v>41667</v>
       </c>
       <c r="G81" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H81" s="4">
         <v>135524</v>
@@ -15366,7 +15458,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C82" s="4">
         <v>13422</v>
@@ -15379,7 +15471,7 @@
         <v>25810</v>
       </c>
       <c r="G82" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H82" s="4">
         <v>81620</v>
@@ -15418,7 +15510,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C83" s="4">
         <v>14731</v>
@@ -15431,7 +15523,7 @@
         <v>27581</v>
       </c>
       <c r="G83" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H83" s="4">
         <v>121038</v>
@@ -15470,7 +15562,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C84" s="4">
         <v>11843</v>
@@ -15483,7 +15575,7 @@
         <v>23100</v>
       </c>
       <c r="G84" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H84" s="4">
         <v>86956</v>
@@ -15530,15 +15622,15 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="Q88" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G89" t="s">
         <v>28</v>
@@ -15558,7 +15650,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
         <v>225</v>
@@ -15570,7 +15662,7 @@
         <v>144</v>
       </c>
       <c r="G90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H90" t="s">
         <v>225</v>
@@ -15602,7 +15694,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C91">
         <v>472132</v>
@@ -15615,7 +15707,7 @@
         <v>947849</v>
       </c>
       <c r="G91" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="H91" s="4">
         <v>2938867</v>
@@ -15654,7 +15746,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C92">
         <v>407578</v>
@@ -15667,7 +15759,7 @@
         <v>814940</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H92" s="4">
         <v>2765047</v>
@@ -15706,7 +15798,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C93">
         <v>365861</v>
@@ -15719,7 +15811,7 @@
         <v>736716</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="H93" s="4">
         <v>2469542</v>
@@ -15758,7 +15850,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C94">
         <v>313668</v>
@@ -15771,7 +15863,7 @@
         <v>629797</v>
       </c>
       <c r="G94" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H94" s="4">
         <v>2045890</v>
@@ -15810,7 +15902,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C95">
         <v>294691</v>
@@ -15823,7 +15915,7 @@
         <v>522624</v>
       </c>
       <c r="G95" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="H95" s="4">
         <v>2020998</v>
@@ -15862,7 +15954,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C96">
         <v>215455</v>
@@ -15875,7 +15967,7 @@
         <v>398538</v>
       </c>
       <c r="G96" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H96" s="4">
         <v>1672110</v>
@@ -15914,7 +16006,7 @@
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C97">
         <v>153975</v>
@@ -15927,7 +16019,7 @@
         <v>296843</v>
       </c>
       <c r="G97" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H97" s="4">
         <v>1262471</v>
@@ -15966,7 +16058,7 @@
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C98">
         <v>123409</v>
@@ -15979,7 +16071,7 @@
         <v>230142</v>
       </c>
       <c r="G98" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H98" s="4">
         <v>1004271</v>
@@ -16018,7 +16110,7 @@
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C99">
         <v>95638</v>
@@ -16031,7 +16123,7 @@
         <v>173521</v>
       </c>
       <c r="G99" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H99" s="4">
         <v>732575</v>
@@ -16070,7 +16162,7 @@
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C100">
         <v>91784</v>
@@ -16083,7 +16175,7 @@
         <v>166874</v>
       </c>
       <c r="G100" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H100" s="4">
         <v>637469</v>
@@ -16122,7 +16214,7 @@
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C101">
         <v>74474</v>
@@ -16135,7 +16227,7 @@
         <v>135460</v>
       </c>
       <c r="G101" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H101" s="4">
         <v>477860</v>
@@ -16174,7 +16266,7 @@
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C102">
         <v>55205</v>
@@ -16187,7 +16279,7 @@
         <v>103349</v>
       </c>
       <c r="G102" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H102" s="4">
         <v>352487</v>
@@ -16226,7 +16318,7 @@
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C103">
         <v>46773</v>
@@ -16239,7 +16331,7 @@
         <v>86914</v>
       </c>
       <c r="G103" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H103" s="4">
         <v>298581</v>
@@ -16278,7 +16370,7 @@
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C104">
         <v>32792</v>
@@ -16291,7 +16383,7 @@
         <v>57943</v>
       </c>
       <c r="G104" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H104" s="4">
         <v>207612</v>
@@ -16330,7 +16422,7 @@
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C105">
         <v>29504</v>
@@ -16343,7 +16435,7 @@
         <v>52517</v>
       </c>
       <c r="G105" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H105" s="4">
         <v>179000</v>
@@ -16382,7 +16474,7 @@
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C106">
         <v>21238</v>
@@ -16395,7 +16487,7 @@
         <v>36832</v>
       </c>
       <c r="G106" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H106" s="4">
         <v>118675</v>
@@ -16434,7 +16526,7 @@
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C107" s="4">
         <v>29637</v>
@@ -16447,7 +16539,7 @@
         <v>49371</v>
       </c>
       <c r="G107" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H107" s="4">
         <v>224576</v>
@@ -16486,7 +16578,7 @@
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C108" s="4">
         <v>1163</v>
@@ -16499,7 +16591,7 @@
         <v>2481</v>
       </c>
       <c r="G108" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H108" s="4">
         <v>9608</v>
@@ -16654,7 +16746,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -16674,17 +16766,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C3" s="18">
         <v>0.79400000000000004</v>
@@ -16692,7 +16784,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C4" s="18">
         <v>6.0999999999999999E-2</v>
@@ -16700,7 +16792,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C5" s="18">
         <v>0.14499999999999999</v>
@@ -16708,23 +16800,23 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D8" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E8" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C9" s="18">
         <v>0.60499999999999998</v>
@@ -16736,12 +16828,12 @@
         <v>0.111</v>
       </c>
       <c r="G9" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C10" s="18">
         <v>0.45900000000000002</v>
@@ -16753,22 +16845,22 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C14" s="18">
         <v>0.754</v>
@@ -16776,7 +16868,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C15" s="18">
         <v>0.246</v>
@@ -16784,7 +16876,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -16806,36 +16898,36 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="E19" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G19" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="I19" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C20" s="4">
         <v>85807</v>
@@ -16870,7 +16962,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C21" s="4">
         <v>83847</v>
@@ -16905,7 +16997,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C22" s="4">
         <v>68704</v>
@@ -16940,7 +17032,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C23" s="4">
         <v>54927</v>
@@ -16975,7 +17067,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C24" s="4">
         <v>23189</v>
@@ -17010,7 +17102,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C25" s="4">
         <v>11561</v>
@@ -17086,7 +17178,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="4"/>
@@ -17096,7 +17188,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="4"/>
@@ -17199,17 +17291,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
@@ -17217,35 +17309,35 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C4">
         <v>30.6</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C5">
         <v>14.5</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C6">
         <v>54.9</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -17265,12 +17357,12 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -17281,10 +17373,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -17294,7 +17386,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C6" s="30">
         <v>0.17</v>
@@ -17307,7 +17399,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C7" s="30">
         <v>0.13900000000000001</v>
@@ -17320,7 +17412,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C8" s="30">
         <v>0.13900000000000001</v>
@@ -17333,7 +17425,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C9" s="30">
         <v>0.123</v>
@@ -17346,7 +17438,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C10" s="30">
         <v>0.11</v>
@@ -17359,7 +17451,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C11" s="30">
         <v>7.5999999999999998E-2</v>
@@ -17372,7 +17464,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C12" s="30">
         <v>7.1999999999999995E-2</v>
@@ -17385,7 +17477,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17393,10 +17485,10 @@
         <v>199</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F15" s="21"/>
     </row>
@@ -17416,7 +17508,7 @@
     </row>
     <row r="17" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C17" s="21">
         <v>19.7</v>
@@ -17433,7 +17525,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C18">
         <v>17.899999999999999</v>
@@ -17450,7 +17542,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -17467,7 +17559,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C20">
         <v>19.100000000000001</v>
@@ -17484,7 +17576,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C21">
         <v>17.600000000000001</v>
@@ -17501,7 +17593,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C22">
         <v>18.5</v>
@@ -17518,7 +17610,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C23">
         <v>10.1</v>
@@ -17535,17 +17627,17 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C27" s="12">
         <v>0.158</v>
@@ -17553,7 +17645,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -17566,7 +17658,7 @@
         <v>199</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -17603,17 +17695,17 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C39" s="12">
         <v>0.42799999999999999</v>
@@ -17621,12 +17713,12 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C41" s="12">
         <v>0.42099999999999999</v>
@@ -18223,12 +18315,12 @@
   <sheetData>
     <row r="1" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18354,7 +18446,7 @@
         <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G18" t="s">
         <v>162</v>
@@ -18880,13 +18972,13 @@
     </row>
     <row r="51" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -18911,51 +19003,51 @@
     </row>
     <row r="53" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="M53" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="N53" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C54" s="21">
         <v>1</v>
@@ -18976,7 +19068,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L54" s="21">
         <v>1.0000000000000001E-5</v>
@@ -18999,7 +19091,7 @@
     </row>
     <row r="55" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C55" s="21">
         <v>1</v>
@@ -19020,7 +19112,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L55" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19043,7 +19135,7 @@
     </row>
     <row r="56" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C56" s="21">
         <v>1</v>
@@ -19064,7 +19156,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L56" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19395,7 +19487,7 @@
     </row>
     <row r="64" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C64" s="21">
         <v>1</v>
@@ -19416,7 +19508,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L64" s="21">
         <v>0.73475599999999996</v>
@@ -19439,7 +19531,7 @@
     </row>
     <row r="65" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C65" s="21">
         <v>1</v>
@@ -19460,7 +19552,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K65" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L65" s="21">
         <v>0.73475599999999996</v>
@@ -19483,7 +19575,7 @@
     </row>
     <row r="66" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C66" s="21">
         <v>1</v>
@@ -19504,7 +19596,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L66" s="21">
         <v>0.73475599999999996</v>
@@ -19527,7 +19619,7 @@
     </row>
     <row r="67" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C67" s="21">
         <v>1</v>
@@ -19548,7 +19640,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="L67" s="21">
         <v>0.73475599999999996</v>
@@ -19571,7 +19663,7 @@
     </row>
     <row r="68" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C68" s="21">
         <v>1</v>
@@ -19592,7 +19684,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="L68" s="21">
         <v>0.73475599999999996</v>
@@ -19615,7 +19707,7 @@
     </row>
     <row r="69" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C69" s="21">
         <v>1</v>
@@ -19636,7 +19728,7 @@
         <v>8.1080000000000006E-3</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L69" s="21">
         <v>0.73475599999999996</v>
@@ -19680,51 +19772,51 @@
     </row>
     <row r="72" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="G72" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K72" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L72" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="M72" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="N72" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="O72" s="21" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P72" s="21" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q72" s="21" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="21" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C73" s="29">
         <v>1</v>
@@ -19745,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="L73" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19768,7 +19860,7 @@
     </row>
     <row r="74" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C74" s="29">
         <v>1</v>
@@ -19789,7 +19881,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L74" s="21">
         <v>1.0000000000000001E-5</v>
@@ -19812,7 +19904,7 @@
     </row>
     <row r="75" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C75" s="29">
         <v>1</v>
@@ -19833,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="L75" s="21">
         <v>1.0000000000000001E-5</v>
@@ -20164,7 +20256,7 @@
     </row>
     <row r="83" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C83" s="29">
         <v>1</v>
@@ -20185,7 +20277,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L83" s="21">
         <v>0.74267700000000003</v>
@@ -20208,7 +20300,7 @@
     </row>
     <row r="84" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C84" s="29">
         <v>1</v>
@@ -20229,7 +20321,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="L84" s="21">
         <v>0.74267700000000003</v>
@@ -20252,7 +20344,7 @@
     </row>
     <row r="85" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C85" s="29">
         <v>1</v>
@@ -20273,7 +20365,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="L85" s="21">
         <v>0.74267700000000003</v>
@@ -20296,7 +20388,7 @@
     </row>
     <row r="86" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C86" s="29">
         <v>1</v>
@@ -20317,7 +20409,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="L86" s="21">
         <v>0.74267700000000003</v>
@@ -20340,7 +20432,7 @@
     </row>
     <row r="87" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C87" s="29">
         <v>1</v>
@@ -20361,7 +20453,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="L87" s="21">
         <v>0.74267700000000003</v>
@@ -20384,7 +20476,7 @@
     </row>
     <row r="88" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C88" s="29">
         <v>1</v>
@@ -20405,7 +20497,7 @@
         <v>1.1051999999999999E-2</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L88" s="21">
         <v>0.74267700000000003</v>
@@ -20526,17 +20618,17 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
         <v>225</v>
@@ -20690,12 +20782,12 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -20739,15 +20831,15 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G123" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C124" t="s">
         <v>218</v>
@@ -20756,7 +20848,7 @@
         <v>220</v>
       </c>
       <c r="G124" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="H124" t="s">
         <v>218</v>
@@ -20791,7 +20883,7 @@
         <v>27</v>
       </c>
       <c r="K125" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="L125">
         <f>SUM(I125+I126)</f>
@@ -20822,7 +20914,7 @@
         <v>57.8</v>
       </c>
       <c r="K126" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L126">
         <f>I127</f>
@@ -20835,7 +20927,7 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C127">
         <v>36.1</v>
@@ -20844,7 +20936,7 @@
         <v>24.7</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H127">
         <v>1.7</v>
@@ -20853,7 +20945,7 @@
         <v>9.9</v>
       </c>
       <c r="K127" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L127">
         <f>I128+I129</f>
@@ -20866,7 +20958,7 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C128">
         <v>7.8</v>
@@ -20875,7 +20967,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H128">
         <v>0.5</v>
@@ -20886,7 +20978,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C129">
         <v>1.5</v>
@@ -20895,7 +20987,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="H129">
         <v>0.3</v>
@@ -20906,7 +20998,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -20917,7 +21009,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C131">
         <v>3.7</v>
@@ -20928,7 +21020,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -20941,7 +21033,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C135">
         <v>3.8</v>
@@ -20952,7 +21044,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C136">
         <v>31.4</v>
@@ -20963,7 +21055,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C137">
         <v>32.799999999999997</v>
@@ -20985,24 +21077,24 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B140" s="15"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B141" s="22" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B142" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C142" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D142" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -21084,32 +21176,32 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="21" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="21" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -21164,7 +21256,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -21238,12 +21330,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -21278,7 +21370,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -21291,7 +21383,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C20">
         <v>4.0999999999999996</v>
@@ -21302,7 +21394,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C21">
         <v>14.8</v>
@@ -21984,21 +22076,21 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="Q39" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="Z39" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="Q40" s="21" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
@@ -22008,7 +22100,7 @@
       <c r="W40" s="21"/>
       <c r="X40" s="21"/>
       <c r="Z40" s="21" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AA40" s="21"/>
       <c r="AB40" s="21"/>
@@ -22023,25 +22115,25 @@
         <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D41" t="s">
         <v>152</v>
       </c>
       <c r="E41" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Q41" s="21" t="s">
         <v>80</v>
@@ -22050,19 +22142,19 @@
         <v>152</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="T41" s="21" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="U41" s="21" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="V41" s="21" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="W41" s="21" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Y41" s="21" t="s">
         <v>80</v>
@@ -22071,24 +22163,24 @@
         <v>152</v>
       </c>
       <c r="AA41" s="21" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="AB41" s="21" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="AC41" s="21" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="AD41" s="21" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="AE41" s="21" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="C42" s="20">
         <v>0</v>
@@ -22117,7 +22209,7 @@
         <v>0</v>
       </c>
       <c r="Q42" s="21" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="R42" s="20">
         <v>0</v>
@@ -22143,7 +22235,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="21" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="Z42" s="20">
         <v>0</v>
@@ -22171,7 +22263,7 @@
     </row>
     <row r="43" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="C43" s="20">
         <v>0</v>
@@ -22200,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="R43" s="20">
         <v>0</v>
@@ -22226,7 +22318,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="Z43" s="20">
         <v>0</v>
@@ -22254,7 +22346,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -22284,7 +22376,7 @@
         <v>1.23E-3</v>
       </c>
       <c r="Q44" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="R44" s="21">
         <v>0</v>
@@ -22310,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="22" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Z44" s="21">
         <v>0</v>
@@ -22872,19 +22964,19 @@
         <v>5.7399999999999994E-3</v>
       </c>
       <c r="K51" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="L51" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="N51" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="O51" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="Q51" s="21" t="s">
         <v>143</v>
@@ -22941,7 +23033,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C52" s="20">
         <v>0</v>
@@ -22970,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -22988,7 +23080,7 @@
         <v>0.41</v>
       </c>
       <c r="Q52" s="21" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="R52" s="20">
         <v>0</v>
@@ -23014,7 +23106,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="21" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Z52" s="20">
         <v>0</v>
@@ -23042,7 +23134,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C53" s="20">
         <v>0</v>
@@ -23071,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="R53" s="20">
         <v>0</v>
@@ -23097,7 +23189,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="21" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="Z53" s="20">
         <v>0</v>
@@ -23125,7 +23217,7 @@
     </row>
     <row r="54" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C54" s="20">
         <v>0</v>
@@ -23154,7 +23246,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="R54" s="20">
         <v>0</v>
@@ -23180,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="21" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="Z54" s="20">
         <v>0</v>
@@ -23208,7 +23300,7 @@
     </row>
     <row r="55" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C55" s="20">
         <v>0</v>
@@ -23237,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="R55" s="20">
         <v>0</v>
@@ -23263,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="21" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Z55" s="20">
         <v>0</v>
@@ -23291,7 +23383,7 @@
     </row>
     <row r="56" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C56" s="20">
         <v>0</v>
@@ -23320,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="R56" s="20">
         <v>0</v>
@@ -23346,7 +23438,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="21" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="Z56" s="20">
         <v>0</v>
@@ -23374,7 +23466,7 @@
     </row>
     <row r="57" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="C57" s="20">
         <v>0</v>
@@ -23403,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="R57" s="20">
         <v>0</v>
@@ -23429,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="21" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="Z57" s="20">
         <v>0</v>
@@ -23458,7 +23550,7 @@
     <row r="58" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -23466,7 +23558,7 @@
     </row>
     <row r="60" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C60">
         <v>8.67</v>
@@ -23474,12 +23566,12 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -23487,13 +23579,13 @@
         <v>80</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D65" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E65" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -23610,15 +23702,15 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G76" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -23709,13 +23801,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23733,7 +23825,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C4">
         <v>0.115</v>
@@ -23745,7 +23837,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="15" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C5">
         <v>1.6E-2</v>
@@ -23757,7 +23849,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="15" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C6">
         <v>3.0000000000000001E-3</v>
@@ -23769,7 +23861,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C7">
         <v>2E-3</v>
@@ -23781,7 +23873,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="15" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C8">
         <v>4.0000000000000001E-3</v>
@@ -23793,7 +23885,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="15" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C9">
         <v>5.0000000000000001E-3</v>
@@ -23805,7 +23897,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="15" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C10">
         <v>6.0000000000000001E-3</v>
@@ -23817,7 +23909,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C11">
         <v>6.0000000000000001E-3</v>
@@ -23829,7 +23921,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="15" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C12">
         <v>7.0000000000000001E-3</v>
@@ -23840,7 +23932,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C13">
         <v>8.0000000000000002E-3</v>
@@ -23851,7 +23943,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C14">
         <v>0.01</v>
@@ -23862,7 +23954,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C15">
         <v>1.4E-2</v>
@@ -23873,7 +23965,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C16">
         <v>1.9E-2</v>
@@ -23884,7 +23976,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C17">
         <v>2.9000000000000001E-2</v>
@@ -23895,7 +23987,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C18">
         <v>4.5999999999999999E-2</v>
@@ -23906,7 +23998,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C19">
         <v>7.2999999999999995E-2</v>
@@ -23917,7 +24009,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C20">
         <v>0.11600000000000001</v>
@@ -23928,7 +24020,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C21">
         <v>0.19800000000000001</v>
@@ -23939,7 +24031,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C23">
         <v>17.7</v>
@@ -24292,10 +24384,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C44">
         <v>313</v>
@@ -24306,7 +24398,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C45">
         <v>396</v>
@@ -24317,12 +24409,12 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -24353,7 +24445,7 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C51">
         <v>157</v>
@@ -24370,7 +24462,7 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D52">
         <v>89</v>
@@ -24390,7 +24482,7 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -24421,7 +24513,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C56">
         <v>88</v>
@@ -24438,7 +24530,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D57">
         <v>63</v>
@@ -24458,7 +24550,7 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
         <v>158</v>
@@ -24483,7 +24575,7 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C61">
         <v>139</v>
@@ -24500,7 +24592,7 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C62">
         <v>89</v>
@@ -24517,7 +24609,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
@@ -24552,7 +24644,7 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
@@ -24574,7 +24666,7 @@
         <v>220</v>
       </c>
       <c r="F71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G71" t="s">
         <v>218</v>
@@ -24585,7 +24677,7 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C72" s="6">
         <v>9.5000000000000001E-2</v>
@@ -24594,7 +24686,7 @@
         <v>0.1226</v>
       </c>
       <c r="F72" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G72" s="6">
         <v>5.0099999999999999E-2</v>
@@ -24605,7 +24697,7 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C73" s="6">
         <v>1.29E-2</v>
@@ -24614,7 +24706,7 @@
         <v>1.52E-2</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G73" s="6">
         <v>5.4999999999999997E-3</v>
@@ -24625,7 +24717,7 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C74" s="6">
         <v>2.3999999999999998E-3</v>
@@ -24634,7 +24726,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G74" s="6">
         <v>2.3E-3</v>
@@ -24645,7 +24737,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C75" s="6">
         <v>2.8999999999999998E-3</v>
@@ -24654,7 +24746,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="G75" s="6">
         <v>2.3999999999999998E-3</v>
@@ -24665,7 +24757,7 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C76" s="6">
         <v>1.9E-3</v>
@@ -24674,7 +24766,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G76" s="6">
         <v>1.8E-3</v>
@@ -24685,7 +24777,7 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C77" s="6">
         <v>3.5999999999999999E-3</v>
@@ -24694,7 +24786,7 @@
         <v>3.8E-3</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="G77" s="6">
         <v>3.0000000000000001E-3</v>
@@ -24705,7 +24797,7 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C78" s="6">
         <v>7.4000000000000003E-3</v>
@@ -24714,7 +24806,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G78" s="6">
         <v>5.5999999999999999E-3</v>
@@ -24725,7 +24817,7 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C79" s="6">
         <v>1.47E-2</v>
@@ -24734,7 +24826,7 @@
         <v>1.18E-2</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="G79" s="6">
         <v>1.0699999999999999E-2</v>
@@ -24745,7 +24837,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C80" s="6">
         <v>1.9199999999999998E-2</v>
@@ -24754,7 +24846,7 @@
         <v>2.06E-2</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G80" s="6">
         <v>1.38E-2</v>
@@ -24769,7 +24861,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C81" s="6">
         <v>1.4500000000000001E-2</v>
@@ -24778,7 +24870,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="G81" s="6">
         <v>1.0999999999999999E-2</v>
@@ -24789,7 +24881,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C82" s="6">
         <v>1.29E-2</v>
@@ -24798,7 +24890,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G82" s="6">
         <v>1.01E-2</v>
@@ -24809,7 +24901,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C83" s="6">
         <v>1.0200000000000001E-2</v>
@@ -24818,7 +24910,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="G83" s="6">
         <v>8.9999999999999993E-3</v>
@@ -24829,7 +24921,7 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C84" s="6">
         <v>1.12E-2</v>
@@ -24838,7 +24930,7 @@
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G84" s="6">
         <v>1.0200000000000001E-2</v>
@@ -24849,7 +24941,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C85" s="6">
         <v>1.5299999999999999E-2</v>
@@ -24858,7 +24950,7 @@
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="G85" s="6">
         <v>1.46E-2</v>
@@ -24869,7 +24961,7 @@
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C86" s="6">
         <v>2.41E-2</v>
@@ -24878,7 +24970,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G86" s="6">
         <v>2.3099999999999999E-2</v>
@@ -24889,7 +24981,7 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C87" s="6">
         <v>4.0399999999999998E-2</v>
@@ -24898,7 +24990,7 @@
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G87" s="6">
         <v>3.78E-2</v>
@@ -24909,7 +25001,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C88" s="6">
         <v>7.1400000000000005E-2</v>
@@ -24918,7 +25010,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G88" s="6">
         <v>6.3100000000000003E-2</v>
@@ -24929,7 +25021,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C89" s="6">
         <v>0.2152</v>
@@ -24938,7 +25030,7 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G89" s="6">
         <v>0.21279999999999999</v>
@@ -24954,10 +25046,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24967,14 +25059,37 @@
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>588</v>
+      </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
         <v>248</v>
@@ -24982,974 +25097,1607 @@
       <c r="D3" t="s">
         <v>250</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12">
+        <v>0.113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" s="12">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="12">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>581</v>
+      </c>
+      <c r="B28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F28" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.16500000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B29" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D29" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="11" t="s">
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="F8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="21" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="11" t="s">
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="11" t="s">
+      <c r="F33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F12" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="11" t="s">
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="11" t="s">
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" t="s">
         <v>279</v>
       </c>
-      <c r="F16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="L38" s="33" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" t="s">
-        <v>250</v>
-      </c>
-      <c r="E20" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" t="s">
         <v>281</v>
       </c>
-      <c r="D21" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="E41" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F25" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="F29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
-        <v>297</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="F41" s="12">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="34" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="21" t="s">
+    <row r="42" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0.41360000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0.2772</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0.40910000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="12">
-        <v>0.18640000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.2432</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F39" s="12">
-        <v>8.4099999999999994E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F40" s="12">
-        <v>0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" s="12">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="21" t="s">
-        <v>141</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>258</v>
       </c>
       <c r="F42" s="12">
-        <v>0.53180000000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.41360000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D43" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>258</v>
       </c>
       <c r="F43" s="12">
-        <v>0.29320000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.2772</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D44" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>258</v>
       </c>
       <c r="F44" s="12">
-        <v>0.36359999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.40910000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D45" s="21" t="s">
-        <v>407</v>
+        <v>142</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>258</v>
       </c>
       <c r="F45" s="12">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F46" s="12">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="12">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="12">
+        <v>0.53180000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="12">
+        <v>0.29320000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" s="12">
+        <v>0.36359999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="21" t="s">
+    <row r="54" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="E54" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F54" s="12">
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="47" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="21" t="s">
+    <row r="55" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F47" s="12">
+      <c r="E55" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F55" s="12">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="21" t="s">
+    <row r="56" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F48" s="12">
+      <c r="E56" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F56" s="12">
         <v>5.9299999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="21" t="s">
+    <row r="57" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="E57" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F57" s="12">
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="21" t="s">
+    <row r="58" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E58" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F58" s="12">
         <v>4.3499999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="F51" s="12">
+    <row r="59" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="F59" s="12">
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="21" t="s">
+    <row r="60" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E60" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F60" s="12">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F61" s="12">
+        <v>8.4199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F62" s="12">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" s="12">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F64" s="12">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="12">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" t="s">
+        <v>559</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="12">
+        <v>0.745</v>
+      </c>
+      <c r="H66" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>586</v>
+      </c>
+      <c r="B70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" t="s">
+        <v>249</v>
+      </c>
+      <c r="E70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2009</v>
+      </c>
+      <c r="B71" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" t="s">
+        <v>293</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0.373</v>
+      </c>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E75" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0.108</v>
+      </c>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>262</v>
+      </c>
+      <c r="F81" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>263</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" s="12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E86" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F86" s="12">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
         <v>296</v>
       </c>
-      <c r="F52" s="12">
-        <v>5.2600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="21" t="s">
+      <c r="F87" s="12">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="21" t="s">
+        <v>553</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F88" s="12">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E89" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E90" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="12">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F91" s="12">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E92" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F92" s="12">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E93" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F94" s="12">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E95" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E96" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F96" s="12">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E98" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E99" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" t="s">
+        <v>298</v>
+      </c>
+      <c r="F100" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="B104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" t="s">
+        <v>249</v>
+      </c>
+      <c r="E104" t="s">
+        <v>252</v>
+      </c>
+      <c r="F104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>596</v>
+      </c>
+      <c r="B105" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>300</v>
+      </c>
+      <c r="E105" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" t="s">
+        <v>301</v>
+      </c>
+      <c r="F106" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>303</v>
+      </c>
+      <c r="E107" t="s">
+        <v>301</v>
+      </c>
+      <c r="F107" s="13">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F111" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F112" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F114" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>265</v>
+      </c>
+      <c r="F115" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2008</v>
+      </c>
+      <c r="B119" t="s">
+        <v>575</v>
+      </c>
+      <c r="C119" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" t="s">
+        <v>574</v>
+      </c>
+      <c r="E119" t="s">
+        <v>576</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>577</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
+        <v>574</v>
+      </c>
+      <c r="E120" t="s">
+        <v>576</v>
+      </c>
+      <c r="F120" s="12">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>581</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>585</v>
+      </c>
+      <c r="B124" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" t="s">
+        <v>579</v>
+      </c>
+      <c r="E124" t="s">
+        <v>258</v>
+      </c>
+      <c r="F124" s="12">
+        <v>0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>577</v>
+      </c>
+      <c r="D125" t="s">
+        <v>580</v>
+      </c>
+      <c r="E125" t="s">
+        <v>258</v>
+      </c>
+      <c r="F125" s="12">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>585</v>
+      </c>
+      <c r="B129" t="s">
+        <v>575</v>
+      </c>
+      <c r="C129" t="s">
+        <v>269</v>
+      </c>
+      <c r="D129" t="s">
+        <v>583</v>
+      </c>
+      <c r="E129" t="s">
+        <v>257</v>
+      </c>
+      <c r="F129" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="21"/>
+      <c r="D130" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="21"/>
+      <c r="D131" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F131" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="21"/>
+      <c r="D132" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F53" s="12">
-        <v>8.4199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="21" t="s">
+      <c r="E132" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F132" s="13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="21"/>
+      <c r="D133" t="s">
         <v>141</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" s="12">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F55" s="12">
-        <v>3.15E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F56" s="12">
-        <v>4.2700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F57" s="12">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>301</v>
-      </c>
-      <c r="C60" t="s">
-        <v>248</v>
-      </c>
-      <c r="D60" t="s">
-        <v>250</v>
-      </c>
-      <c r="E60" t="s">
-        <v>253</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="E133" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F133" s="13">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="21"/>
+      <c r="D134" t="s">
+        <v>584</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F134" s="13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>577</v>
+      </c>
+      <c r="C135" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" s="13">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="21"/>
+      <c r="D136" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F136" s="13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="21"/>
+      <c r="D137" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F137" s="13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="21"/>
+      <c r="D138" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F138" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="21"/>
+      <c r="D139" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F139" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="21"/>
+      <c r="D140" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>581</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E143" s="21" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>303</v>
-      </c>
-      <c r="C61" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" t="s">
-        <v>304</v>
-      </c>
-      <c r="E61" t="s">
-        <v>305</v>
-      </c>
-      <c r="F61" s="12">
-        <v>0.373</v>
-      </c>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>306</v>
-      </c>
-      <c r="F62" s="12">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>258</v>
-      </c>
-      <c r="F63" s="12">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F64" s="12">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="21" t="s">
+      <c r="F143" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="G143" t="s">
+        <v>591</v>
+      </c>
+      <c r="H143" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" t="s">
+        <v>595</v>
+      </c>
+      <c r="D144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" t="s">
+        <v>257</v>
+      </c>
+      <c r="F144" s="12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G144">
+        <v>14.7</v>
+      </c>
+      <c r="H144">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="I144" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
         <v>563</v>
       </c>
-      <c r="F65" s="12">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E66" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="F66" s="12">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E67" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67" s="12">
-        <v>0.157</v>
-      </c>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E68" t="s">
-        <v>260</v>
-      </c>
-      <c r="F68" s="12">
-        <v>0.108</v>
-      </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E69" t="s">
-        <v>261</v>
-      </c>
-      <c r="F69" s="12">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E70" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="12">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E71" t="s">
-        <v>263</v>
-      </c>
-      <c r="F71" s="12">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E72" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E73" t="s">
-        <v>265</v>
-      </c>
-      <c r="F73" s="12">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E74" t="s">
-        <v>266</v>
-      </c>
-      <c r="F74" s="12">
-        <v>5.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>307</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F75" s="12">
-        <v>0.61299999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E76" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F76" s="12">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E77" t="s">
-        <v>308</v>
-      </c>
-      <c r="F77" s="12">
-        <v>0.45200000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D78" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F78" s="12">
-        <v>0.53500000000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E79" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F79" s="12">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E80" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" s="12">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="21" t="s">
-        <v>566</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F81" s="12">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E82" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F82" s="12">
-        <v>0.17100000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E83" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83" s="12">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="21" t="s">
-        <v>567</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F84" s="12">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E85" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="12">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E86" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F86" s="12">
-        <v>0.35799999999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="21" t="s">
-        <v>568</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F87" s="12">
-        <v>0.495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E88" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F88" s="12">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E89" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F89" s="12">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>309</v>
-      </c>
-      <c r="E90" t="s">
-        <v>310</v>
-      </c>
-      <c r="F90" s="13">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>306</v>
-      </c>
-      <c r="F91" s="12">
-        <v>0.28899999999999998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" t="s">
-        <v>301</v>
-      </c>
-      <c r="C94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D94" t="s">
-        <v>250</v>
-      </c>
-      <c r="E94" t="s">
-        <v>253</v>
-      </c>
-      <c r="F94" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>311</v>
-      </c>
-      <c r="C95" t="s">
-        <v>28</v>
-      </c>
-      <c r="D95" t="s">
-        <v>312</v>
-      </c>
-      <c r="E95" t="s">
-        <v>313</v>
-      </c>
-      <c r="F95" s="13">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>314</v>
-      </c>
-      <c r="E96" t="s">
-        <v>313</v>
-      </c>
-      <c r="F96" s="13">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>315</v>
-      </c>
-      <c r="E97" t="s">
-        <v>313</v>
-      </c>
-      <c r="F97" s="13">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F100" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F102" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F103" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E105" t="s">
-        <v>266</v>
-      </c>
-      <c r="F105" t="s">
-        <v>323</v>
+      <c r="E145" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" s="12">
+        <v>0.505</v>
+      </c>
+      <c r="G145">
+        <v>37.1</v>
+      </c>
+      <c r="H145">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>593</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F146" s="12">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G146">
+        <v>26.9</v>
+      </c>
+      <c r="H146">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>594</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147" s="12">
+        <v>0.316</v>
+      </c>
+      <c r="G147">
+        <v>14.9</v>
+      </c>
+      <c r="H147">
+        <v>48.3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L38" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26642,25 +27390,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C66">
         <v>8.9</v>
@@ -26671,7 +27419,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C67">
         <v>10.199999999999999</v>
@@ -26682,7 +27430,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C68">
         <v>13.4</v>
@@ -26693,7 +27441,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C69">
         <v>16.600000000000001</v>
@@ -26704,7 +27452,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C70">
         <v>8.9</v>
@@ -26789,7 +27537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -26800,12 +27548,12 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="J2" t="s">
         <v>158</v>
@@ -27085,16 +27833,16 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D11">
         <v>5.7</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="K11" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L11" s="21">
         <v>20.7746</v>
@@ -27159,7 +27907,7 @@
         <v>15.1</v>
       </c>
       <c r="K13" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
@@ -27182,7 +27930,7 @@
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -27190,12 +27938,12 @@
         <v>28</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>225</v>
@@ -27307,7 +28055,7 @@
     </row>
     <row r="25" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C25" s="19">
         <v>7.4999999999999997E-2</v>
@@ -27321,7 +28069,7 @@
     </row>
     <row r="26" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C26" s="19">
         <v>4.7E-2</v>
@@ -27335,7 +28083,7 @@
     </row>
     <row r="27" spans="1:26" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C27" s="19">
         <v>1.7000000000000001E-2</v>
@@ -27378,7 +28126,7 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
@@ -27394,7 +28142,7 @@
         <v>182</v>
       </c>
       <c r="C32" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
@@ -27407,7 +28155,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
         <v>225</v>
@@ -27425,7 +28173,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C34" s="19">
         <v>6.59E-2</v>
@@ -27443,7 +28191,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C35" s="19">
         <v>0.1414</v>
@@ -27461,7 +28209,7 @@
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C36" s="19">
         <v>0.23089999999999999</v>
@@ -27479,7 +28227,7 @@
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C37" s="19">
         <v>0.23089999999999999</v>
@@ -27497,7 +28245,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C38" s="19">
         <v>0.17710000000000001</v>
@@ -27515,7 +28263,7 @@
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C39" s="19">
         <v>4.7800000000000002E-2</v>
@@ -27533,7 +28281,7 @@
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C40" s="19">
         <v>1E-3</v>
@@ -27551,7 +28299,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C41" s="19">
         <v>0</v>
@@ -27569,7 +28317,7 @@
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C42" s="19">
         <v>0</v>
@@ -27596,7 +28344,7 @@
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
@@ -27608,7 +28356,7 @@
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
@@ -27620,7 +28368,7 @@
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
@@ -27632,22 +28380,22 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C47" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E47" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="F47" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="G47" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
@@ -27664,7 +28412,7 @@
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E48">
         <v>24.8</v>
@@ -27679,7 +28427,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E49" s="26">
         <v>4.7</v>
@@ -27694,7 +28442,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E50">
         <v>14.3</v>
@@ -27710,7 +28458,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E51">
         <v>19.899999999999999</v>
@@ -27726,7 +28474,7 @@
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E52">
         <v>26</v>
@@ -27742,7 +28490,7 @@
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E53">
         <v>6.4</v>
@@ -27757,12 +28505,12 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -27879,14 +28627,14 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C65" s="21"/>
       <c r="D65" s="21">
         <v>15.9094</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">

--- a/Config/Kenya_parameters.xlsx
+++ b/Config/Kenya_parameters.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\SA_HPV-HIV_model_3\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_optim_calib\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9630" tabRatio="641" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9000" tabRatio="641" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1049">
   <si>
     <t>Metric</t>
   </si>
@@ -2054,9 +2055,6 @@
     <t>*HIV prevalence in population was 22.97%</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Luchter, </t>
-  </si>
-  <si>
     <t>17-24</t>
   </si>
   <si>
@@ -3144,6 +3142,63 @@
   </si>
   <si>
     <t>* values in orange was reduced by 40% from the original value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N pos </t>
+  </si>
+  <si>
+    <t>Total N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: Luchters, 2010 BMC Infect Dis. 2010 Jan 26;10:18.  </t>
+  </si>
+  <si>
+    <t>Source: Ermel, et al 2019. BMC Infect Dis. 2019; 19: 352.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baseline assessment of a longitudinal cohort study of HIV pos and neg women. Women attending cervical cancer screening and were VIA-negative were invited to participate. To be eligible, women had to live within 30km if Eloret, have no history of cervical abnormalities, willing to return every quarter for 4 years, and STI-negative at enrollment. </t>
+  </si>
+  <si>
+    <t>Eldoret</t>
+  </si>
+  <si>
+    <t>Mean 37</t>
+  </si>
+  <si>
+    <t>N pos</t>
+  </si>
+  <si>
+    <t>N total</t>
+  </si>
+  <si>
+    <t>≥2 Types Any HPV</t>
+  </si>
+  <si>
+    <t>≥2 Types HR-HPV</t>
+  </si>
+  <si>
+    <t>HR-HPV (including possible HR)</t>
+  </si>
+  <si>
+    <t>IARC HR-HPV (not including possible)</t>
+  </si>
+  <si>
+    <t>A9 (HPV 16, 31, 33, 35, 52, 58)</t>
+  </si>
+  <si>
+    <t>HPV 31, 33, 35, 52, 58</t>
+  </si>
+  <si>
+    <t>A7 (HPV 18, 39, 45, 59, 68)</t>
+  </si>
+  <si>
+    <t>HPV 39, 45, 59, 68</t>
+  </si>
+  <si>
+    <t>Any LR-HPV</t>
+  </si>
+  <si>
+    <t>Mean 31</t>
   </si>
 </sst>
 </file>
@@ -3776,10 +3831,10 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4812,7 +4867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5410,7 +5464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10254,7 +10307,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10852,7 +10904,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10959,7 +11010,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11557,7 +11607,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11669,7 +11718,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12267,7 +12315,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18450,6 +18497,66 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="An external file that holds a picture, illustration, etc.&#10;Object name is 12879_2019_3982_Fig1_HTML.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="31727775"/>
+          <a:ext cx="7496175" cy="5591175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -18506,7 +18613,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18768,16 +18875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>46801</xdr:rowOff>
+      <xdr:rowOff>189676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>532684</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>123463</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>608884</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>75838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18794,7 +18901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5305425" y="29993401"/>
+          <a:off x="5991225" y="30136276"/>
           <a:ext cx="5047534" cy="2553162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18845,7 +18952,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18938,7 +19045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19111,7 +19218,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -23788,7 +23895,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B113" t="s">
         <v>153</v>
@@ -23797,16 +23904,16 @@
         <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E113" t="s">
+        <v>700</v>
+      </c>
+      <c r="F113" t="s">
         <v>701</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>702</v>
-      </c>
-      <c r="G113" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
@@ -23920,8 +24027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25502,12 +25609,12 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -25515,19 +25622,19 @@
         <v>199</v>
       </c>
       <c r="C121" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D121" t="s">
         <v>485</v>
       </c>
       <c r="E121" t="s">
+        <v>995</v>
+      </c>
+      <c r="F121" t="s">
         <v>996</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>997</v>
-      </c>
-      <c r="G121" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -25851,13 +25958,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B143" s="37"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -25988,22 +26095,22 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D158" t="s">
         <v>581</v>
@@ -26012,18 +26119,18 @@
         <v>582</v>
       </c>
       <c r="F158" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="G158" t="s">
         <v>581</v>
       </c>
       <c r="H158" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C159">
         <v>30.6</v>
@@ -26047,7 +26154,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F160">
         <v>19.8</v>
@@ -26061,7 +26168,7 @@
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F161">
         <v>25.9</v>
@@ -26075,12 +26182,12 @@
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C164">
         <v>29.2</v>
@@ -26103,7 +26210,7 @@
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F165">
         <v>19</v>
@@ -26117,7 +26224,7 @@
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F166">
         <v>25.1</v>
@@ -26131,12 +26238,12 @@
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D169" t="s">
         <v>581</v>
@@ -26179,7 +26286,7 @@
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C171">
         <v>29.1</v>
@@ -26248,7 +26355,7 @@
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C174">
         <v>23.2</v>
@@ -26288,18 +26395,18 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B3" s="37"/>
       <c r="C3" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
@@ -26308,7 +26415,7 @@
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
@@ -26320,7 +26427,7 @@
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="37"/>
       <c r="C4" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -26329,7 +26436,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
@@ -26341,46 +26448,46 @@
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="37"/>
       <c r="C5" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>793</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="F5" s="37" t="s">
         <v>794</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="G5" s="37" t="s">
         <v>795</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="H5" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="H5" s="37" t="s">
-        <v>797</v>
-      </c>
       <c r="I5" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J5" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="K5" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="L5" s="37" t="s">
         <v>793</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="M5" s="37" t="s">
         <v>794</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="N5" s="37" t="s">
         <v>795</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="O5" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="O5" s="37" t="s">
-        <v>797</v>
-      </c>
       <c r="P5" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R5" t="s">
         <v>228</v>
@@ -26388,7 +26495,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -26407,7 +26514,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C7" s="37">
         <v>33.36</v>
@@ -26455,46 +26562,46 @@
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="37" t="s">
         <v>801</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="F8" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G8" s="37" t="s">
         <v>803</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="H8" s="37" t="s">
         <v>804</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="I8" s="37" t="s">
         <v>805</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="J8" s="37" t="s">
         <v>806</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="L8" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>809</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="N8" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="O8" s="37" t="s">
         <v>811</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="P8" s="37" t="s">
         <v>812</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>813</v>
       </c>
       <c r="R8">
         <f xml:space="preserve"> (9.94/1.96)-33.6</f>
@@ -26503,7 +26610,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="37">
         <v>35.56</v>
@@ -26551,51 +26658,51 @@
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>815</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="F10" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="G10" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="H10" s="37" t="s">
         <v>819</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="I10" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="J10" s="37" t="s">
         <v>821</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="K10" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="L10" s="37" t="s">
         <v>823</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M10" s="37" t="s">
         <v>824</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>825</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>827</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C11" s="37">
         <v>39.86</v>
@@ -26643,51 +26750,51 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="37" t="s">
         <v>831</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="F12" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="G12" s="37" t="s">
         <v>833</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="37" t="s">
         <v>834</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="I12" s="37" t="s">
         <v>835</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="J12" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="K12" s="37" t="s">
         <v>837</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="L12" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="M12" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N12" s="37" t="s">
         <v>840</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="O12" s="37" t="s">
         <v>841</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="P12" s="37" t="s">
         <v>842</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C13" s="37">
         <v>53.56</v>
@@ -26735,51 +26842,51 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>845</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>846</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="F14" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="G14" s="37" t="s">
         <v>848</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="H14" s="37" t="s">
         <v>849</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="I14" s="37" t="s">
         <v>850</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="J14" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="K14" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="L14" s="37" t="s">
         <v>853</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="M14" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="N14" s="37" t="s">
         <v>855</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="O14" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="P14" s="37" t="s">
         <v>857</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -26798,7 +26905,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C16" s="37">
         <v>10.86</v>
@@ -26846,51 +26953,51 @@
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="37" t="s">
+        <v>859</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>860</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="37" t="s">
         <v>861</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="F17" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="G17" s="37" t="s">
         <v>863</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="H17" s="37" t="s">
         <v>864</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="I17" s="37" t="s">
         <v>865</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="J17" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="K17" s="37" t="s">
         <v>867</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="L17" s="37" t="s">
         <v>868</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="M17" s="37" t="s">
         <v>869</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="N17" s="37" t="s">
         <v>870</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="O17" s="37" t="s">
         <v>871</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="P17" s="37" t="s">
         <v>872</v>
-      </c>
-      <c r="P17" s="37" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C18" s="37">
         <v>7.88</v>
@@ -26938,51 +27045,51 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="37" t="s">
+        <v>873</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>874</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="E19" s="37" t="s">
         <v>875</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="F19" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="G19" s="37" t="s">
         <v>877</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="I19" s="37" t="s">
         <v>879</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="J19" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="K19" s="37" t="s">
         <v>881</v>
       </c>
-      <c r="K19" s="37" t="s">
+      <c r="L19" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="M19" s="37" t="s">
         <v>883</v>
       </c>
-      <c r="M19" s="37" t="s">
+      <c r="N19" s="37" t="s">
         <v>884</v>
       </c>
-      <c r="N19" s="37" t="s">
+      <c r="O19" s="37" t="s">
         <v>885</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="P19" s="37" t="s">
         <v>886</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C20" s="37">
         <v>7.57</v>
@@ -27030,51 +27137,51 @@
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="E21" s="37" t="s">
         <v>889</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="F21" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="G21" s="37" t="s">
         <v>891</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="H21" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="I21" s="37" t="s">
         <v>893</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="J21" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="K21" s="37" t="s">
         <v>895</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="L21" s="37" t="s">
         <v>896</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="M21" s="37" t="s">
         <v>897</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="N21" s="37" t="s">
         <v>898</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="O21" s="37" t="s">
         <v>899</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="P21" s="37" t="s">
         <v>900</v>
-      </c>
-      <c r="P21" s="37" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C22" s="37">
         <v>8.9600000000000009</v>
@@ -27122,51 +27229,51 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>902</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>903</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="F23" s="37" t="s">
         <v>904</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="G23" s="37" t="s">
         <v>905</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="H23" s="37" t="s">
         <v>906</v>
       </c>
-      <c r="H23" s="37" t="s">
+      <c r="I23" s="37" t="s">
         <v>907</v>
       </c>
-      <c r="I23" s="37" t="s">
+      <c r="J23" s="37" t="s">
         <v>908</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="K23" s="37" t="s">
         <v>909</v>
       </c>
-      <c r="K23" s="37" t="s">
+      <c r="L23" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="M23" s="37" t="s">
         <v>911</v>
       </c>
-      <c r="M23" s="37" t="s">
+      <c r="N23" s="37" t="s">
         <v>912</v>
       </c>
-      <c r="N23" s="37" t="s">
+      <c r="O23" s="37" t="s">
         <v>913</v>
       </c>
-      <c r="O23" s="37" t="s">
+      <c r="P23" s="37" t="s">
         <v>914</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -27185,7 +27292,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C25" s="37">
         <v>5.83</v>
@@ -27194,7 +27301,7 @@
         <v>3.82</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F25" s="37">
         <v>1.89</v>
@@ -27233,49 +27340,49 @@
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="37" t="s">
+        <v>916</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>917</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>918</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="H26" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="I26" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="J26" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="K26" s="37" t="s">
         <v>924</v>
       </c>
-      <c r="K26" s="37" t="s">
+      <c r="L26" s="37" t="s">
         <v>925</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="M26" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="M26" s="37" t="s">
+      <c r="N26" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="N26" s="37" t="s">
+      <c r="O26" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="O26" s="37" t="s">
+      <c r="P26" s="37" t="s">
         <v>929</v>
-      </c>
-      <c r="P26" s="37" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C27" s="37">
         <v>4.2300000000000004</v>
@@ -27323,51 +27430,51 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="37" t="s">
+        <v>930</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="E28" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="F28" s="37" t="s">
         <v>933</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="G28" s="37" t="s">
         <v>934</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="H28" s="37" t="s">
         <v>935</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="I28" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="J28" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="J28" s="37" t="s">
+      <c r="K28" s="37" t="s">
         <v>938</v>
       </c>
-      <c r="K28" s="37" t="s">
+      <c r="L28" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="M28" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="N28" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="N28" s="37" t="s">
+      <c r="O28" s="37" t="s">
         <v>942</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="P28" s="37" t="s">
         <v>943</v>
-      </c>
-      <c r="P28" s="37" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C29" s="37">
         <v>4.07</v>
@@ -27415,51 +27522,51 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="37" t="s">
+        <v>944</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>945</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="E30" s="37" t="s">
         <v>946</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="F30" s="37" t="s">
         <v>947</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="G30" s="37" t="s">
         <v>948</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="H30" s="37" t="s">
         <v>949</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="I30" s="37" t="s">
         <v>950</v>
       </c>
-      <c r="I30" s="37" t="s">
+      <c r="J30" s="37" t="s">
         <v>951</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="K30" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="K30" s="37" t="s">
+      <c r="L30" s="37" t="s">
         <v>953</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="M30" s="37" t="s">
         <v>954</v>
       </c>
-      <c r="M30" s="37" t="s">
+      <c r="N30" s="37" t="s">
         <v>955</v>
       </c>
-      <c r="N30" s="37" t="s">
+      <c r="O30" s="37" t="s">
         <v>956</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="P30" s="37" t="s">
         <v>957</v>
-      </c>
-      <c r="P30" s="37" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C31" s="37">
         <v>4.8099999999999996</v>
@@ -27507,51 +27614,51 @@
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="37" t="s">
+        <v>958</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>959</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="E32" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="F32" s="37" t="s">
         <v>960</v>
       </c>
-      <c r="E32" s="37" t="s">
-        <v>939</v>
-      </c>
-      <c r="F32" s="37" t="s">
+      <c r="G32" s="37" t="s">
         <v>961</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="H32" s="37" t="s">
         <v>962</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="I32" s="37" t="s">
         <v>963</v>
       </c>
-      <c r="I32" s="37" t="s">
+      <c r="J32" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="K32" s="37" t="s">
         <v>965</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="L32" s="37" t="s">
         <v>966</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="M32" s="37" t="s">
         <v>967</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="N32" s="37" t="s">
         <v>968</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="O32" s="37" t="s">
         <v>969</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="P32" s="37" t="s">
         <v>970</v>
-      </c>
-      <c r="P32" s="37" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -27562,10 +27669,10 @@
         <v>459</v>
       </c>
       <c r="E35" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -27633,7 +27740,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C39">
         <f>AVERAGE(E13,L13)/100</f>
@@ -27654,38 +27761,38 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
+        <v>983</v>
+      </c>
+      <c r="D47" t="s">
         <v>984</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>985</v>
-      </c>
-      <c r="E47" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -27706,7 +27813,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C49">
         <f>32.68/1000</f>
@@ -27722,7 +27829,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C50">
         <f>44.06/1000</f>
@@ -27738,7 +27845,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C51">
         <f>50.18/1000</f>
@@ -27763,12 +27870,12 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -27776,15 +27883,15 @@
         <v>476</v>
       </c>
       <c r="C63" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D63" t="s">
         <v>1005</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B64">
         <v>7.47</v>
@@ -27798,7 +27905,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B65">
         <v>5.4</v>
@@ -27812,7 +27919,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="40" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B66">
         <v>0.4</v>
@@ -27826,7 +27933,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="40" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B67">
         <v>3.65</v>
@@ -27840,7 +27947,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B68">
         <v>4.5599999999999996</v>
@@ -27854,7 +27961,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="40" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B69">
         <v>1.98</v>
@@ -28114,11 +28221,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="44">
+      <c r="C18" s="45">
         <v>2015</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="G18" s="23">
         <v>2013</v>
       </c>
@@ -28714,7 +28821,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -29310,17 +29417,17 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C48" s="12">
         <v>0.95399999999999996</v>
@@ -29328,7 +29435,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C49" s="12">
         <v>0.93100000000000005</v>
@@ -29340,7 +29447,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C50" s="12">
         <v>0.97799999999999998</v>
@@ -29352,7 +29459,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C51" s="12">
         <v>2.9000000000000001E-2</v>
@@ -29372,7 +29479,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C53" s="12">
         <v>0.82499999999999996</v>
@@ -29380,7 +29487,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C54" s="12">
         <v>0.151</v>
@@ -29394,17 +29501,17 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C58" s="12">
         <v>5.8999999999999997E-2</v>
@@ -29412,7 +29519,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C59" s="12">
         <v>4.2999999999999997E-2</v>
@@ -29452,17 +29559,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C67">
         <v>9.3000000000000007</v>
@@ -29470,20 +29577,20 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C71" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D71" t="s">
         <v>581</v>
@@ -29494,7 +29601,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C72" s="13">
         <v>0.05</v>
@@ -29550,24 +29657,24 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>753</v>
+      </c>
+      <c r="D78" t="s">
         <v>754</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>755</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>756</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>757</v>
-      </c>
-      <c r="G78" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -29575,219 +29682,219 @@
         <v>429</v>
       </c>
       <c r="C79" t="s">
+        <v>733</v>
+      </c>
+      <c r="D79" t="s">
         <v>734</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>735</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>736</v>
       </c>
-      <c r="F79" t="s">
-        <v>737</v>
-      </c>
       <c r="G79" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>737</v>
+      </c>
+      <c r="C80" t="s">
         <v>738</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>739</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>740</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>741</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>742</v>
-      </c>
-      <c r="G80" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>743</v>
+      </c>
+      <c r="C81" t="s">
         <v>744</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>745</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>745</v>
+      </c>
+      <c r="F81" t="s">
         <v>746</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>746</v>
-      </c>
-      <c r="F81" t="s">
-        <v>747</v>
-      </c>
-      <c r="G81" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>747</v>
+      </c>
+      <c r="C82" t="s">
         <v>748</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>749</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>750</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>751</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>752</v>
-      </c>
-      <c r="G82" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>743</v>
+      </c>
+      <c r="C83" t="s">
         <v>744</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>745</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
+        <v>745</v>
+      </c>
+      <c r="F83" t="s">
         <v>746</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>746</v>
-      </c>
-      <c r="F83" t="s">
-        <v>747</v>
-      </c>
-      <c r="G83" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>759</v>
+      </c>
+      <c r="C85" t="s">
         <v>760</v>
       </c>
-      <c r="C85" t="s">
-        <v>761</v>
-      </c>
       <c r="D85" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E85" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F85" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G85" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
+        <v>761</v>
+      </c>
+      <c r="C86" t="s">
         <v>762</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>763</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>764</v>
       </c>
-      <c r="E86" t="s">
-        <v>765</v>
-      </c>
       <c r="F86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G86" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>765</v>
+      </c>
+      <c r="C87" t="s">
         <v>766</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>767</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>768</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>769</v>
       </c>
-      <c r="F87" t="s">
-        <v>770</v>
-      </c>
       <c r="G87" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
+        <v>770</v>
+      </c>
+      <c r="C88" t="s">
         <v>771</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>772</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>773</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>774</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>775</v>
-      </c>
-      <c r="G88" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>776</v>
+      </c>
+      <c r="C89" t="s">
         <v>777</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>778</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>779</v>
       </c>
-      <c r="E89" t="s">
-        <v>780</v>
-      </c>
       <c r="F89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G89" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>780</v>
+      </c>
+      <c r="C90" t="s">
         <v>781</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>782</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>783</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>784</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>785</v>
-      </c>
-      <c r="G90" t="s">
-        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -30373,8 +30480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="R183" sqref="R183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31838,7 +31945,7 @@
         <v>226</v>
       </c>
       <c r="K71" s="43" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L71" s="37" t="s">
         <v>225</v>
@@ -31851,7 +31958,7 @@
       <c r="P71" s="37"/>
       <c r="Q71" s="37"/>
       <c r="S71" s="43" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="T71" s="37" t="s">
         <v>225</v>
@@ -32294,7 +32401,7 @@
       <c r="P78" s="37">
         <v>2.105747</v>
       </c>
-      <c r="Q78" s="45">
+      <c r="Q78" s="44">
         <f>19.478731 * 0.6</f>
         <v>11.687238599999999</v>
       </c>
@@ -32360,7 +32467,7 @@
       <c r="P79" s="37">
         <v>2.1315270000000002</v>
       </c>
-      <c r="Q79" s="45">
+      <c r="Q79" s="44">
         <f>19.514182 * 0.6</f>
         <v>11.7085092</v>
       </c>
@@ -32417,7 +32524,7 @@
       <c r="M80" s="37">
         <v>2</v>
       </c>
-      <c r="N80" s="45">
+      <c r="N80" s="44">
         <f>95*0.6</f>
         <v>57</v>
       </c>
@@ -32483,7 +32590,7 @@
       <c r="M81" s="37">
         <v>2.0904959999999999</v>
       </c>
-      <c r="N81" s="45">
+      <c r="N81" s="44">
         <f>50*0.6</f>
         <v>30</v>
       </c>
@@ -32493,7 +32600,7 @@
       <c r="P81" s="37">
         <v>2.0623269999999998</v>
       </c>
-      <c r="Q81" s="45">
+      <c r="Q81" s="44">
         <f xml:space="preserve"> 16.551753 * 0.6</f>
         <v>9.9310518000000005</v>
       </c>
@@ -32559,7 +32666,7 @@
       <c r="P82" s="37">
         <v>2.1220140000000001</v>
       </c>
-      <c r="Q82" s="45">
+      <c r="Q82" s="44">
         <f xml:space="preserve"> 24.516099 * 0.6</f>
         <v>14.7096594</v>
       </c>
@@ -32977,10 +33084,10 @@
     </row>
     <row r="89" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="20" t="s">
-        <v>715</v>
-      </c>
-      <c r="K89" s="45" t="s">
-        <v>1030</v>
+        <v>714</v>
+      </c>
+      <c r="K89" s="44" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
@@ -35400,7 +35507,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35656,37 +35763,37 @@
     <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C43">
         <v>0.52</v>
@@ -35700,7 +35807,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C44">
         <v>0.42</v>
@@ -35714,7 +35821,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C45">
         <v>0.28999999999999998</v>
@@ -35728,7 +35835,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C46">
         <v>0.56000000000000005</v>
@@ -36380,7 +36487,7 @@
         <v>80</v>
       </c>
       <c r="R41" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="S41" s="21" t="s">
         <v>456</v>
@@ -38928,10 +39035,10 @@
         <v>158</v>
       </c>
       <c r="F70" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K70" s="37"/>
       <c r="L70" s="37"/>
@@ -39498,17 +39605,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -39994,9 +40101,12 @@
       <c r="F42" s="12">
         <v>0.41360000000000002</v>
       </c>
-      <c r="H42" s="40">
-        <f t="shared" ref="H42:H47" si="0">F42*100</f>
-        <v>41.36</v>
+      <c r="G42" s="21">
+        <v>76</v>
+      </c>
+      <c r="H42" s="16">
+        <f>G42*F42</f>
+        <v>31.433600000000002</v>
       </c>
     </row>
     <row r="43" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40009,9 +40119,12 @@
       <c r="F43" s="12">
         <v>0.2772</v>
       </c>
-      <c r="H43" s="40">
-        <f t="shared" si="0"/>
-        <v>27.72</v>
+      <c r="G43" s="21">
+        <v>143</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" ref="H43:H47" si="0">G43*F43</f>
+        <v>39.639600000000002</v>
       </c>
     </row>
     <row r="44" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40024,9 +40137,12 @@
       <c r="F44" s="12">
         <v>0.40910000000000002</v>
       </c>
-      <c r="H44" s="40">
+      <c r="G44" s="21">
+        <v>103</v>
+      </c>
+      <c r="H44" s="16">
         <f t="shared" si="0"/>
-        <v>40.910000000000004</v>
+        <v>42.137300000000003</v>
       </c>
     </row>
     <row r="45" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40039,9 +40155,12 @@
       <c r="F45" s="12">
         <v>0.18640000000000001</v>
       </c>
-      <c r="H45" s="40">
+      <c r="G45" s="21">
+        <v>65</v>
+      </c>
+      <c r="H45" s="16">
         <f t="shared" si="0"/>
-        <v>18.64</v>
+        <v>12.116000000000001</v>
       </c>
     </row>
     <row r="46" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40054,9 +40173,12 @@
       <c r="F46" s="12">
         <v>0.2432</v>
       </c>
-      <c r="H46" s="40">
+      <c r="G46" s="21">
+        <v>25</v>
+      </c>
+      <c r="H46" s="16">
         <f t="shared" si="0"/>
-        <v>24.32</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="47" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40069,9 +40191,16 @@
       <c r="F47" s="12">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="H47" s="40">
+      <c r="G47" s="21">
+        <v>12</v>
+      </c>
+      <c r="H47" s="16">
         <f t="shared" si="0"/>
-        <v>8.41</v>
+        <v>1.0091999999999999</v>
+      </c>
+      <c r="J47" s="21">
+        <f>1/12</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="48" spans="4:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -40356,6 +40485,9 @@
       </c>
       <c r="F71" t="s">
         <v>251</v>
+      </c>
+      <c r="G71" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -40513,6 +40645,9 @@
       <c r="F86" s="12">
         <v>0.61299999999999999</v>
       </c>
+      <c r="G86">
+        <v>38</v>
+      </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E87" s="11" t="s">
@@ -40540,6 +40675,9 @@
       <c r="F89" s="12">
         <v>0.53500000000000003</v>
       </c>
+      <c r="G89" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="90" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E90" s="11" t="s">
@@ -40567,6 +40705,9 @@
       <c r="F92" s="12">
         <v>0.52900000000000003</v>
       </c>
+      <c r="G92" s="21">
+        <v>65</v>
+      </c>
     </row>
     <row r="93" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E93" s="11" t="s">
@@ -40594,6 +40735,9 @@
       <c r="F95" s="12">
         <v>0.495</v>
       </c>
+      <c r="G95" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="96" spans="4:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E96" s="11" t="s">
@@ -40603,7 +40747,7 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E97" s="21" t="s">
         <v>296</v>
       </c>
@@ -40611,7 +40755,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D98" s="21" t="s">
         <v>549</v>
       </c>
@@ -40621,8 +40765,11 @@
       <c r="F98" s="12">
         <v>0.495</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="21">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E99" s="11" t="s">
         <v>253</v>
       </c>
@@ -40630,7 +40777,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E100" s="21" t="s">
         <v>296</v>
       </c>
@@ -40638,7 +40785,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>297</v>
       </c>
@@ -40649,7 +40796,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>294</v>
       </c>
@@ -40657,12 +40804,12 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>571</v>
       </c>
@@ -40682,7 +40829,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>586</v>
       </c>
@@ -40702,7 +40849,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>302</v>
       </c>
@@ -40713,7 +40860,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>303</v>
       </c>
@@ -40724,7 +40871,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E109" s="11" t="s">
         <v>253</v>
       </c>
@@ -40732,7 +40879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E110" s="11" t="s">
         <v>259</v>
       </c>
@@ -40740,7 +40887,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E111" s="11" t="s">
         <v>260</v>
       </c>
@@ -40748,7 +40895,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E112" s="11" t="s">
         <v>261</v>
       </c>
@@ -41284,8 +41431,8 @@
       <c r="H155" s="37"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>667</v>
+      <c r="A156" s="2" t="s">
+        <v>1032</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -41310,26 +41457,37 @@
       <c r="F157" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="H157" s="37"/>
+      <c r="G157" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H157" s="37" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B158" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C158" t="s">
         <v>248</v>
       </c>
       <c r="D158" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E158" t="s">
         <v>258</v>
       </c>
       <c r="F158">
-        <v>69.099999999999994</v>
+        <v>74.5</v>
+      </c>
+      <c r="G158">
+        <v>38</v>
+      </c>
+      <c r="H158">
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -41342,6 +41500,12 @@
       <c r="F159">
         <v>79.400000000000006</v>
       </c>
+      <c r="G159">
+        <v>54</v>
+      </c>
+      <c r="H159">
+        <v>68</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
@@ -41353,10 +41517,16 @@
       <c r="F160">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>68</v>
+      </c>
+      <c r="H160">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E161" t="s">
         <v>258</v>
@@ -41364,16 +41534,22 @@
       <c r="F161">
         <v>68.400000000000006</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G161">
+        <v>39</v>
+      </c>
+      <c r="H161">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C162" t="s">
         <v>248</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E162" s="37" t="s">
         <v>258</v>
@@ -41381,8 +41557,14 @@
       <c r="F162">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G162">
+        <v>88</v>
+      </c>
+      <c r="H162">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D163" s="37" t="s">
         <v>139</v>
       </c>
@@ -41392,8 +41574,14 @@
       <c r="F163">
         <v>47.1</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G163">
+        <v>64</v>
+      </c>
+      <c r="H163">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D164" s="37" t="s">
         <v>156</v>
       </c>
@@ -41403,16 +41591,421 @@
       <c r="F164">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>55</v>
+      </c>
+      <c r="H164">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D165" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E165" s="37" t="s">
         <v>258</v>
       </c>
       <c r="F165">
         <v>38.6</v>
+      </c>
+      <c r="G165">
+        <v>22</v>
+      </c>
+      <c r="H165">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="B169" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C169" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D169" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F169" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2015</v>
+      </c>
+      <c r="B170" t="s">
+        <v>565</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E170" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F170" s="40">
+        <v>59.1</v>
+      </c>
+      <c r="G170" s="40">
+        <v>68</v>
+      </c>
+      <c r="H170">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E171" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F171" s="40">
+        <v>47</v>
+      </c>
+      <c r="G171" s="40">
+        <v>54</v>
+      </c>
+      <c r="H171">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E172" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F172" s="40">
+        <v>39.1</v>
+      </c>
+      <c r="G172" s="40">
+        <v>45</v>
+      </c>
+      <c r="H172" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E173" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F173" s="40">
+        <v>23.5</v>
+      </c>
+      <c r="G173" s="40">
+        <v>27</v>
+      </c>
+      <c r="H173" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E174" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F174" s="40">
+        <v>10.4</v>
+      </c>
+      <c r="G174" s="40">
+        <v>12</v>
+      </c>
+      <c r="H174" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E175" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F175" s="40">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G175" s="40">
+        <v>20</v>
+      </c>
+      <c r="H175" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E176" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F176" s="40">
+        <v>20</v>
+      </c>
+      <c r="G176" s="40">
+        <v>23</v>
+      </c>
+      <c r="H176" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E177" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F177" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="G177" s="40">
+        <v>4</v>
+      </c>
+      <c r="H177" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E178" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F178" s="40">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G178" s="40">
+        <v>20</v>
+      </c>
+      <c r="H178" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E179" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F179" s="40">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G179" s="40">
+        <v>37</v>
+      </c>
+      <c r="H179" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E180" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F180" s="40">
+        <v>33</v>
+      </c>
+      <c r="G180" s="40">
+        <v>38</v>
+      </c>
+      <c r="H180" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E181" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F181" s="40">
+        <v>20</v>
+      </c>
+      <c r="G181" s="40">
+        <v>23</v>
+      </c>
+      <c r="H181" s="37">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>567</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="F182" s="40">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G182" s="40">
+        <v>37</v>
+      </c>
+      <c r="H182">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E183" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F183" s="40">
+        <v>27.6</v>
+      </c>
+      <c r="G183" s="40">
+        <v>29</v>
+      </c>
+      <c r="H183">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E184" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F184" s="40">
+        <v>23.8</v>
+      </c>
+      <c r="G184" s="40">
+        <v>25</v>
+      </c>
+      <c r="H184" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E185" s="37" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F185" s="40">
+        <v>15.2</v>
+      </c>
+      <c r="G185" s="40">
+        <v>16</v>
+      </c>
+      <c r="H185" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E186" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F186" s="40">
+        <v>2.9</v>
+      </c>
+      <c r="G186" s="40">
+        <v>3</v>
+      </c>
+      <c r="H186" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E187" s="37" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F187" s="40">
+        <v>12.4</v>
+      </c>
+      <c r="G187" s="40">
+        <v>13</v>
+      </c>
+      <c r="H187" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E188" s="37" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F188" s="40">
+        <v>8.6</v>
+      </c>
+      <c r="G188" s="40">
+        <v>9</v>
+      </c>
+      <c r="H188" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E189" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F189" s="40">
+        <v>1</v>
+      </c>
+      <c r="G189" s="40">
+        <v>1</v>
+      </c>
+      <c r="H189" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E190" s="37" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F190" s="40">
+        <v>7.6</v>
+      </c>
+      <c r="G190" s="40">
+        <v>8</v>
+      </c>
+      <c r="H190" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E191" s="37" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F191" s="40">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G191" s="40">
+        <v>18</v>
+      </c>
+      <c r="H191" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E192" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F192" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="G192" s="40">
+        <v>11</v>
+      </c>
+      <c r="H192" s="37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E193" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F193" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="G193" s="40">
+        <v>7</v>
+      </c>
+      <c r="H193" s="37">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -41421,30 +42014,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>652</v>
       </c>
@@ -41455,7 +42049,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>567</v>
       </c>
@@ -41466,17 +42060,17 @@
         <v>654</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>565</v>
       </c>
@@ -41484,7 +42078,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>659</v>
       </c>
@@ -41495,7 +42089,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>660</v>
       </c>
@@ -41506,17 +42100,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>249</v>
       </c>
@@ -41527,9 +42121,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C15">
         <f>137/D15</f>
@@ -41539,10 +42133,14 @@
         <f>137+1168</f>
         <v>1305</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>C15*D15</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C16">
         <f>119/D16</f>
@@ -41552,10 +42150,14 @@
         <f>119+1148</f>
         <v>1267</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="37">
+        <f t="shared" ref="E16:E17" si="0">C16*D16</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C17">
         <f>31/D17</f>
@@ -41565,20 +42167,24 @@
         <f>31+482</f>
         <v>513</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="37">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>677</v>
       </c>
       <c r="C21" t="s">
         <v>601</v>
@@ -41587,7 +42193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>460</v>
       </c>
@@ -41600,9 +42206,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C23">
         <f>73/D23</f>
@@ -41613,7 +42219,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>430</v>
       </c>
@@ -41626,9 +42232,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C25">
         <f>57/D25</f>
@@ -41639,43 +42245,43 @@
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C29" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C30">
         <v>5.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C31">
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C32">
         <v>1.2</v>
@@ -41691,17 +42297,17 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -41714,7 +42320,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C39">
         <f>15/84</f>
@@ -41740,7 +42346,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -41748,7 +42354,7 @@
         <v>652</v>
       </c>
       <c r="C43" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -41756,22 +42362,22 @@
         <v>567</v>
       </c>
       <c r="C44" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -41789,7 +42395,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C51">
         <v>10.5</v>
@@ -41797,7 +42403,7 @@
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C52">
         <v>12.8</v>
@@ -41805,7 +42411,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -42756,7 +43362,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -43073,12 +43679,12 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="37" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C59" s="37"/>
     </row>
@@ -43196,7 +43802,7 @@
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C74">
         <v>17.7</v>

--- a/Config/Kenya_parameters.xlsx
+++ b/Config/Kenya_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9000" tabRatio="641" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9000" tabRatio="641" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,6 @@
     <sheet name="DALY" sheetId="1" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1082">
   <si>
     <t>Metric</t>
   </si>
@@ -3200,12 +3199,111 @@
   <si>
     <t>Mean 31</t>
   </si>
+  <si>
+    <t>Source: UN Department of Economic and Social Affairs, World Population Prospects, 2019</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>1950-1955</t>
+  </si>
+  <si>
+    <t>1955-1960</t>
+  </si>
+  <si>
+    <t>1960-1965</t>
+  </si>
+  <si>
+    <t>1965-1970</t>
+  </si>
+  <si>
+    <t>1970-1975</t>
+  </si>
+  <si>
+    <t>1975-1980</t>
+  </si>
+  <si>
+    <t>1980-1985</t>
+  </si>
+  <si>
+    <t>1985-1990</t>
+  </si>
+  <si>
+    <t>1990-1995</t>
+  </si>
+  <si>
+    <t>1995-2000</t>
+  </si>
+  <si>
+    <t>2000-2005</t>
+  </si>
+  <si>
+    <t>2005-2010</t>
+  </si>
+  <si>
+    <t>2010-2015</t>
+  </si>
+  <si>
+    <t>2015-2020</t>
+  </si>
+  <si>
+    <t>2020-2025</t>
+  </si>
+  <si>
+    <t>2025-2030</t>
+  </si>
+  <si>
+    <t>2030-2035</t>
+  </si>
+  <si>
+    <t>2035-2040</t>
+  </si>
+  <si>
+    <t>2040-2045</t>
+  </si>
+  <si>
+    <t>2045-2050</t>
+  </si>
+  <si>
+    <t>2050-2055</t>
+  </si>
+  <si>
+    <t>2055-2060</t>
+  </si>
+  <si>
+    <t>2060-2065</t>
+  </si>
+  <si>
+    <t>2065-2070</t>
+  </si>
+  <si>
+    <t>2070-2075</t>
+  </si>
+  <si>
+    <t>2075-2080</t>
+  </si>
+  <si>
+    <t>2080-2085</t>
+  </si>
+  <si>
+    <t>2085-2090</t>
+  </si>
+  <si>
+    <t>2090-2095</t>
+  </si>
+  <si>
+    <t>2095-2100</t>
+  </si>
+  <si>
+    <t>Births per 1000 women</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -3214,8 +3312,9 @@
     <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="##0.0;\-##0.0;0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3400,8 +3499,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3581,8 +3693,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3719,6 +3837,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3778,7 +3924,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3834,6 +3980,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3949,6 +4107,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4756,6 +4915,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5570,6 +5730,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6037,6 +6198,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9581,6 +9743,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10201,6 +10364,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19543,7 +19707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y117"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
@@ -35855,10 +36019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38127,39 +38291,809 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>644</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B93" s="46" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F93" s="48" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G93" s="48" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H93" s="48" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I93" s="48" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J93" s="48" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K93" s="48" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M93" s="48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N93" s="48" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O93" s="48" t="s">
+        <v>1063</v>
+      </c>
+      <c r="P93" s="48" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q93" s="48" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R93" s="48" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S93" s="48" t="s">
+        <v>1067</v>
+      </c>
+      <c r="T93" s="48" t="s">
+        <v>1068</v>
+      </c>
+      <c r="U93" s="48" t="s">
+        <v>1069</v>
+      </c>
+      <c r="V93" s="48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="W93" s="48" t="s">
+        <v>1071</v>
+      </c>
+      <c r="X93" s="48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Y93" s="48" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Z93" s="48" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AA93" s="48" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AB93" s="48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AC93" s="48" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AD93" s="48" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AE93" s="48" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AF93" s="48" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B94" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="49">
+        <v>169.071</v>
+      </c>
+      <c r="D94" s="49">
+        <v>175.941</v>
+      </c>
+      <c r="E94" s="49">
+        <v>182.26900000000001</v>
+      </c>
+      <c r="F94" s="49">
+        <v>183.286</v>
+      </c>
+      <c r="G94" s="49">
+        <v>180.57400000000001</v>
+      </c>
+      <c r="H94" s="49">
+        <v>172.66399999999999</v>
+      </c>
+      <c r="I94" s="49">
+        <v>163.08199999999999</v>
+      </c>
+      <c r="J94" s="49">
+        <v>147.75899999999999</v>
+      </c>
+      <c r="K94" s="49">
+        <v>115.26</v>
+      </c>
+      <c r="L94" s="49">
+        <v>111.494</v>
+      </c>
+      <c r="M94" s="49">
+        <v>104.2</v>
+      </c>
+      <c r="N94" s="49">
+        <v>97.091999999999999</v>
+      </c>
+      <c r="O94" s="49">
+        <v>86.153000000000006</v>
+      </c>
+      <c r="P94" s="49">
+        <v>75.078000000000003</v>
+      </c>
+      <c r="Q94" s="49">
+        <v>69.908000000000001</v>
+      </c>
+      <c r="R94" s="49">
+        <v>65.022000000000006</v>
+      </c>
+      <c r="S94" s="49">
+        <v>60.552999999999997</v>
+      </c>
+      <c r="T94" s="49">
+        <v>56.177</v>
+      </c>
+      <c r="U94" s="49">
+        <v>52.183</v>
+      </c>
+      <c r="V94" s="49">
+        <v>48.268000000000001</v>
+      </c>
+      <c r="W94" s="49">
+        <v>44.52</v>
+      </c>
+      <c r="X94" s="49">
+        <v>40.801000000000002</v>
+      </c>
+      <c r="Y94" s="49">
+        <v>37.277000000000001</v>
+      </c>
+      <c r="Z94" s="49">
+        <v>33.844999999999999</v>
+      </c>
+      <c r="AA94" s="49">
+        <v>30.599</v>
+      </c>
+      <c r="AB94" s="49">
+        <v>27.539000000000001</v>
+      </c>
+      <c r="AC94" s="49">
+        <v>24.655000000000001</v>
+      </c>
+      <c r="AD94" s="49">
+        <v>22.006</v>
+      </c>
+      <c r="AE94" s="49">
+        <v>19.544</v>
+      </c>
+      <c r="AF94" s="49">
+        <v>17.234999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B95" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="49">
+        <v>351.60700000000003</v>
+      </c>
+      <c r="D95" s="49">
+        <v>365.89499999999998</v>
+      </c>
+      <c r="E95" s="49">
+        <v>379.05500000000001</v>
+      </c>
+      <c r="F95" s="49">
+        <v>381.17</v>
+      </c>
+      <c r="G95" s="49">
+        <v>375.53</v>
+      </c>
+      <c r="H95" s="49">
+        <v>359.08</v>
+      </c>
+      <c r="I95" s="49">
+        <v>339.15199999999999</v>
+      </c>
+      <c r="J95" s="49">
+        <v>307.286</v>
+      </c>
+      <c r="K95" s="49">
+        <v>268.94</v>
+      </c>
+      <c r="L95" s="49">
+        <v>260.65199999999999</v>
+      </c>
+      <c r="M95" s="49">
+        <v>243.6</v>
+      </c>
+      <c r="N95" s="49">
+        <v>227.10599999999999</v>
+      </c>
+      <c r="O95" s="49">
+        <v>201.94499999999999</v>
+      </c>
+      <c r="P95" s="49">
+        <v>176.53700000000001</v>
+      </c>
+      <c r="Q95" s="49">
+        <v>165.084</v>
+      </c>
+      <c r="R95" s="49">
+        <v>154.726</v>
+      </c>
+      <c r="S95" s="49">
+        <v>145.71299999999999</v>
+      </c>
+      <c r="T95" s="49">
+        <v>137.16499999999999</v>
+      </c>
+      <c r="U95" s="49">
+        <v>129.738</v>
+      </c>
+      <c r="V95" s="49">
+        <v>122.61199999999999</v>
+      </c>
+      <c r="W95" s="49">
+        <v>115.96899999999999</v>
+      </c>
+      <c r="X95" s="49">
+        <v>109.38</v>
+      </c>
+      <c r="Y95" s="49">
+        <v>103.21299999999999</v>
+      </c>
+      <c r="Z95" s="49">
+        <v>97.149000000000001</v>
+      </c>
+      <c r="AA95" s="49">
+        <v>91.388000000000005</v>
+      </c>
+      <c r="AB95" s="49">
+        <v>85.896000000000001</v>
+      </c>
+      <c r="AC95" s="49">
+        <v>80.599000000000004</v>
+      </c>
+      <c r="AD95" s="49">
+        <v>75.680999999999997</v>
+      </c>
+      <c r="AE95" s="49">
+        <v>70.977999999999994</v>
+      </c>
+      <c r="AF95" s="49">
+        <v>66.334999999999994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B96" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="49">
+        <v>338.14100000000002</v>
+      </c>
+      <c r="D96" s="49">
+        <v>351.88200000000001</v>
+      </c>
+      <c r="E96" s="49">
+        <v>364.53800000000001</v>
+      </c>
+      <c r="F96" s="49">
+        <v>366.572</v>
+      </c>
+      <c r="G96" s="49">
+        <v>361.14800000000002</v>
+      </c>
+      <c r="H96" s="49">
+        <v>345.32799999999997</v>
+      </c>
+      <c r="I96" s="49">
+        <v>326.16300000000001</v>
+      </c>
+      <c r="J96" s="49">
+        <v>295.517</v>
+      </c>
+      <c r="K96" s="49">
+        <v>251.99</v>
+      </c>
+      <c r="L96" s="49">
+        <v>253.26900000000001</v>
+      </c>
+      <c r="M96" s="49">
+        <v>236.7</v>
+      </c>
+      <c r="N96" s="49">
+        <v>221.43299999999999</v>
+      </c>
+      <c r="O96" s="49">
+        <v>202.35</v>
+      </c>
+      <c r="P96" s="49">
+        <v>179.768</v>
+      </c>
+      <c r="Q96" s="49">
+        <v>171.83699999999999</v>
+      </c>
+      <c r="R96" s="49">
+        <v>164.82400000000001</v>
+      </c>
+      <c r="S96" s="49">
+        <v>159.05699999999999</v>
+      </c>
+      <c r="T96" s="49">
+        <v>153.62100000000001</v>
+      </c>
+      <c r="U96" s="49">
+        <v>149.28700000000001</v>
+      </c>
+      <c r="V96" s="49">
+        <v>145.18</v>
+      </c>
+      <c r="W96" s="49">
+        <v>141.511</v>
+      </c>
+      <c r="X96" s="49">
+        <v>137.78299999999999</v>
+      </c>
+      <c r="Y96" s="49">
+        <v>134.44999999999999</v>
+      </c>
+      <c r="Z96" s="49">
+        <v>131.119</v>
+      </c>
+      <c r="AA96" s="49">
+        <v>128.054</v>
+      </c>
+      <c r="AB96" s="49">
+        <v>125.217</v>
+      </c>
+      <c r="AC96" s="49">
+        <v>122.514</v>
+      </c>
+      <c r="AD96" s="49">
+        <v>120.251</v>
+      </c>
+      <c r="AE96" s="49">
+        <v>118.178</v>
+      </c>
+      <c r="AF96" s="49">
+        <v>116.047</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B97" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="49">
+        <v>284.27800000000002</v>
+      </c>
+      <c r="D97" s="49">
+        <v>295.83</v>
+      </c>
+      <c r="E97" s="49">
+        <v>306.47000000000003</v>
+      </c>
+      <c r="F97" s="49">
+        <v>308.18</v>
+      </c>
+      <c r="G97" s="49">
+        <v>303.62</v>
+      </c>
+      <c r="H97" s="49">
+        <v>290.32</v>
+      </c>
+      <c r="I97" s="49">
+        <v>274.20800000000003</v>
+      </c>
+      <c r="J97" s="49">
+        <v>248.44399999999999</v>
+      </c>
+      <c r="K97" s="49">
+        <v>206.79</v>
+      </c>
+      <c r="L97" s="49">
+        <v>196.238</v>
+      </c>
+      <c r="M97" s="49">
+        <v>183.4</v>
+      </c>
+      <c r="N97" s="49">
+        <v>170.56200000000001</v>
+      </c>
+      <c r="O97" s="49">
+        <v>149.16399999999999</v>
+      </c>
+      <c r="P97" s="49">
+        <v>129.59200000000001</v>
+      </c>
+      <c r="Q97" s="49">
+        <v>120.236</v>
+      </c>
+      <c r="R97" s="49">
+        <v>112.6</v>
+      </c>
+      <c r="S97" s="49">
+        <v>106.702</v>
+      </c>
+      <c r="T97" s="49">
+        <v>101.782</v>
+      </c>
+      <c r="U97" s="49">
+        <v>98.244</v>
+      </c>
+      <c r="V97" s="49">
+        <v>95.421000000000006</v>
+      </c>
+      <c r="W97" s="49">
+        <v>93.405000000000001</v>
+      </c>
+      <c r="X97" s="49">
+        <v>91.822999999999993</v>
+      </c>
+      <c r="Y97" s="49">
+        <v>90.944999999999993</v>
+      </c>
+      <c r="Z97" s="49">
+        <v>90.488</v>
+      </c>
+      <c r="AA97" s="49">
+        <v>90.611000000000004</v>
+      </c>
+      <c r="AB97" s="49">
+        <v>91.287999999999997</v>
+      </c>
+      <c r="AC97" s="49">
+        <v>92.462000000000003</v>
+      </c>
+      <c r="AD97" s="49">
+        <v>94.373000000000005</v>
+      </c>
+      <c r="AE97" s="49">
+        <v>96.867000000000004</v>
+      </c>
+      <c r="AF97" s="49">
+        <v>99.762</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B98" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="49">
+        <v>203.483</v>
+      </c>
+      <c r="D98" s="49">
+        <v>211.75200000000001</v>
+      </c>
+      <c r="E98" s="49">
+        <v>219.36799999999999</v>
+      </c>
+      <c r="F98" s="49">
+        <v>220.59200000000001</v>
+      </c>
+      <c r="G98" s="49">
+        <v>217.328</v>
+      </c>
+      <c r="H98" s="49">
+        <v>207.80799999999999</v>
+      </c>
+      <c r="I98" s="49">
+        <v>196.27500000000001</v>
+      </c>
+      <c r="J98" s="49">
+        <v>177.834</v>
+      </c>
+      <c r="K98" s="49">
+        <v>161.59</v>
+      </c>
+      <c r="L98" s="49">
+        <v>143.273</v>
+      </c>
+      <c r="M98" s="49">
+        <v>133.9</v>
+      </c>
+      <c r="N98" s="49">
+        <v>123.69</v>
+      </c>
+      <c r="O98" s="49">
+        <v>102.069</v>
+      </c>
+      <c r="P98" s="49">
+        <v>85.85</v>
+      </c>
+      <c r="Q98" s="49">
+        <v>76.216999999999999</v>
+      </c>
+      <c r="R98" s="49">
+        <v>68.501999999999995</v>
+      </c>
+      <c r="S98" s="49">
+        <v>62.488</v>
+      </c>
+      <c r="T98" s="49">
+        <v>57.558999999999997</v>
+      </c>
+      <c r="U98" s="49">
+        <v>53.819000000000003</v>
+      </c>
+      <c r="V98" s="49">
+        <v>50.801000000000002</v>
+      </c>
+      <c r="W98" s="49">
+        <v>48.494</v>
+      </c>
+      <c r="X98" s="49">
+        <v>46.64</v>
+      </c>
+      <c r="Y98" s="49">
+        <v>45.348999999999997</v>
+      </c>
+      <c r="Z98" s="49">
+        <v>44.445999999999998</v>
+      </c>
+      <c r="AA98" s="49">
+        <v>43.994999999999997</v>
+      </c>
+      <c r="AB98" s="49">
+        <v>43.973999999999997</v>
+      </c>
+      <c r="AC98" s="49">
+        <v>44.338000000000001</v>
+      </c>
+      <c r="AD98" s="49">
+        <v>45.216000000000001</v>
+      </c>
+      <c r="AE98" s="49">
+        <v>46.536999999999999</v>
+      </c>
+      <c r="AF98" s="49">
+        <v>48.232999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B99" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="49">
+        <v>110.71899999999999</v>
+      </c>
+      <c r="D99" s="49">
+        <v>115.218</v>
+      </c>
+      <c r="E99" s="49">
+        <v>119.36199999999999</v>
+      </c>
+      <c r="F99" s="49">
+        <v>120.02800000000001</v>
+      </c>
+      <c r="G99" s="49">
+        <v>118.252</v>
+      </c>
+      <c r="H99" s="49">
+        <v>113.072</v>
+      </c>
+      <c r="I99" s="49">
+        <v>106.797</v>
+      </c>
+      <c r="J99" s="49">
+        <v>96.762</v>
+      </c>
+      <c r="K99" s="49">
+        <v>73.45</v>
+      </c>
+      <c r="L99" s="49">
+        <v>62.381</v>
+      </c>
+      <c r="M99" s="49">
+        <v>58.3</v>
+      </c>
+      <c r="N99" s="49">
+        <v>53.567999999999998</v>
+      </c>
+      <c r="O99" s="49">
+        <v>42.386000000000003</v>
+      </c>
+      <c r="P99" s="49">
+        <v>34.78</v>
+      </c>
+      <c r="Q99" s="49">
+        <v>29.864000000000001</v>
+      </c>
+      <c r="R99" s="49">
+        <v>25.962</v>
+      </c>
+      <c r="S99" s="49">
+        <v>22.911000000000001</v>
+      </c>
+      <c r="T99" s="49">
+        <v>20.411999999999999</v>
+      </c>
+      <c r="U99" s="49">
+        <v>18.466000000000001</v>
+      </c>
+      <c r="V99" s="49">
+        <v>16.864000000000001</v>
+      </c>
+      <c r="W99" s="49">
+        <v>15.573</v>
+      </c>
+      <c r="X99" s="49">
+        <v>14.496</v>
+      </c>
+      <c r="Y99" s="49">
+        <v>13.64</v>
+      </c>
+      <c r="Z99" s="49">
+        <v>12.938000000000001</v>
+      </c>
+      <c r="AA99" s="49">
+        <v>12.398</v>
+      </c>
+      <c r="AB99" s="49">
+        <v>11.999000000000001</v>
+      </c>
+      <c r="AC99" s="49">
+        <v>11.718999999999999</v>
+      </c>
+      <c r="AD99" s="49">
+        <v>11.583</v>
+      </c>
+      <c r="AE99" s="49">
+        <v>11.557</v>
+      </c>
+      <c r="AF99" s="49">
+        <v>11.621</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B100" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="49">
+        <v>38.901000000000003</v>
+      </c>
+      <c r="D100" s="49">
+        <v>40.481999999999999</v>
+      </c>
+      <c r="E100" s="49">
+        <v>41.938000000000002</v>
+      </c>
+      <c r="F100" s="49">
+        <v>42.171999999999997</v>
+      </c>
+      <c r="G100" s="49">
+        <v>41.548000000000002</v>
+      </c>
+      <c r="H100" s="49">
+        <v>39.728000000000002</v>
+      </c>
+      <c r="I100" s="49">
+        <v>37.523000000000003</v>
+      </c>
+      <c r="J100" s="49">
+        <v>33.997999999999998</v>
+      </c>
+      <c r="K100" s="49">
+        <v>51.98</v>
+      </c>
+      <c r="L100" s="49">
+        <v>42.692999999999998</v>
+      </c>
+      <c r="M100" s="49">
+        <v>39.9</v>
+      </c>
+      <c r="N100" s="49">
+        <v>36.548999999999999</v>
+      </c>
+      <c r="O100" s="49">
+        <v>27.933</v>
+      </c>
+      <c r="P100" s="49">
+        <v>22.395</v>
+      </c>
+      <c r="Q100" s="49">
+        <v>18.614000000000001</v>
+      </c>
+      <c r="R100" s="49">
+        <v>15.544</v>
+      </c>
+      <c r="S100" s="49">
+        <v>13.076000000000001</v>
+      </c>
+      <c r="T100" s="49">
+        <v>11.023999999999999</v>
+      </c>
+      <c r="U100" s="49">
+        <v>9.3629999999999995</v>
+      </c>
+      <c r="V100" s="49">
+        <v>7.9740000000000002</v>
+      </c>
+      <c r="W100" s="49">
+        <v>6.8079999999999998</v>
+      </c>
+      <c r="X100" s="49">
+        <v>5.8170000000000002</v>
+      </c>
+      <c r="Y100" s="49">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="Z100" s="49">
+        <v>4.2750000000000004</v>
+      </c>
+      <c r="AA100" s="49">
+        <v>3.6749999999999998</v>
+      </c>
+      <c r="AB100" s="49">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="AC100" s="49">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="AD100" s="49">
+        <v>2.37</v>
+      </c>
+      <c r="AE100" s="49">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="AF100" s="49">
+        <v>1.7869999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -39607,7 +40541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+    <sheetView topLeftCell="A168" workbookViewId="0">
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>

--- a/Config/Kenya_parameters.xlsx
+++ b/Config/Kenya_parameters.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9000" tabRatio="641" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" tabRatio="641" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1086">
   <si>
     <t>Metric</t>
   </si>
@@ -3298,12 +3298,24 @@
   <si>
     <t>Births per 1000 women</t>
   </si>
+  <si>
+    <t>Source: UN Department of Economic and Social Affairs: World Population Prospects 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Males </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Females </t>
+  </si>
+  <si>
+    <t>HIV negative</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -3313,6 +3325,8 @@
     <numFmt numFmtId="170" formatCode="0.0000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
     <numFmt numFmtId="172" formatCode="##0.0;\-##0.0;0"/>
+    <numFmt numFmtId="173" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
+    <numFmt numFmtId="176" formatCode="##0.0000;\-##0.0000;0.000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -3924,7 +3938,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3978,9 +3992,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="23" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3991,6 +4002,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -6313,6 +6334,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7419,6 +7441,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7533,6 +7556,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8580,6 +8604,7 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8686,6 +8711,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9637,6 +9663,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19705,10 +19732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y117"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U147" sqref="U147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24057,7 +24084,7 @@
         <v>38610097</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>699</v>
       </c>
@@ -24080,7 +24107,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="37">
         <v>1979</v>
       </c>
@@ -24105,7 +24132,7 @@
         <v>7706115</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>1989</v>
       </c>
@@ -24130,7 +24157,7 @@
         <v>5704992</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>1999</v>
       </c>
@@ -24155,7 +24182,7 @@
         <v>8184885</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>2009</v>
       </c>
@@ -24179,6 +24206,1913 @@
         <f>SUM(H94:H107)</f>
         <v>11234575</v>
       </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C126" s="47">
+        <v>1950</v>
+      </c>
+      <c r="D126" s="47">
+        <v>1955</v>
+      </c>
+      <c r="E126" s="47">
+        <v>1960</v>
+      </c>
+      <c r="F126" s="47">
+        <v>1965</v>
+      </c>
+      <c r="G126" s="47">
+        <v>1970</v>
+      </c>
+      <c r="H126" s="47">
+        <v>1975</v>
+      </c>
+      <c r="I126" s="47">
+        <v>1980</v>
+      </c>
+      <c r="J126" s="47">
+        <v>1985</v>
+      </c>
+      <c r="K126" s="47">
+        <v>1990</v>
+      </c>
+      <c r="L126" s="47">
+        <v>1995</v>
+      </c>
+      <c r="M126" s="47">
+        <v>2000</v>
+      </c>
+      <c r="N126" s="47">
+        <v>2005</v>
+      </c>
+      <c r="O126" s="47">
+        <v>2010</v>
+      </c>
+      <c r="P126" s="47">
+        <v>2015</v>
+      </c>
+      <c r="Q126" s="47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C127" s="50">
+        <v>530.10400000000004</v>
+      </c>
+      <c r="D127" s="50">
+        <v>677.54600000000005</v>
+      </c>
+      <c r="E127" s="50">
+        <v>801.89499999999998</v>
+      </c>
+      <c r="F127" s="50">
+        <v>952.15599999999995</v>
+      </c>
+      <c r="G127" s="50">
+        <v>1142.9079999999999</v>
+      </c>
+      <c r="H127" s="50">
+        <v>1404.2339999999999</v>
+      </c>
+      <c r="I127" s="50">
+        <v>1696.405</v>
+      </c>
+      <c r="J127" s="50">
+        <v>2020.893</v>
+      </c>
+      <c r="K127" s="50">
+        <v>2270.92</v>
+      </c>
+      <c r="L127" s="50">
+        <v>2392.2289999999998</v>
+      </c>
+      <c r="M127" s="50">
+        <v>2794.201</v>
+      </c>
+      <c r="N127" s="50">
+        <v>3132.962</v>
+      </c>
+      <c r="O127" s="50">
+        <v>3462.1089999999999</v>
+      </c>
+      <c r="P127" s="50">
+        <v>3544.5050000000001</v>
+      </c>
+      <c r="Q127" s="50">
+        <v>3558.3429999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C128" s="50">
+        <v>354.14699999999999</v>
+      </c>
+      <c r="D128" s="50">
+        <v>478.06599999999997</v>
+      </c>
+      <c r="E128" s="50">
+        <v>620.524</v>
+      </c>
+      <c r="F128" s="50">
+        <v>745.995</v>
+      </c>
+      <c r="G128" s="50">
+        <v>897.00099999999998</v>
+      </c>
+      <c r="H128" s="50">
+        <v>1089.038</v>
+      </c>
+      <c r="I128" s="50">
+        <v>1350.6959999999999</v>
+      </c>
+      <c r="J128" s="50">
+        <v>1644.307</v>
+      </c>
+      <c r="K128" s="50">
+        <v>1960.962</v>
+      </c>
+      <c r="L128" s="50">
+        <v>2203.3530000000001</v>
+      </c>
+      <c r="M128" s="50">
+        <v>2309.2719999999999</v>
+      </c>
+      <c r="N128" s="50">
+        <v>2704.826</v>
+      </c>
+      <c r="O128" s="50">
+        <v>3062.1979999999999</v>
+      </c>
+      <c r="P128" s="50">
+        <v>3411.3249999999998</v>
+      </c>
+      <c r="Q128" s="50">
+        <v>3508.2669999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C129" s="50">
+        <v>326.98599999999999</v>
+      </c>
+      <c r="D129" s="50">
+        <v>341.363</v>
+      </c>
+      <c r="E129" s="50">
+        <v>463.54700000000003</v>
+      </c>
+      <c r="F129" s="50">
+        <v>604.98800000000006</v>
+      </c>
+      <c r="G129" s="50">
+        <v>730.43</v>
+      </c>
+      <c r="H129" s="50">
+        <v>881.66300000000001</v>
+      </c>
+      <c r="I129" s="50">
+        <v>1073.934</v>
+      </c>
+      <c r="J129" s="50">
+        <v>1335.3430000000001</v>
+      </c>
+      <c r="K129" s="50">
+        <v>1625.636</v>
+      </c>
+      <c r="L129" s="50">
+        <v>1937.1469999999999</v>
+      </c>
+      <c r="M129" s="50">
+        <v>2165.1869999999999</v>
+      </c>
+      <c r="N129" s="50">
+        <v>2267.56</v>
+      </c>
+      <c r="O129" s="50">
+        <v>2670.7550000000001</v>
+      </c>
+      <c r="P129" s="50">
+        <v>3040.2959999999998</v>
+      </c>
+      <c r="Q129" s="50">
+        <v>3395.31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B130" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="50">
+        <v>316.221</v>
+      </c>
+      <c r="D130" s="50">
+        <v>318.005</v>
+      </c>
+      <c r="E130" s="50">
+        <v>333.24099999999999</v>
+      </c>
+      <c r="F130" s="50">
+        <v>453.52300000000002</v>
+      </c>
+      <c r="G130" s="50">
+        <v>593.84900000000005</v>
+      </c>
+      <c r="H130" s="50">
+        <v>719.10799999999995</v>
+      </c>
+      <c r="I130" s="50">
+        <v>870.702</v>
+      </c>
+      <c r="J130" s="50">
+        <v>1062.8620000000001</v>
+      </c>
+      <c r="K130" s="50">
+        <v>1321.492</v>
+      </c>
+      <c r="L130" s="50">
+        <v>1612.4110000000001</v>
+      </c>
+      <c r="M130" s="50">
+        <v>1905.8720000000001</v>
+      </c>
+      <c r="N130" s="50">
+        <v>2129.7710000000002</v>
+      </c>
+      <c r="O130" s="50">
+        <v>2234.4760000000001</v>
+      </c>
+      <c r="P130" s="50">
+        <v>2648.703</v>
+      </c>
+      <c r="Q130" s="50">
+        <v>3021.8609999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="50">
+        <v>271.601</v>
+      </c>
+      <c r="D131" s="50">
+        <v>304.50299999999999</v>
+      </c>
+      <c r="E131" s="50">
+        <v>307.54399999999998</v>
+      </c>
+      <c r="F131" s="50">
+        <v>321.97500000000002</v>
+      </c>
+      <c r="G131" s="50">
+        <v>440.40600000000001</v>
+      </c>
+      <c r="H131" s="50">
+        <v>579.30499999999995</v>
+      </c>
+      <c r="I131" s="50">
+        <v>705.30899999999997</v>
+      </c>
+      <c r="J131" s="50">
+        <v>856.80399999999997</v>
+      </c>
+      <c r="K131" s="50">
+        <v>1045.797</v>
+      </c>
+      <c r="L131" s="50">
+        <v>1312.4690000000001</v>
+      </c>
+      <c r="M131" s="50">
+        <v>1572.5809999999999</v>
+      </c>
+      <c r="N131" s="50">
+        <v>1860.0509999999999</v>
+      </c>
+      <c r="O131" s="50">
+        <v>2074.1889999999999</v>
+      </c>
+      <c r="P131" s="50">
+        <v>2201.8820000000001</v>
+      </c>
+      <c r="Q131" s="50">
+        <v>2619.2020000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B132" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C132" s="50">
+        <v>230.666</v>
+      </c>
+      <c r="D132" s="50">
+        <v>259.23099999999999</v>
+      </c>
+      <c r="E132" s="50">
+        <v>292.14100000000002</v>
+      </c>
+      <c r="F132" s="50">
+        <v>294.44799999999998</v>
+      </c>
+      <c r="G132" s="50">
+        <v>309.71800000000002</v>
+      </c>
+      <c r="H132" s="50">
+        <v>426.37599999999998</v>
+      </c>
+      <c r="I132" s="50">
+        <v>565.22</v>
+      </c>
+      <c r="J132" s="50">
+        <v>690.98599999999999</v>
+      </c>
+      <c r="K132" s="50">
+        <v>838.75599999999997</v>
+      </c>
+      <c r="L132" s="50">
+        <v>1037.9939999999999</v>
+      </c>
+      <c r="M132" s="50">
+        <v>1264.461</v>
+      </c>
+      <c r="N132" s="50">
+        <v>1517.6469999999999</v>
+      </c>
+      <c r="O132" s="50">
+        <v>1793.3610000000001</v>
+      </c>
+      <c r="P132" s="50">
+        <v>2032.4960000000001</v>
+      </c>
+      <c r="Q132" s="50">
+        <v>2167.181</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" s="50">
+        <v>199.917</v>
+      </c>
+      <c r="D133" s="50">
+        <v>219.32900000000001</v>
+      </c>
+      <c r="E133" s="50">
+        <v>247.82599999999999</v>
+      </c>
+      <c r="F133" s="50">
+        <v>278.96899999999999</v>
+      </c>
+      <c r="G133" s="50">
+        <v>282.46699999999998</v>
+      </c>
+      <c r="H133" s="50">
+        <v>298.673</v>
+      </c>
+      <c r="I133" s="50">
+        <v>414.83</v>
+      </c>
+      <c r="J133" s="50">
+        <v>552.23</v>
+      </c>
+      <c r="K133" s="50">
+        <v>673.80799999999999</v>
+      </c>
+      <c r="L133" s="50">
+        <v>827.22199999999998</v>
+      </c>
+      <c r="M133" s="50">
+        <v>986.48400000000004</v>
+      </c>
+      <c r="N133" s="50">
+        <v>1204.3820000000001</v>
+      </c>
+      <c r="O133" s="50">
+        <v>1454.2139999999999</v>
+      </c>
+      <c r="P133" s="50">
+        <v>1748.8420000000001</v>
+      </c>
+      <c r="Q133" s="50">
+        <v>1992.6479999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" s="50">
+        <v>179.64400000000001</v>
+      </c>
+      <c r="D134" s="50">
+        <v>188.89400000000001</v>
+      </c>
+      <c r="E134" s="50">
+        <v>208.416</v>
+      </c>
+      <c r="F134" s="50">
+        <v>235.53399999999999</v>
+      </c>
+      <c r="G134" s="50">
+        <v>266.57400000000001</v>
+      </c>
+      <c r="H134" s="50">
+        <v>271.33800000000002</v>
+      </c>
+      <c r="I134" s="50">
+        <v>289.20600000000002</v>
+      </c>
+      <c r="J134" s="50">
+        <v>403.41500000000002</v>
+      </c>
+      <c r="K134" s="50">
+        <v>535.23599999999999</v>
+      </c>
+      <c r="L134" s="50">
+        <v>655.97500000000002</v>
+      </c>
+      <c r="M134" s="50">
+        <v>771.62599999999998</v>
+      </c>
+      <c r="N134" s="50">
+        <v>922.33500000000004</v>
+      </c>
+      <c r="O134" s="50">
+        <v>1145.7</v>
+      </c>
+      <c r="P134" s="50">
+        <v>1408.165</v>
+      </c>
+      <c r="Q134" s="50">
+        <v>1704.425</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" s="50">
+        <v>159.75800000000001</v>
+      </c>
+      <c r="D135" s="50">
+        <v>168.16800000000001</v>
+      </c>
+      <c r="E135" s="50">
+        <v>177.91399999999999</v>
+      </c>
+      <c r="F135" s="50">
+        <v>196.64699999999999</v>
+      </c>
+      <c r="G135" s="50">
+        <v>223.50899999999999</v>
+      </c>
+      <c r="H135" s="50">
+        <v>254.517</v>
+      </c>
+      <c r="I135" s="50">
+        <v>260.99</v>
+      </c>
+      <c r="J135" s="50">
+        <v>279.399</v>
+      </c>
+      <c r="K135" s="50">
+        <v>387.92099999999999</v>
+      </c>
+      <c r="L135" s="50">
+        <v>513.16899999999998</v>
+      </c>
+      <c r="M135" s="50">
+        <v>600</v>
+      </c>
+      <c r="N135" s="50">
+        <v>707.25699999999995</v>
+      </c>
+      <c r="O135" s="50">
+        <v>869.54499999999996</v>
+      </c>
+      <c r="P135" s="50">
+        <v>1099.9870000000001</v>
+      </c>
+      <c r="Q135" s="50">
+        <v>1362.4010000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="50">
+        <v>132.405</v>
+      </c>
+      <c r="D136" s="50">
+        <v>147.99</v>
+      </c>
+      <c r="E136" s="50">
+        <v>156.77099999999999</v>
+      </c>
+      <c r="F136" s="50">
+        <v>166.37200000000001</v>
+      </c>
+      <c r="G136" s="50">
+        <v>184.96700000000001</v>
+      </c>
+      <c r="H136" s="50">
+        <v>211.59100000000001</v>
+      </c>
+      <c r="I136" s="50">
+        <v>242.727</v>
+      </c>
+      <c r="J136" s="50">
+        <v>250.02</v>
+      </c>
+      <c r="K136" s="50">
+        <v>266.21899999999999</v>
+      </c>
+      <c r="L136" s="50">
+        <v>367.01400000000001</v>
+      </c>
+      <c r="M136" s="50">
+        <v>462.19200000000001</v>
+      </c>
+      <c r="N136" s="50">
+        <v>541.072</v>
+      </c>
+      <c r="O136" s="50">
+        <v>660.13900000000001</v>
+      </c>
+      <c r="P136" s="50">
+        <v>826.80600000000004</v>
+      </c>
+      <c r="Q136" s="50">
+        <v>1055.1659999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C137" s="50">
+        <v>109.999</v>
+      </c>
+      <c r="D137" s="50">
+        <v>120.85</v>
+      </c>
+      <c r="E137" s="50">
+        <v>135.91200000000001</v>
+      </c>
+      <c r="F137" s="50">
+        <v>144.553</v>
+      </c>
+      <c r="G137" s="50">
+        <v>154.286</v>
+      </c>
+      <c r="H137" s="50">
+        <v>172.66499999999999</v>
+      </c>
+      <c r="I137" s="50">
+        <v>198.99600000000001</v>
+      </c>
+      <c r="J137" s="50">
+        <v>229.39599999999999</v>
+      </c>
+      <c r="K137" s="50">
+        <v>234.86</v>
+      </c>
+      <c r="L137" s="50">
+        <v>247.75700000000001</v>
+      </c>
+      <c r="M137" s="50">
+        <v>324.85899999999998</v>
+      </c>
+      <c r="N137" s="50">
+        <v>409.03199999999998</v>
+      </c>
+      <c r="O137" s="50">
+        <v>497.05700000000002</v>
+      </c>
+      <c r="P137" s="50">
+        <v>618.23699999999997</v>
+      </c>
+      <c r="Q137" s="50">
+        <v>782.09799999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B138" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C138" s="50">
+        <v>87.3</v>
+      </c>
+      <c r="D138" s="50">
+        <v>98.3</v>
+      </c>
+      <c r="E138" s="50">
+        <v>108.65300000000001</v>
+      </c>
+      <c r="F138" s="50">
+        <v>122.76900000000001</v>
+      </c>
+      <c r="G138" s="50">
+        <v>131.33600000000001</v>
+      </c>
+      <c r="H138" s="50">
+        <v>141.143</v>
+      </c>
+      <c r="I138" s="50">
+        <v>159.19300000000001</v>
+      </c>
+      <c r="J138" s="50">
+        <v>184.49199999999999</v>
+      </c>
+      <c r="K138" s="50">
+        <v>211.23500000000001</v>
+      </c>
+      <c r="L138" s="50">
+        <v>213.07400000000001</v>
+      </c>
+      <c r="M138" s="50">
+        <v>214.274</v>
+      </c>
+      <c r="N138" s="50">
+        <v>280.44099999999997</v>
+      </c>
+      <c r="O138" s="50">
+        <v>367.35899999999998</v>
+      </c>
+      <c r="P138" s="50">
+        <v>455.88299999999998</v>
+      </c>
+      <c r="Q138" s="50">
+        <v>573.69100000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B139" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C139" s="50">
+        <v>67.802000000000007</v>
+      </c>
+      <c r="D139" s="50">
+        <v>75.388000000000005</v>
+      </c>
+      <c r="E139" s="50">
+        <v>85.406999999999996</v>
+      </c>
+      <c r="F139" s="50">
+        <v>94.903999999999996</v>
+      </c>
+      <c r="G139" s="50">
+        <v>107.908</v>
+      </c>
+      <c r="H139" s="50">
+        <v>116.312</v>
+      </c>
+      <c r="I139" s="50">
+        <v>126.07899999999999</v>
+      </c>
+      <c r="J139" s="50">
+        <v>143.15600000000001</v>
+      </c>
+      <c r="K139" s="50">
+        <v>164.596</v>
+      </c>
+      <c r="L139" s="50">
+        <v>184.48099999999999</v>
+      </c>
+      <c r="M139" s="50">
+        <v>177.34200000000001</v>
+      </c>
+      <c r="N139" s="50">
+        <v>177.60400000000001</v>
+      </c>
+      <c r="O139" s="50">
+        <v>242.78299999999999</v>
+      </c>
+      <c r="P139" s="50">
+        <v>326.197</v>
+      </c>
+      <c r="Q139" s="50">
+        <v>410.863</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B140" s="46" t="s">
+        <v>980</v>
+      </c>
+      <c r="C140" s="50">
+        <v>47.723999999999997</v>
+      </c>
+      <c r="D140" s="50">
+        <v>55.127000000000002</v>
+      </c>
+      <c r="E140" s="50">
+        <v>61.664000000000001</v>
+      </c>
+      <c r="F140" s="50">
+        <v>70.266000000000005</v>
+      </c>
+      <c r="G140" s="50">
+        <v>78.596999999999994</v>
+      </c>
+      <c r="H140" s="50">
+        <v>90.141000000000005</v>
+      </c>
+      <c r="I140" s="50">
+        <v>98.153999999999996</v>
+      </c>
+      <c r="J140" s="50">
+        <v>107.31399999999999</v>
+      </c>
+      <c r="K140" s="50">
+        <v>120.69799999999999</v>
+      </c>
+      <c r="L140" s="50">
+        <v>135.017</v>
+      </c>
+      <c r="M140" s="50">
+        <v>143.703</v>
+      </c>
+      <c r="N140" s="50">
+        <v>137.04300000000001</v>
+      </c>
+      <c r="O140" s="50">
+        <v>144.018</v>
+      </c>
+      <c r="P140" s="50">
+        <v>203.68700000000001</v>
+      </c>
+      <c r="Q140" s="50">
+        <v>279.48099999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B141" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="C141" s="50">
+        <v>28.616</v>
+      </c>
+      <c r="D141" s="50">
+        <v>35.110999999999997</v>
+      </c>
+      <c r="E141" s="50">
+        <v>40.796999999999997</v>
+      </c>
+      <c r="F141" s="50">
+        <v>45.917000000000002</v>
+      </c>
+      <c r="G141" s="50">
+        <v>52.701000000000001</v>
+      </c>
+      <c r="H141" s="50">
+        <v>59.548999999999999</v>
+      </c>
+      <c r="I141" s="50">
+        <v>69.17</v>
+      </c>
+      <c r="J141" s="50">
+        <v>76.191000000000003</v>
+      </c>
+      <c r="K141" s="50">
+        <v>82.307000000000002</v>
+      </c>
+      <c r="L141" s="50">
+        <v>89.284999999999997</v>
+      </c>
+      <c r="M141" s="50">
+        <v>94.103999999999999</v>
+      </c>
+      <c r="N141" s="50">
+        <v>98.856999999999999</v>
+      </c>
+      <c r="O141" s="50">
+        <v>99.944000000000003</v>
+      </c>
+      <c r="P141" s="50">
+        <v>110.20399999999999</v>
+      </c>
+      <c r="Q141" s="50">
+        <v>161.035</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B142" s="46" t="s">
+        <v>982</v>
+      </c>
+      <c r="C142" s="50">
+        <v>14.840999999999999</v>
+      </c>
+      <c r="D142" s="50">
+        <v>17.861999999999998</v>
+      </c>
+      <c r="E142" s="50">
+        <v>22.023</v>
+      </c>
+      <c r="F142" s="50">
+        <v>25.728000000000002</v>
+      </c>
+      <c r="G142" s="50">
+        <v>29.167000000000002</v>
+      </c>
+      <c r="H142" s="50">
+        <v>33.866</v>
+      </c>
+      <c r="I142" s="50">
+        <v>38.892000000000003</v>
+      </c>
+      <c r="J142" s="50">
+        <v>45.896000000000001</v>
+      </c>
+      <c r="K142" s="50">
+        <v>49.774999999999999</v>
+      </c>
+      <c r="L142" s="50">
+        <v>51.314</v>
+      </c>
+      <c r="M142" s="50">
+        <v>51.887999999999998</v>
+      </c>
+      <c r="N142" s="50">
+        <v>53.573</v>
+      </c>
+      <c r="O142" s="50">
+        <v>60.344999999999999</v>
+      </c>
+      <c r="P142" s="50">
+        <v>65.712999999999994</v>
+      </c>
+      <c r="Q142" s="50">
+        <v>76.403999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B143" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C143" s="37">
+        <v>6.7920000000000007</v>
+      </c>
+      <c r="D143" s="37">
+        <v>8.9410000000000007</v>
+      </c>
+      <c r="E143" s="37">
+        <v>11.025</v>
+      </c>
+      <c r="F143" s="37">
+        <v>13.533999999999997</v>
+      </c>
+      <c r="G143" s="37">
+        <v>16.044999999999998</v>
+      </c>
+      <c r="H143" s="37">
+        <v>18.555000000000003</v>
+      </c>
+      <c r="I143" s="37">
+        <v>21.943000000000001</v>
+      </c>
+      <c r="J143" s="37">
+        <v>25.936</v>
+      </c>
+      <c r="K143" s="37">
+        <v>29.832999999999998</v>
+      </c>
+      <c r="L143" s="37">
+        <v>30.677999999999997</v>
+      </c>
+      <c r="M143" s="37">
+        <v>28.76</v>
+      </c>
+      <c r="N143" s="37">
+        <v>27.613</v>
+      </c>
+      <c r="O143" s="37">
+        <v>30.65</v>
+      </c>
+      <c r="P143" s="37">
+        <v>39.680999999999997</v>
+      </c>
+      <c r="Q143" s="37">
+        <v>50.151000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B144" s="50"/>
+      <c r="C144" s="50"/>
+      <c r="D144" s="50"/>
+      <c r="E144" s="50"/>
+      <c r="F144" s="50"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
+      <c r="I144" s="50"/>
+      <c r="J144" s="50"/>
+      <c r="K144" s="50"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="50"/>
+      <c r="N144" s="50"/>
+      <c r="O144" s="50"/>
+      <c r="P144" s="50"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B145" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C145" s="47">
+        <v>1950</v>
+      </c>
+      <c r="D145" s="47">
+        <v>1955</v>
+      </c>
+      <c r="E145" s="47">
+        <v>1960</v>
+      </c>
+      <c r="F145" s="47">
+        <v>1965</v>
+      </c>
+      <c r="G145" s="47">
+        <v>1970</v>
+      </c>
+      <c r="H145" s="47">
+        <v>1975</v>
+      </c>
+      <c r="I145" s="47">
+        <v>1980</v>
+      </c>
+      <c r="J145" s="47">
+        <v>1985</v>
+      </c>
+      <c r="K145" s="47">
+        <v>1990</v>
+      </c>
+      <c r="L145" s="47">
+        <v>1995</v>
+      </c>
+      <c r="M145" s="47">
+        <v>2000</v>
+      </c>
+      <c r="N145" s="47">
+        <v>2005</v>
+      </c>
+      <c r="O145" s="47">
+        <v>2010</v>
+      </c>
+      <c r="P145" s="47">
+        <v>2015</v>
+      </c>
+      <c r="Q145" s="47">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B146" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="C146" s="50">
+        <v>526.12800000000004</v>
+      </c>
+      <c r="D146" s="50">
+        <v>678.548</v>
+      </c>
+      <c r="E146" s="50">
+        <v>800.50300000000004</v>
+      </c>
+      <c r="F146" s="50">
+        <v>951.90099999999995</v>
+      </c>
+      <c r="G146" s="50">
+        <v>1138.8889999999999</v>
+      </c>
+      <c r="H146" s="50">
+        <v>1394.3009999999999</v>
+      </c>
+      <c r="I146" s="50">
+        <v>1677.8230000000001</v>
+      </c>
+      <c r="J146" s="50">
+        <v>1992.7149999999999</v>
+      </c>
+      <c r="K146" s="50">
+        <v>2237.337</v>
+      </c>
+      <c r="L146" s="50">
+        <v>2353.848</v>
+      </c>
+      <c r="M146" s="50">
+        <v>2744.68</v>
+      </c>
+      <c r="N146" s="50">
+        <v>3075.279</v>
+      </c>
+      <c r="O146" s="50">
+        <v>3390.8629999999998</v>
+      </c>
+      <c r="P146" s="50">
+        <v>3491.221</v>
+      </c>
+      <c r="Q146" s="50">
+        <v>3486.0210000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B147" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" s="50">
+        <v>352.59500000000003</v>
+      </c>
+      <c r="D147" s="50">
+        <v>478.45</v>
+      </c>
+      <c r="E147" s="50">
+        <v>625.42399999999998</v>
+      </c>
+      <c r="F147" s="50">
+        <v>750.63900000000001</v>
+      </c>
+      <c r="G147" s="50">
+        <v>902.67200000000003</v>
+      </c>
+      <c r="H147" s="50">
+        <v>1091.424</v>
+      </c>
+      <c r="I147" s="50">
+        <v>1346.829</v>
+      </c>
+      <c r="J147" s="50">
+        <v>1631.4639999999999</v>
+      </c>
+      <c r="K147" s="50">
+        <v>1940.953</v>
+      </c>
+      <c r="L147" s="50">
+        <v>2183.0940000000001</v>
+      </c>
+      <c r="M147" s="50">
+        <v>2290.3620000000001</v>
+      </c>
+      <c r="N147" s="50">
+        <v>2678.6390000000001</v>
+      </c>
+      <c r="O147" s="50">
+        <v>3018.3670000000002</v>
+      </c>
+      <c r="P147" s="50">
+        <v>3353.1439999999998</v>
+      </c>
+      <c r="Q147" s="50">
+        <v>3461.279</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B148" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C148" s="50">
+        <v>326.79300000000001</v>
+      </c>
+      <c r="D148" s="50">
+        <v>339.952</v>
+      </c>
+      <c r="E148" s="50">
+        <v>464.02</v>
+      </c>
+      <c r="F148" s="50">
+        <v>610.71199999999999</v>
+      </c>
+      <c r="G148" s="50">
+        <v>736.11599999999999</v>
+      </c>
+      <c r="H148" s="50">
+        <v>888.49599999999998</v>
+      </c>
+      <c r="I148" s="50">
+        <v>1077.318</v>
+      </c>
+      <c r="J148" s="50">
+        <v>1332.5719999999999</v>
+      </c>
+      <c r="K148" s="50">
+        <v>1615.5360000000001</v>
+      </c>
+      <c r="L148" s="50">
+        <v>1924.5530000000001</v>
+      </c>
+      <c r="M148" s="50">
+        <v>2159.6559999999999</v>
+      </c>
+      <c r="N148" s="50">
+        <v>2265.5639999999999</v>
+      </c>
+      <c r="O148" s="50">
+        <v>2654.402</v>
+      </c>
+      <c r="P148" s="50">
+        <v>3001.846</v>
+      </c>
+      <c r="Q148" s="50">
+        <v>3340.913</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B149" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="50">
+        <v>306.90800000000002</v>
+      </c>
+      <c r="D149" s="50">
+        <v>317.78699999999998</v>
+      </c>
+      <c r="E149" s="50">
+        <v>331.92099999999999</v>
+      </c>
+      <c r="F149" s="50">
+        <v>454.77800000000002</v>
+      </c>
+      <c r="G149" s="50">
+        <v>600.572</v>
+      </c>
+      <c r="H149" s="50">
+        <v>726.02300000000002</v>
+      </c>
+      <c r="I149" s="50">
+        <v>878.62300000000005</v>
+      </c>
+      <c r="J149" s="50">
+        <v>1067.5150000000001</v>
+      </c>
+      <c r="K149" s="50">
+        <v>1321.2439999999999</v>
+      </c>
+      <c r="L149" s="50">
+        <v>1608.7</v>
+      </c>
+      <c r="M149" s="50">
+        <v>1904.5170000000001</v>
+      </c>
+      <c r="N149" s="50">
+        <v>2137.7130000000002</v>
+      </c>
+      <c r="O149" s="50">
+        <v>2242.0169999999998</v>
+      </c>
+      <c r="P149" s="50">
+        <v>2638.4279999999999</v>
+      </c>
+      <c r="Q149" s="50">
+        <v>2988.7950000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B150" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C150" s="50">
+        <v>254.81899999999999</v>
+      </c>
+      <c r="D150" s="50">
+        <v>297.32299999999998</v>
+      </c>
+      <c r="E150" s="50">
+        <v>309.05700000000002</v>
+      </c>
+      <c r="F150" s="50">
+        <v>323.12</v>
+      </c>
+      <c r="G150" s="50">
+        <v>444.61799999999999</v>
+      </c>
+      <c r="H150" s="50">
+        <v>589.40099999999995</v>
+      </c>
+      <c r="I150" s="50">
+        <v>715.35199999999998</v>
+      </c>
+      <c r="J150" s="50">
+        <v>868.02700000000004</v>
+      </c>
+      <c r="K150" s="50">
+        <v>1055.079</v>
+      </c>
+      <c r="L150" s="50">
+        <v>1320.759</v>
+      </c>
+      <c r="M150" s="50">
+        <v>1580.1079999999999</v>
+      </c>
+      <c r="N150" s="50">
+        <v>1872.1189999999999</v>
+      </c>
+      <c r="O150" s="50">
+        <v>2097.8389999999999</v>
+      </c>
+      <c r="P150" s="50">
+        <v>2218.2339999999999</v>
+      </c>
+      <c r="Q150" s="50">
+        <v>2617.3910000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B151" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="50">
+        <v>207.57900000000001</v>
+      </c>
+      <c r="D151" s="50">
+        <v>245.5</v>
+      </c>
+      <c r="E151" s="50">
+        <v>287.62099999999998</v>
+      </c>
+      <c r="F151" s="50">
+        <v>298.97699999999998</v>
+      </c>
+      <c r="G151" s="50">
+        <v>313.76499999999999</v>
+      </c>
+      <c r="H151" s="50">
+        <v>433.89800000000002</v>
+      </c>
+      <c r="I151" s="50">
+        <v>578.34500000000003</v>
+      </c>
+      <c r="J151" s="50">
+        <v>704.22799999999995</v>
+      </c>
+      <c r="K151" s="50">
+        <v>854.32600000000002</v>
+      </c>
+      <c r="L151" s="50">
+        <v>1054.078</v>
+      </c>
+      <c r="M151" s="50">
+        <v>1278.6389999999999</v>
+      </c>
+      <c r="N151" s="50">
+        <v>1529.6469999999999</v>
+      </c>
+      <c r="O151" s="50">
+        <v>1818.0820000000001</v>
+      </c>
+      <c r="P151" s="50">
+        <v>2063.39</v>
+      </c>
+      <c r="Q151" s="50">
+        <v>2190.5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B152" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" s="50">
+        <v>178.965</v>
+      </c>
+      <c r="D152" s="50">
+        <v>198.82499999999999</v>
+      </c>
+      <c r="E152" s="50">
+        <v>236.2</v>
+      </c>
+      <c r="F152" s="50">
+        <v>277.012</v>
+      </c>
+      <c r="G152" s="50">
+        <v>289.12599999999998</v>
+      </c>
+      <c r="H152" s="50">
+        <v>304.75599999999997</v>
+      </c>
+      <c r="I152" s="50">
+        <v>424.13600000000002</v>
+      </c>
+      <c r="J152" s="50">
+        <v>567.375</v>
+      </c>
+      <c r="K152" s="50">
+        <v>690.19899999999996</v>
+      </c>
+      <c r="L152" s="50">
+        <v>847.08799999999997</v>
+      </c>
+      <c r="M152" s="50">
+        <v>1003.39</v>
+      </c>
+      <c r="N152" s="50">
+        <v>1214.3209999999999</v>
+      </c>
+      <c r="O152" s="50">
+        <v>1472.3409999999999</v>
+      </c>
+      <c r="P152" s="50">
+        <v>1778.5409999999999</v>
+      </c>
+      <c r="Q152" s="50">
+        <v>2030.0440000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B153" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153" s="50">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="D153" s="50">
+        <v>170.417</v>
+      </c>
+      <c r="E153" s="50">
+        <v>190.23400000000001</v>
+      </c>
+      <c r="F153" s="50">
+        <v>226.46600000000001</v>
+      </c>
+      <c r="G153" s="50">
+        <v>266.87</v>
+      </c>
+      <c r="H153" s="50">
+        <v>279.83499999999998</v>
+      </c>
+      <c r="I153" s="50">
+        <v>296.69</v>
+      </c>
+      <c r="J153" s="50">
+        <v>414.51299999999998</v>
+      </c>
+      <c r="K153" s="50">
+        <v>553.59100000000001</v>
+      </c>
+      <c r="L153" s="50">
+        <v>677.15700000000004</v>
+      </c>
+      <c r="M153" s="50">
+        <v>793.59900000000005</v>
+      </c>
+      <c r="N153" s="50">
+        <v>935.38099999999997</v>
+      </c>
+      <c r="O153" s="50">
+        <v>1159.8579999999999</v>
+      </c>
+      <c r="P153" s="50">
+        <v>1432.489</v>
+      </c>
+      <c r="Q153" s="50">
+        <v>1743.029</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B154" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C154" s="50">
+        <v>140.553</v>
+      </c>
+      <c r="D154" s="50">
+        <v>146.87799999999999</v>
+      </c>
+      <c r="E154" s="50">
+        <v>162.05699999999999</v>
+      </c>
+      <c r="F154" s="50">
+        <v>181.434</v>
+      </c>
+      <c r="G154" s="50">
+        <v>217.05099999999999</v>
+      </c>
+      <c r="H154" s="50">
+        <v>257.08800000000002</v>
+      </c>
+      <c r="I154" s="50">
+        <v>271.05</v>
+      </c>
+      <c r="J154" s="50">
+        <v>288.54000000000002</v>
+      </c>
+      <c r="K154" s="50">
+        <v>402.33699999999999</v>
+      </c>
+      <c r="L154" s="50">
+        <v>537.63199999999995</v>
+      </c>
+      <c r="M154" s="50">
+        <v>628.12400000000002</v>
+      </c>
+      <c r="N154" s="50">
+        <v>731.42600000000004</v>
+      </c>
+      <c r="O154" s="50">
+        <v>887.47500000000002</v>
+      </c>
+      <c r="P154" s="50">
+        <v>1121.7439999999999</v>
+      </c>
+      <c r="Q154" s="50">
+        <v>1397.049</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B155" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" s="50">
+        <v>130.56100000000001</v>
+      </c>
+      <c r="D155" s="50">
+        <v>132.35300000000001</v>
+      </c>
+      <c r="E155" s="50">
+        <v>138.94300000000001</v>
+      </c>
+      <c r="F155" s="50">
+        <v>153.845</v>
+      </c>
+      <c r="G155" s="50">
+        <v>173.035</v>
+      </c>
+      <c r="H155" s="50">
+        <v>208.06200000000001</v>
+      </c>
+      <c r="I155" s="50">
+        <v>247.74600000000001</v>
+      </c>
+      <c r="J155" s="50">
+        <v>262.26400000000001</v>
+      </c>
+      <c r="K155" s="50">
+        <v>278.68299999999999</v>
+      </c>
+      <c r="L155" s="50">
+        <v>388.214</v>
+      </c>
+      <c r="M155" s="50">
+        <v>497.30700000000002</v>
+      </c>
+      <c r="N155" s="50">
+        <v>577.23500000000001</v>
+      </c>
+      <c r="O155" s="50">
+        <v>690.89400000000001</v>
+      </c>
+      <c r="P155" s="50">
+        <v>853.59100000000001</v>
+      </c>
+      <c r="Q155" s="50">
+        <v>1088.4290000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B156" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="C156" s="50">
+        <v>116.206</v>
+      </c>
+      <c r="D156" s="50">
+        <v>121.746</v>
+      </c>
+      <c r="E156" s="50">
+        <v>123.979</v>
+      </c>
+      <c r="F156" s="50">
+        <v>130.71299999999999</v>
+      </c>
+      <c r="G156" s="50">
+        <v>145.41</v>
+      </c>
+      <c r="H156" s="50">
+        <v>164.40799999999999</v>
+      </c>
+      <c r="I156" s="50">
+        <v>198.756</v>
+      </c>
+      <c r="J156" s="50">
+        <v>237.71</v>
+      </c>
+      <c r="K156" s="50">
+        <v>251.215</v>
+      </c>
+      <c r="L156" s="50">
+        <v>266.464</v>
+      </c>
+      <c r="M156" s="50">
+        <v>356.84699999999998</v>
+      </c>
+      <c r="N156" s="50">
+        <v>454.13400000000001</v>
+      </c>
+      <c r="O156" s="50">
+        <v>541.01400000000001</v>
+      </c>
+      <c r="P156" s="50">
+        <v>658.98800000000006</v>
+      </c>
+      <c r="Q156" s="50">
+        <v>821.97500000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B157" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="C157" s="50">
+        <v>97</v>
+      </c>
+      <c r="D157" s="50">
+        <v>106.303</v>
+      </c>
+      <c r="E157" s="50">
+        <v>111.93899999999999</v>
+      </c>
+      <c r="F157" s="50">
+        <v>114.639</v>
+      </c>
+      <c r="G157" s="50">
+        <v>121.511</v>
+      </c>
+      <c r="H157" s="50">
+        <v>135.994</v>
+      </c>
+      <c r="I157" s="50">
+        <v>154.68299999999999</v>
+      </c>
+      <c r="J157" s="50">
+        <v>188.00700000000001</v>
+      </c>
+      <c r="K157" s="50">
+        <v>224.55600000000001</v>
+      </c>
+      <c r="L157" s="50">
+        <v>236.12899999999999</v>
+      </c>
+      <c r="M157" s="50">
+        <v>242.233</v>
+      </c>
+      <c r="N157" s="50">
+        <v>322.36399999999998</v>
+      </c>
+      <c r="O157" s="50">
+        <v>420.16199999999998</v>
+      </c>
+      <c r="P157" s="50">
+        <v>509.68400000000003</v>
+      </c>
+      <c r="Q157" s="50">
+        <v>627.83900000000006</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B158" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="C158" s="50">
+        <v>78.376000000000005</v>
+      </c>
+      <c r="D158" s="50">
+        <v>85.778999999999996</v>
+      </c>
+      <c r="E158" s="50">
+        <v>94.581999999999994</v>
+      </c>
+      <c r="F158" s="50">
+        <v>100.371</v>
+      </c>
+      <c r="G158" s="50">
+        <v>103.48099999999999</v>
+      </c>
+      <c r="H158" s="50">
+        <v>110.515</v>
+      </c>
+      <c r="I158" s="50">
+        <v>124.60299999999999</v>
+      </c>
+      <c r="J158" s="50">
+        <v>142.73599999999999</v>
+      </c>
+      <c r="K158" s="50">
+        <v>173.36699999999999</v>
+      </c>
+      <c r="L158" s="50">
+        <v>205.55199999999999</v>
+      </c>
+      <c r="M158" s="50">
+        <v>209.96299999999999</v>
+      </c>
+      <c r="N158" s="50">
+        <v>214.01499999999999</v>
+      </c>
+      <c r="O158" s="50">
+        <v>291.30700000000002</v>
+      </c>
+      <c r="P158" s="50">
+        <v>387.77100000000002</v>
+      </c>
+      <c r="Q158" s="50">
+        <v>477.35199999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B159" s="46" t="s">
+        <v>980</v>
+      </c>
+      <c r="C159" s="50">
+        <v>60.14</v>
+      </c>
+      <c r="D159" s="50">
+        <v>65.23</v>
+      </c>
+      <c r="E159" s="50">
+        <v>71.912000000000006</v>
+      </c>
+      <c r="F159" s="50">
+        <v>80.097999999999999</v>
+      </c>
+      <c r="G159" s="50">
+        <v>85.733000000000004</v>
+      </c>
+      <c r="H159" s="50">
+        <v>89.266999999999996</v>
+      </c>
+      <c r="I159" s="50">
+        <v>96.26</v>
+      </c>
+      <c r="J159" s="50">
+        <v>109.626</v>
+      </c>
+      <c r="K159" s="50">
+        <v>125.645</v>
+      </c>
+      <c r="L159" s="50">
+        <v>151.38499999999999</v>
+      </c>
+      <c r="M159" s="50">
+        <v>174.976</v>
+      </c>
+      <c r="N159" s="50">
+        <v>177.5</v>
+      </c>
+      <c r="O159" s="50">
+        <v>184.685</v>
+      </c>
+      <c r="P159" s="50">
+        <v>258.214</v>
+      </c>
+      <c r="Q159" s="50">
+        <v>351.13</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B160" s="46" t="s">
+        <v>981</v>
+      </c>
+      <c r="C160" s="50">
+        <v>40.061</v>
+      </c>
+      <c r="D160" s="50">
+        <v>45.283999999999999</v>
+      </c>
+      <c r="E160" s="50">
+        <v>49.512</v>
+      </c>
+      <c r="F160" s="50">
+        <v>55.249000000000002</v>
+      </c>
+      <c r="G160" s="50">
+        <v>62.197000000000003</v>
+      </c>
+      <c r="H160" s="50">
+        <v>67.433999999999997</v>
+      </c>
+      <c r="I160" s="50">
+        <v>71.120999999999995</v>
+      </c>
+      <c r="J160" s="50">
+        <v>77.8</v>
+      </c>
+      <c r="K160" s="50">
+        <v>88.807000000000002</v>
+      </c>
+      <c r="L160" s="50">
+        <v>100.953</v>
+      </c>
+      <c r="M160" s="50">
+        <v>119.01600000000001</v>
+      </c>
+      <c r="N160" s="50">
+        <v>136.50700000000001</v>
+      </c>
+      <c r="O160" s="50">
+        <v>141.065</v>
+      </c>
+      <c r="P160" s="50">
+        <v>152.22</v>
+      </c>
+      <c r="Q160" s="50">
+        <v>220.03200000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B161" s="46" t="s">
+        <v>982</v>
+      </c>
+      <c r="C161" s="50">
+        <v>26.19</v>
+      </c>
+      <c r="D161" s="50">
+        <v>25.728000000000002</v>
+      </c>
+      <c r="E161" s="50">
+        <v>29.297999999999998</v>
+      </c>
+      <c r="F161" s="50">
+        <v>32.44</v>
+      </c>
+      <c r="G161" s="50">
+        <v>36.642000000000003</v>
+      </c>
+      <c r="H161" s="50">
+        <v>41.908999999999999</v>
+      </c>
+      <c r="I161" s="50">
+        <v>46.204999999999998</v>
+      </c>
+      <c r="J161" s="50">
+        <v>49.720999999999997</v>
+      </c>
+      <c r="K161" s="50">
+        <v>54.652999999999999</v>
+      </c>
+      <c r="L161" s="50">
+        <v>61.912999999999997</v>
+      </c>
+      <c r="M161" s="50">
+        <v>69.313999999999993</v>
+      </c>
+      <c r="N161" s="50">
+        <v>81.033000000000001</v>
+      </c>
+      <c r="O161" s="50">
+        <v>94.150999999999996</v>
+      </c>
+      <c r="P161" s="50">
+        <v>102.624</v>
+      </c>
+      <c r="Q161" s="50">
+        <v>116.86799999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B162" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" s="50">
+        <v>14.159999999999998</v>
+      </c>
+      <c r="D162" s="50">
+        <v>16.881</v>
+      </c>
+      <c r="E162" s="50">
+        <v>17.580000000000005</v>
+      </c>
+      <c r="F162" s="50">
+        <v>19.491</v>
+      </c>
+      <c r="G162" s="50">
+        <v>21.837</v>
+      </c>
+      <c r="H162" s="50">
+        <v>25.012999999999998</v>
+      </c>
+      <c r="I162" s="50">
+        <v>29.216999999999999</v>
+      </c>
+      <c r="J162" s="50">
+        <v>33.625</v>
+      </c>
+      <c r="K162" s="50">
+        <v>36.995000000000005</v>
+      </c>
+      <c r="L162" s="50">
+        <v>40.189</v>
+      </c>
+      <c r="M162" s="50">
+        <v>45.019999999999989</v>
+      </c>
+      <c r="N162" s="50">
+        <v>49.994</v>
+      </c>
+      <c r="O162" s="50">
+        <v>57.32</v>
+      </c>
+      <c r="P162" s="50">
+        <v>73.600999999999999</v>
+      </c>
+      <c r="Q162" s="50">
+        <v>94.126999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B163" s="50"/>
+      <c r="C163" s="50"/>
+      <c r="D163" s="50"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="50"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="50"/>
+      <c r="J163" s="50"/>
+      <c r="K163" s="50"/>
+      <c r="L163" s="50"/>
+      <c r="M163" s="50"/>
+      <c r="N163" s="50"/>
+      <c r="O163" s="50"/>
+      <c r="P163" s="50"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
+      <c r="M164" s="50"/>
+      <c r="N164" s="50"/>
+      <c r="O164" s="50"/>
+      <c r="P164" s="50"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="50"/>
+      <c r="M165" s="50"/>
+      <c r="N165" s="50"/>
+      <c r="O165" s="50"/>
+      <c r="P165" s="50"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B166" s="50"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
+      <c r="I166" s="50"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="50"/>
+      <c r="M166" s="50"/>
+      <c r="N166" s="50"/>
+      <c r="O166" s="50"/>
+      <c r="P166" s="50"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C168" s="51"/>
+      <c r="D168" s="51"/>
+      <c r="E168" s="51"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="51"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="51"/>
+      <c r="M168" s="51"/>
+      <c r="N168" s="51"/>
+      <c r="O168" s="51"/>
+      <c r="P168" s="51"/>
+      <c r="Q168" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28385,11 +30319,11 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="45">
+      <c r="C18" s="49">
         <v>2015</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="G18" s="23">
         <v>2013</v>
       </c>
@@ -36019,10 +37953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG100"/>
+  <dimension ref="A1:AG119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36971,6 +38905,7 @@
         <f t="shared" si="10"/>
         <v>7.3389999999999997E-2</v>
       </c>
+      <c r="J45" s="48"/>
       <c r="Q45" s="22" t="s">
         <v>137</v>
       </c>
@@ -37055,6 +38990,7 @@
         <f t="shared" si="10"/>
         <v>0.15087999999999999</v>
       </c>
+      <c r="J46" s="48"/>
       <c r="Q46" s="21" t="s">
         <v>138</v>
       </c>
@@ -37139,6 +39075,7 @@
         <f t="shared" si="10"/>
         <v>0.15251999999999999</v>
       </c>
+      <c r="J47" s="48"/>
       <c r="Q47" s="21" t="s">
         <v>139</v>
       </c>
@@ -37223,6 +39160,7 @@
         <f t="shared" si="10"/>
         <v>0.12750999999999998</v>
       </c>
+      <c r="J48" s="48"/>
       <c r="Q48" s="21" t="s">
         <v>140</v>
       </c>
@@ -37307,6 +39245,7 @@
         <f t="shared" si="10"/>
         <v>9.2659999999999992E-2</v>
       </c>
+      <c r="J49" s="48"/>
       <c r="Q49" s="21" t="s">
         <v>141</v>
       </c>
@@ -37391,6 +39330,7 @@
         <f t="shared" si="10"/>
         <v>4.3049999999999998E-2</v>
       </c>
+      <c r="J50" s="48"/>
       <c r="Q50" s="21" t="s">
         <v>142</v>
       </c>
@@ -37475,6 +39415,7 @@
         <f t="shared" si="10"/>
         <v>5.7399999999999994E-3</v>
       </c>
+      <c r="J51" s="48"/>
       <c r="K51" t="s">
         <v>456</v>
       </c>
@@ -38337,763 +40278,1305 @@
       </c>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="45" t="s">
         <v>1050</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="47" t="s">
         <v>1052</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="47" t="s">
         <v>1053</v>
       </c>
-      <c r="F93" s="48" t="s">
+      <c r="F93" s="47" t="s">
         <v>1054</v>
       </c>
-      <c r="G93" s="48" t="s">
+      <c r="G93" s="47" t="s">
         <v>1055</v>
       </c>
-      <c r="H93" s="48" t="s">
+      <c r="H93" s="47" t="s">
         <v>1056</v>
       </c>
-      <c r="I93" s="48" t="s">
+      <c r="I93" s="47" t="s">
         <v>1057</v>
       </c>
-      <c r="J93" s="48" t="s">
+      <c r="J93" s="47" t="s">
         <v>1058</v>
       </c>
-      <c r="K93" s="48" t="s">
+      <c r="K93" s="47" t="s">
         <v>1059</v>
       </c>
-      <c r="L93" s="48" t="s">
+      <c r="L93" s="47" t="s">
         <v>1060</v>
       </c>
-      <c r="M93" s="48" t="s">
+      <c r="M93" s="47" t="s">
         <v>1061</v>
       </c>
-      <c r="N93" s="48" t="s">
+      <c r="N93" s="47" t="s">
         <v>1062</v>
       </c>
-      <c r="O93" s="48" t="s">
+      <c r="O93" s="47" t="s">
         <v>1063</v>
       </c>
-      <c r="P93" s="48" t="s">
+      <c r="P93" s="47" t="s">
         <v>1064</v>
       </c>
-      <c r="Q93" s="48" t="s">
+      <c r="Q93" s="47" t="s">
         <v>1065</v>
       </c>
-      <c r="R93" s="48" t="s">
+      <c r="R93" s="47" t="s">
         <v>1066</v>
       </c>
-      <c r="S93" s="48" t="s">
+      <c r="S93" s="47" t="s">
         <v>1067</v>
       </c>
-      <c r="T93" s="48" t="s">
+      <c r="T93" s="47" t="s">
         <v>1068</v>
       </c>
-      <c r="U93" s="48" t="s">
+      <c r="U93" s="47" t="s">
         <v>1069</v>
       </c>
-      <c r="V93" s="48" t="s">
+      <c r="V93" s="47" t="s">
         <v>1070</v>
       </c>
-      <c r="W93" s="48" t="s">
+      <c r="W93" s="47" t="s">
         <v>1071</v>
       </c>
-      <c r="X93" s="48" t="s">
+      <c r="X93" s="47" t="s">
         <v>1072</v>
       </c>
-      <c r="Y93" s="48" t="s">
+      <c r="Y93" s="47" t="s">
         <v>1073</v>
       </c>
-      <c r="Z93" s="48" t="s">
+      <c r="Z93" s="47" t="s">
         <v>1074</v>
       </c>
-      <c r="AA93" s="48" t="s">
+      <c r="AA93" s="47" t="s">
         <v>1075</v>
       </c>
-      <c r="AB93" s="48" t="s">
+      <c r="AB93" s="47" t="s">
         <v>1076</v>
       </c>
-      <c r="AC93" s="48" t="s">
+      <c r="AC93" s="47" t="s">
         <v>1077</v>
       </c>
-      <c r="AD93" s="48" t="s">
+      <c r="AD93" s="47" t="s">
         <v>1078</v>
       </c>
-      <c r="AE93" s="48" t="s">
+      <c r="AE93" s="47" t="s">
         <v>1079</v>
       </c>
-      <c r="AF93" s="48" t="s">
+      <c r="AF93" s="47" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B94" s="47" t="s">
+      <c r="B94" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="48">
         <v>169.071</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="48">
         <v>175.941</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="48">
         <v>182.26900000000001</v>
       </c>
-      <c r="F94" s="49">
+      <c r="F94" s="48">
         <v>183.286</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="48">
         <v>180.57400000000001</v>
       </c>
-      <c r="H94" s="49">
+      <c r="H94" s="48">
         <v>172.66399999999999</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94" s="48">
         <v>163.08199999999999</v>
       </c>
-      <c r="J94" s="49">
+      <c r="J94" s="48">
         <v>147.75899999999999</v>
       </c>
-      <c r="K94" s="49">
+      <c r="K94" s="48">
         <v>115.26</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>111.494</v>
       </c>
-      <c r="M94" s="49">
+      <c r="M94" s="48">
         <v>104.2</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>97.091999999999999</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>86.153000000000006</v>
       </c>
-      <c r="P94" s="49">
+      <c r="P94" s="48">
         <v>75.078000000000003</v>
       </c>
-      <c r="Q94" s="49">
+      <c r="Q94" s="48">
         <v>69.908000000000001</v>
       </c>
-      <c r="R94" s="49">
+      <c r="R94" s="48">
         <v>65.022000000000006</v>
       </c>
-      <c r="S94" s="49">
+      <c r="S94" s="48">
         <v>60.552999999999997</v>
       </c>
-      <c r="T94" s="49">
+      <c r="T94" s="48">
         <v>56.177</v>
       </c>
-      <c r="U94" s="49">
+      <c r="U94" s="48">
         <v>52.183</v>
       </c>
-      <c r="V94" s="49">
+      <c r="V94" s="48">
         <v>48.268000000000001</v>
       </c>
-      <c r="W94" s="49">
+      <c r="W94" s="48">
         <v>44.52</v>
       </c>
-      <c r="X94" s="49">
+      <c r="X94" s="48">
         <v>40.801000000000002</v>
       </c>
-      <c r="Y94" s="49">
+      <c r="Y94" s="48">
         <v>37.277000000000001</v>
       </c>
-      <c r="Z94" s="49">
+      <c r="Z94" s="48">
         <v>33.844999999999999</v>
       </c>
-      <c r="AA94" s="49">
+      <c r="AA94" s="48">
         <v>30.599</v>
       </c>
-      <c r="AB94" s="49">
+      <c r="AB94" s="48">
         <v>27.539000000000001</v>
       </c>
-      <c r="AC94" s="49">
+      <c r="AC94" s="48">
         <v>24.655000000000001</v>
       </c>
-      <c r="AD94" s="49">
+      <c r="AD94" s="48">
         <v>22.006</v>
       </c>
-      <c r="AE94" s="49">
+      <c r="AE94" s="48">
         <v>19.544</v>
       </c>
-      <c r="AF94" s="49">
+      <c r="AF94" s="48">
         <v>17.234999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B95" s="47" t="s">
+      <c r="B95" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="C95" s="49">
+      <c r="C95" s="48">
         <v>351.60700000000003</v>
       </c>
-      <c r="D95" s="49">
+      <c r="D95" s="48">
         <v>365.89499999999998</v>
       </c>
-      <c r="E95" s="49">
+      <c r="E95" s="48">
         <v>379.05500000000001</v>
       </c>
-      <c r="F95" s="49">
+      <c r="F95" s="48">
         <v>381.17</v>
       </c>
-      <c r="G95" s="49">
+      <c r="G95" s="48">
         <v>375.53</v>
       </c>
-      <c r="H95" s="49">
+      <c r="H95" s="48">
         <v>359.08</v>
       </c>
-      <c r="I95" s="49">
+      <c r="I95" s="48">
         <v>339.15199999999999</v>
       </c>
-      <c r="J95" s="49">
+      <c r="J95" s="48">
         <v>307.286</v>
       </c>
-      <c r="K95" s="49">
+      <c r="K95" s="48">
         <v>268.94</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>260.65199999999999</v>
       </c>
-      <c r="M95" s="49">
+      <c r="M95" s="48">
         <v>243.6</v>
       </c>
-      <c r="N95" s="49">
+      <c r="N95" s="48">
         <v>227.10599999999999</v>
       </c>
-      <c r="O95" s="49">
+      <c r="O95" s="48">
         <v>201.94499999999999</v>
       </c>
-      <c r="P95" s="49">
+      <c r="P95" s="48">
         <v>176.53700000000001</v>
       </c>
-      <c r="Q95" s="49">
+      <c r="Q95" s="48">
         <v>165.084</v>
       </c>
-      <c r="R95" s="49">
+      <c r="R95" s="48">
         <v>154.726</v>
       </c>
-      <c r="S95" s="49">
+      <c r="S95" s="48">
         <v>145.71299999999999</v>
       </c>
-      <c r="T95" s="49">
+      <c r="T95" s="48">
         <v>137.16499999999999</v>
       </c>
-      <c r="U95" s="49">
+      <c r="U95" s="48">
         <v>129.738</v>
       </c>
-      <c r="V95" s="49">
+      <c r="V95" s="48">
         <v>122.61199999999999</v>
       </c>
-      <c r="W95" s="49">
+      <c r="W95" s="48">
         <v>115.96899999999999</v>
       </c>
-      <c r="X95" s="49">
+      <c r="X95" s="48">
         <v>109.38</v>
       </c>
-      <c r="Y95" s="49">
+      <c r="Y95" s="48">
         <v>103.21299999999999</v>
       </c>
-      <c r="Z95" s="49">
+      <c r="Z95" s="48">
         <v>97.149000000000001</v>
       </c>
-      <c r="AA95" s="49">
+      <c r="AA95" s="48">
         <v>91.388000000000005</v>
       </c>
-      <c r="AB95" s="49">
+      <c r="AB95" s="48">
         <v>85.896000000000001</v>
       </c>
-      <c r="AC95" s="49">
+      <c r="AC95" s="48">
         <v>80.599000000000004</v>
       </c>
-      <c r="AD95" s="49">
+      <c r="AD95" s="48">
         <v>75.680999999999997</v>
       </c>
-      <c r="AE95" s="49">
+      <c r="AE95" s="48">
         <v>70.977999999999994</v>
       </c>
-      <c r="AF95" s="49">
+      <c r="AF95" s="48">
         <v>66.334999999999994</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="49">
+      <c r="C96" s="48">
         <v>338.14100000000002</v>
       </c>
-      <c r="D96" s="49">
+      <c r="D96" s="48">
         <v>351.88200000000001</v>
       </c>
-      <c r="E96" s="49">
+      <c r="E96" s="48">
         <v>364.53800000000001</v>
       </c>
-      <c r="F96" s="49">
+      <c r="F96" s="48">
         <v>366.572</v>
       </c>
-      <c r="G96" s="49">
+      <c r="G96" s="48">
         <v>361.14800000000002</v>
       </c>
-      <c r="H96" s="49">
+      <c r="H96" s="48">
         <v>345.32799999999997</v>
       </c>
-      <c r="I96" s="49">
+      <c r="I96" s="48">
         <v>326.16300000000001</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="48">
         <v>295.517</v>
       </c>
-      <c r="K96" s="49">
+      <c r="K96" s="48">
         <v>251.99</v>
       </c>
-      <c r="L96" s="49">
+      <c r="L96" s="48">
         <v>253.26900000000001</v>
       </c>
-      <c r="M96" s="49">
+      <c r="M96" s="48">
         <v>236.7</v>
       </c>
-      <c r="N96" s="49">
+      <c r="N96" s="48">
         <v>221.43299999999999</v>
       </c>
-      <c r="O96" s="49">
+      <c r="O96" s="48">
         <v>202.35</v>
       </c>
-      <c r="P96" s="49">
+      <c r="P96" s="48">
         <v>179.768</v>
       </c>
-      <c r="Q96" s="49">
+      <c r="Q96" s="48">
         <v>171.83699999999999</v>
       </c>
-      <c r="R96" s="49">
+      <c r="R96" s="48">
         <v>164.82400000000001</v>
       </c>
-      <c r="S96" s="49">
+      <c r="S96" s="48">
         <v>159.05699999999999</v>
       </c>
-      <c r="T96" s="49">
+      <c r="T96" s="48">
         <v>153.62100000000001</v>
       </c>
-      <c r="U96" s="49">
+      <c r="U96" s="48">
         <v>149.28700000000001</v>
       </c>
-      <c r="V96" s="49">
+      <c r="V96" s="48">
         <v>145.18</v>
       </c>
-      <c r="W96" s="49">
+      <c r="W96" s="48">
         <v>141.511</v>
       </c>
-      <c r="X96" s="49">
+      <c r="X96" s="48">
         <v>137.78299999999999</v>
       </c>
-      <c r="Y96" s="49">
+      <c r="Y96" s="48">
         <v>134.44999999999999</v>
       </c>
-      <c r="Z96" s="49">
+      <c r="Z96" s="48">
         <v>131.119</v>
       </c>
-      <c r="AA96" s="49">
+      <c r="AA96" s="48">
         <v>128.054</v>
       </c>
-      <c r="AB96" s="49">
+      <c r="AB96" s="48">
         <v>125.217</v>
       </c>
-      <c r="AC96" s="49">
+      <c r="AC96" s="48">
         <v>122.514</v>
       </c>
-      <c r="AD96" s="49">
+      <c r="AD96" s="48">
         <v>120.251</v>
       </c>
-      <c r="AE96" s="49">
+      <c r="AE96" s="48">
         <v>118.178</v>
       </c>
-      <c r="AF96" s="49">
+      <c r="AF96" s="48">
         <v>116.047</v>
       </c>
     </row>
     <row r="97" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="49">
+      <c r="C97" s="48">
         <v>284.27800000000002</v>
       </c>
-      <c r="D97" s="49">
+      <c r="D97" s="48">
         <v>295.83</v>
       </c>
-      <c r="E97" s="49">
+      <c r="E97" s="48">
         <v>306.47000000000003</v>
       </c>
-      <c r="F97" s="49">
+      <c r="F97" s="48">
         <v>308.18</v>
       </c>
-      <c r="G97" s="49">
+      <c r="G97" s="48">
         <v>303.62</v>
       </c>
-      <c r="H97" s="49">
+      <c r="H97" s="48">
         <v>290.32</v>
       </c>
-      <c r="I97" s="49">
+      <c r="I97" s="48">
         <v>274.20800000000003</v>
       </c>
-      <c r="J97" s="49">
+      <c r="J97" s="48">
         <v>248.44399999999999</v>
       </c>
-      <c r="K97" s="49">
+      <c r="K97" s="48">
         <v>206.79</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>196.238</v>
       </c>
-      <c r="M97" s="49">
+      <c r="M97" s="48">
         <v>183.4</v>
       </c>
-      <c r="N97" s="49">
+      <c r="N97" s="48">
         <v>170.56200000000001</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>149.16399999999999</v>
       </c>
-      <c r="P97" s="49">
+      <c r="P97" s="48">
         <v>129.59200000000001</v>
       </c>
-      <c r="Q97" s="49">
+      <c r="Q97" s="48">
         <v>120.236</v>
       </c>
-      <c r="R97" s="49">
+      <c r="R97" s="48">
         <v>112.6</v>
       </c>
-      <c r="S97" s="49">
+      <c r="S97" s="48">
         <v>106.702</v>
       </c>
-      <c r="T97" s="49">
+      <c r="T97" s="48">
         <v>101.782</v>
       </c>
-      <c r="U97" s="49">
+      <c r="U97" s="48">
         <v>98.244</v>
       </c>
-      <c r="V97" s="49">
+      <c r="V97" s="48">
         <v>95.421000000000006</v>
       </c>
-      <c r="W97" s="49">
+      <c r="W97" s="48">
         <v>93.405000000000001</v>
       </c>
-      <c r="X97" s="49">
+      <c r="X97" s="48">
         <v>91.822999999999993</v>
       </c>
-      <c r="Y97" s="49">
+      <c r="Y97" s="48">
         <v>90.944999999999993</v>
       </c>
-      <c r="Z97" s="49">
+      <c r="Z97" s="48">
         <v>90.488</v>
       </c>
-      <c r="AA97" s="49">
+      <c r="AA97" s="48">
         <v>90.611000000000004</v>
       </c>
-      <c r="AB97" s="49">
+      <c r="AB97" s="48">
         <v>91.287999999999997</v>
       </c>
-      <c r="AC97" s="49">
+      <c r="AC97" s="48">
         <v>92.462000000000003</v>
       </c>
-      <c r="AD97" s="49">
+      <c r="AD97" s="48">
         <v>94.373000000000005</v>
       </c>
-      <c r="AE97" s="49">
+      <c r="AE97" s="48">
         <v>96.867000000000004</v>
       </c>
-      <c r="AF97" s="49">
+      <c r="AF97" s="48">
         <v>99.762</v>
       </c>
     </row>
     <row r="98" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="49">
+      <c r="C98" s="48">
         <v>203.483</v>
       </c>
-      <c r="D98" s="49">
+      <c r="D98" s="48">
         <v>211.75200000000001</v>
       </c>
-      <c r="E98" s="49">
+      <c r="E98" s="48">
         <v>219.36799999999999</v>
       </c>
-      <c r="F98" s="49">
+      <c r="F98" s="48">
         <v>220.59200000000001</v>
       </c>
-      <c r="G98" s="49">
+      <c r="G98" s="48">
         <v>217.328</v>
       </c>
-      <c r="H98" s="49">
+      <c r="H98" s="48">
         <v>207.80799999999999</v>
       </c>
-      <c r="I98" s="49">
+      <c r="I98" s="48">
         <v>196.27500000000001</v>
       </c>
-      <c r="J98" s="49">
+      <c r="J98" s="48">
         <v>177.834</v>
       </c>
-      <c r="K98" s="49">
+      <c r="K98" s="48">
         <v>161.59</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>143.273</v>
       </c>
-      <c r="M98" s="49">
+      <c r="M98" s="48">
         <v>133.9</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>123.69</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>102.069</v>
       </c>
-      <c r="P98" s="49">
+      <c r="P98" s="48">
         <v>85.85</v>
       </c>
-      <c r="Q98" s="49">
+      <c r="Q98" s="48">
         <v>76.216999999999999</v>
       </c>
-      <c r="R98" s="49">
+      <c r="R98" s="48">
         <v>68.501999999999995</v>
       </c>
-      <c r="S98" s="49">
+      <c r="S98" s="48">
         <v>62.488</v>
       </c>
-      <c r="T98" s="49">
+      <c r="T98" s="48">
         <v>57.558999999999997</v>
       </c>
-      <c r="U98" s="49">
+      <c r="U98" s="48">
         <v>53.819000000000003</v>
       </c>
-      <c r="V98" s="49">
+      <c r="V98" s="48">
         <v>50.801000000000002</v>
       </c>
-      <c r="W98" s="49">
+      <c r="W98" s="48">
         <v>48.494</v>
       </c>
-      <c r="X98" s="49">
+      <c r="X98" s="48">
         <v>46.64</v>
       </c>
-      <c r="Y98" s="49">
+      <c r="Y98" s="48">
         <v>45.348999999999997</v>
       </c>
-      <c r="Z98" s="49">
+      <c r="Z98" s="48">
         <v>44.445999999999998</v>
       </c>
-      <c r="AA98" s="49">
+      <c r="AA98" s="48">
         <v>43.994999999999997</v>
       </c>
-      <c r="AB98" s="49">
+      <c r="AB98" s="48">
         <v>43.973999999999997</v>
       </c>
-      <c r="AC98" s="49">
+      <c r="AC98" s="48">
         <v>44.338000000000001</v>
       </c>
-      <c r="AD98" s="49">
+      <c r="AD98" s="48">
         <v>45.216000000000001</v>
       </c>
-      <c r="AE98" s="49">
+      <c r="AE98" s="48">
         <v>46.536999999999999</v>
       </c>
-      <c r="AF98" s="49">
+      <c r="AF98" s="48">
         <v>48.232999999999997</v>
       </c>
     </row>
     <row r="99" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C99" s="49">
+      <c r="C99" s="48">
         <v>110.71899999999999</v>
       </c>
-      <c r="D99" s="49">
+      <c r="D99" s="48">
         <v>115.218</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E99" s="48">
         <v>119.36199999999999</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F99" s="48">
         <v>120.02800000000001</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G99" s="48">
         <v>118.252</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H99" s="48">
         <v>113.072</v>
       </c>
-      <c r="I99" s="49">
+      <c r="I99" s="48">
         <v>106.797</v>
       </c>
-      <c r="J99" s="49">
+      <c r="J99" s="48">
         <v>96.762</v>
       </c>
-      <c r="K99" s="49">
+      <c r="K99" s="48">
         <v>73.45</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>62.381</v>
       </c>
-      <c r="M99" s="49">
+      <c r="M99" s="48">
         <v>58.3</v>
       </c>
-      <c r="N99" s="49">
+      <c r="N99" s="48">
         <v>53.567999999999998</v>
       </c>
-      <c r="O99" s="49">
+      <c r="O99" s="48">
         <v>42.386000000000003</v>
       </c>
-      <c r="P99" s="49">
+      <c r="P99" s="48">
         <v>34.78</v>
       </c>
-      <c r="Q99" s="49">
+      <c r="Q99" s="48">
         <v>29.864000000000001</v>
       </c>
-      <c r="R99" s="49">
+      <c r="R99" s="48">
         <v>25.962</v>
       </c>
-      <c r="S99" s="49">
+      <c r="S99" s="48">
         <v>22.911000000000001</v>
       </c>
-      <c r="T99" s="49">
+      <c r="T99" s="48">
         <v>20.411999999999999</v>
       </c>
-      <c r="U99" s="49">
+      <c r="U99" s="48">
         <v>18.466000000000001</v>
       </c>
-      <c r="V99" s="49">
+      <c r="V99" s="48">
         <v>16.864000000000001</v>
       </c>
-      <c r="W99" s="49">
+      <c r="W99" s="48">
         <v>15.573</v>
       </c>
-      <c r="X99" s="49">
+      <c r="X99" s="48">
         <v>14.496</v>
       </c>
-      <c r="Y99" s="49">
+      <c r="Y99" s="48">
         <v>13.64</v>
       </c>
-      <c r="Z99" s="49">
+      <c r="Z99" s="48">
         <v>12.938000000000001</v>
       </c>
-      <c r="AA99" s="49">
+      <c r="AA99" s="48">
         <v>12.398</v>
       </c>
-      <c r="AB99" s="49">
+      <c r="AB99" s="48">
         <v>11.999000000000001</v>
       </c>
-      <c r="AC99" s="49">
+      <c r="AC99" s="48">
         <v>11.718999999999999</v>
       </c>
-      <c r="AD99" s="49">
+      <c r="AD99" s="48">
         <v>11.583</v>
       </c>
-      <c r="AE99" s="49">
+      <c r="AE99" s="48">
         <v>11.557</v>
       </c>
-      <c r="AF99" s="49">
+      <c r="AF99" s="48">
         <v>11.621</v>
       </c>
     </row>
     <row r="100" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="C100" s="49">
+      <c r="C100" s="48">
         <v>38.901000000000003</v>
       </c>
-      <c r="D100" s="49">
+      <c r="D100" s="48">
         <v>40.481999999999999</v>
       </c>
-      <c r="E100" s="49">
+      <c r="E100" s="48">
         <v>41.938000000000002</v>
       </c>
-      <c r="F100" s="49">
+      <c r="F100" s="48">
         <v>42.171999999999997</v>
       </c>
-      <c r="G100" s="49">
+      <c r="G100" s="48">
         <v>41.548000000000002</v>
       </c>
-      <c r="H100" s="49">
+      <c r="H100" s="48">
         <v>39.728000000000002</v>
       </c>
-      <c r="I100" s="49">
+      <c r="I100" s="48">
         <v>37.523000000000003</v>
       </c>
-      <c r="J100" s="49">
+      <c r="J100" s="48">
         <v>33.997999999999998</v>
       </c>
-      <c r="K100" s="49">
+      <c r="K100" s="48">
         <v>51.98</v>
       </c>
-      <c r="L100" s="49">
+      <c r="L100" s="48">
         <v>42.692999999999998</v>
       </c>
-      <c r="M100" s="49">
+      <c r="M100" s="48">
         <v>39.9</v>
       </c>
-      <c r="N100" s="49">
+      <c r="N100" s="48">
         <v>36.548999999999999</v>
       </c>
-      <c r="O100" s="49">
+      <c r="O100" s="48">
         <v>27.933</v>
       </c>
-      <c r="P100" s="49">
+      <c r="P100" s="48">
         <v>22.395</v>
       </c>
-      <c r="Q100" s="49">
+      <c r="Q100" s="48">
         <v>18.614000000000001</v>
       </c>
-      <c r="R100" s="49">
+      <c r="R100" s="48">
         <v>15.544</v>
       </c>
-      <c r="S100" s="49">
+      <c r="S100" s="48">
         <v>13.076000000000001</v>
       </c>
-      <c r="T100" s="49">
+      <c r="T100" s="48">
         <v>11.023999999999999</v>
       </c>
-      <c r="U100" s="49">
+      <c r="U100" s="48">
         <v>9.3629999999999995</v>
       </c>
-      <c r="V100" s="49">
+      <c r="V100" s="48">
         <v>7.9740000000000002</v>
       </c>
-      <c r="W100" s="49">
+      <c r="W100" s="48">
         <v>6.8079999999999998</v>
       </c>
-      <c r="X100" s="49">
+      <c r="X100" s="48">
         <v>5.8170000000000002</v>
       </c>
-      <c r="Y100" s="49">
+      <c r="Y100" s="48">
         <v>4.9859999999999998</v>
       </c>
-      <c r="Z100" s="49">
+      <c r="Z100" s="48">
         <v>4.2750000000000004</v>
       </c>
-      <c r="AA100" s="49">
+      <c r="AA100" s="48">
         <v>3.6749999999999998</v>
       </c>
-      <c r="AB100" s="49">
+      <c r="AB100" s="48">
         <v>3.1669999999999998</v>
       </c>
-      <c r="AC100" s="49">
+      <c r="AC100" s="48">
         <v>2.7330000000000001</v>
       </c>
-      <c r="AD100" s="49">
+      <c r="AD100" s="48">
         <v>2.37</v>
       </c>
-      <c r="AE100" s="49">
+      <c r="AE100" s="48">
         <v>2.0590000000000002</v>
       </c>
-      <c r="AF100" s="49">
+      <c r="AF100" s="48">
         <v>1.7869999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B102" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B103" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E103" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="F103" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="G103" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="H103" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="I103" s="37" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B104" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C104" s="20">
+        <v>0</v>
+      </c>
+      <c r="D104" s="20">
+        <v>0</v>
+      </c>
+      <c r="E104" s="20">
+        <f>D104*K$52</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="20">
+        <f>D104*L$52</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="20">
+        <f>D104*M$52</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="20">
+        <f>D104*N$52</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="20">
+        <f>D104*O$52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B105" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="20">
+        <v>0</v>
+      </c>
+      <c r="D105" s="20">
+        <v>0</v>
+      </c>
+      <c r="E105" s="20">
+        <f t="shared" ref="E105:E119" si="17">D105*K$52</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="20">
+        <f t="shared" ref="F105:F119" si="18">D105*L$52</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="20">
+        <f t="shared" ref="G105:G119" si="19">D105*M$52</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="20">
+        <f t="shared" ref="H105:H119" si="20">D105*N$52</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="20">
+        <f t="shared" ref="I105:I119" si="21">D105*O$52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B106" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="37">
+        <v>0</v>
+      </c>
+      <c r="D106" s="37">
+        <f>C106/1000</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B107" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="37">
+        <v>179</v>
+      </c>
+      <c r="D107" s="52">
+        <f>183.286/1000</f>
+        <v>0.183286</v>
+      </c>
+      <c r="E107" s="20">
+        <f t="shared" si="17"/>
+        <v>0.183286</v>
+      </c>
+      <c r="F107" s="20">
+        <f t="shared" si="18"/>
+        <v>0.183286</v>
+      </c>
+      <c r="G107" s="20">
+        <f t="shared" si="19"/>
+        <v>0.10630587999999999</v>
+      </c>
+      <c r="H107" s="20">
+        <f t="shared" si="20"/>
+        <v>0.10630587999999999</v>
+      </c>
+      <c r="I107" s="20">
+        <f t="shared" si="21"/>
+        <v>7.5147259999999994E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="37">
+        <v>368</v>
+      </c>
+      <c r="D108" s="52">
+        <f>381.17/1000</f>
+        <v>0.38117000000000001</v>
+      </c>
+      <c r="E108" s="20">
+        <f t="shared" si="17"/>
+        <v>0.38117000000000001</v>
+      </c>
+      <c r="F108" s="20">
+        <f t="shared" si="18"/>
+        <v>0.38117000000000001</v>
+      </c>
+      <c r="G108" s="20">
+        <f t="shared" si="19"/>
+        <v>0.22107859999999999</v>
+      </c>
+      <c r="H108" s="20">
+        <f t="shared" si="20"/>
+        <v>0.22107859999999999</v>
+      </c>
+      <c r="I108" s="20">
+        <f t="shared" si="21"/>
+        <v>0.15627969999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B109" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="37">
+        <v>372</v>
+      </c>
+      <c r="D109" s="52">
+        <f>366.572/1000</f>
+        <v>0.36657200000000001</v>
+      </c>
+      <c r="E109" s="20">
+        <f t="shared" si="17"/>
+        <v>0.36657200000000001</v>
+      </c>
+      <c r="F109" s="20">
+        <f t="shared" si="18"/>
+        <v>0.36657200000000001</v>
+      </c>
+      <c r="G109" s="20">
+        <f t="shared" si="19"/>
+        <v>0.21261175999999998</v>
+      </c>
+      <c r="H109" s="20">
+        <f t="shared" si="20"/>
+        <v>0.21261175999999998</v>
+      </c>
+      <c r="I109" s="20">
+        <f t="shared" si="21"/>
+        <v>0.15029451999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B110" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="37">
+        <v>311</v>
+      </c>
+      <c r="D110" s="52">
+        <f>308.18/1000</f>
+        <v>0.30818000000000001</v>
+      </c>
+      <c r="E110" s="20">
+        <f t="shared" si="17"/>
+        <v>0.30818000000000001</v>
+      </c>
+      <c r="F110" s="20">
+        <f t="shared" si="18"/>
+        <v>0.30818000000000001</v>
+      </c>
+      <c r="G110" s="20">
+        <f t="shared" si="19"/>
+        <v>0.1787444</v>
+      </c>
+      <c r="H110" s="20">
+        <f t="shared" si="20"/>
+        <v>0.1787444</v>
+      </c>
+      <c r="I110" s="20">
+        <f t="shared" si="21"/>
+        <v>0.12635379999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B111" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="37">
+        <v>226</v>
+      </c>
+      <c r="D111" s="52">
+        <f>220.592/1000</f>
+        <v>0.22059200000000001</v>
+      </c>
+      <c r="E111" s="20">
+        <f t="shared" si="17"/>
+        <v>0.22059200000000001</v>
+      </c>
+      <c r="F111" s="20">
+        <f t="shared" si="18"/>
+        <v>0.22059200000000001</v>
+      </c>
+      <c r="G111" s="20">
+        <f t="shared" si="19"/>
+        <v>0.12794336000000001</v>
+      </c>
+      <c r="H111" s="20">
+        <f t="shared" si="20"/>
+        <v>0.12794336000000001</v>
+      </c>
+      <c r="I111" s="20">
+        <f t="shared" si="21"/>
+        <v>9.0442720000000004E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B112" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="37">
+        <v>105</v>
+      </c>
+      <c r="D112" s="52">
+        <f>120.028/1000</f>
+        <v>0.12002800000000001</v>
+      </c>
+      <c r="E112" s="20">
+        <f t="shared" si="17"/>
+        <v>0.12002800000000001</v>
+      </c>
+      <c r="F112" s="20">
+        <f t="shared" si="18"/>
+        <v>0.12002800000000001</v>
+      </c>
+      <c r="G112" s="20">
+        <f t="shared" si="19"/>
+        <v>6.9616239999999996E-2</v>
+      </c>
+      <c r="H112" s="20">
+        <f t="shared" si="20"/>
+        <v>6.9616239999999996E-2</v>
+      </c>
+      <c r="I112" s="20">
+        <f t="shared" si="21"/>
+        <v>4.9211480000000002E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C113" s="37">
+        <v>14</v>
+      </c>
+      <c r="D113" s="52">
+        <f>42.172/1000</f>
+        <v>4.2171999999999994E-2</v>
+      </c>
+      <c r="E113" s="20">
+        <f t="shared" si="17"/>
+        <v>4.2171999999999994E-2</v>
+      </c>
+      <c r="F113" s="20">
+        <f t="shared" si="18"/>
+        <v>4.2171999999999994E-2</v>
+      </c>
+      <c r="G113" s="20">
+        <f t="shared" si="19"/>
+        <v>2.4459759999999994E-2</v>
+      </c>
+      <c r="H113" s="20">
+        <f t="shared" si="20"/>
+        <v>2.4459759999999994E-2</v>
+      </c>
+      <c r="I113" s="20">
+        <f t="shared" si="21"/>
+        <v>1.7290519999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="C114" s="20">
+        <v>0</v>
+      </c>
+      <c r="D114" s="20">
+        <v>0</v>
+      </c>
+      <c r="E114" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="C115" s="20">
+        <v>0</v>
+      </c>
+      <c r="D115" s="20">
+        <v>0</v>
+      </c>
+      <c r="E115" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" s="20">
+        <v>0</v>
+      </c>
+      <c r="D116" s="20">
+        <v>0</v>
+      </c>
+      <c r="E116" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" s="20">
+        <v>0</v>
+      </c>
+      <c r="D117" s="20">
+        <v>0</v>
+      </c>
+      <c r="E117" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="C118" s="20">
+        <v>0</v>
+      </c>
+      <c r="D118" s="20">
+        <v>0</v>
+      </c>
+      <c r="E118" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C119" s="20">
+        <v>0</v>
+      </c>
+      <c r="D119" s="20">
+        <v>0</v>
+      </c>
+      <c r="E119" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
